--- a/http/spider/excel/爬取结果.xlsx
+++ b/http/spider/excel/爬取结果.xlsx
@@ -414,7 +414,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892839387139/lud/d55887622e324565adafca10e2402c7c.m3u8?MtsHlsUriToken=8957032c2bf14790a78490c7fda16a2c2b02c2a1474a40feafbc5abb97c70442</v>
+        <v>https://v.baoshiyun.com/resource/media-842892839387139/lud/d55887622e324565adafca10e2402c7c.m3u8?MtsHlsUriToken=3eb318cb32dd4edf862d4752993464149c660f76073449d9a85895ebf840f64e</v>
       </c>
     </row>
     <row r="2">
@@ -465,7 +465,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892839976960/lud/d2e669e4bf904d8aa85473e4304675dd.m3u8?MtsHlsUriToken=5f74a16975284f68aa1e7ff16e75daef9dd4848153c849708809b577cc852719</v>
+        <v>https://v.baoshiyun.com/resource/media-842892839976960/lud/d2e669e4bf904d8aa85473e4304675dd.m3u8?MtsHlsUriToken=7c8238ad3a3540fcac8aee8a6dba0b4388faee523abd40bc9e8dc34ed168db8a</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892839911424/lud/d32a1bae6a064f979e6b29521e395c3d.m3u8?MtsHlsUriToken=0d2af9ee09d042c2b7b2e182c61814ced9a3025f566c46adb4b0b62d6c26236a</v>
+        <v>https://v.baoshiyun.com/resource/media-842892839911424/lud/d32a1bae6a064f979e6b29521e395c3d.m3u8?MtsHlsUriToken=2474bc94fc9b4b098daf9a161dc00c5f502c483f9db246c592878680c11f57f1</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011819819008/lud/0e0645705e0c4a7fbbc792352e6b39ef.m3u8?MtsHlsUriToken=50f4862c7ebc4def9207c82336edd9d388f5dcb8a345458cbc76f771caec7349</v>
+        <v>https://v.baoshiyun.com/resource/media-846011819819008/lud/0e0645705e0c4a7fbbc792352e6b39ef.m3u8?MtsHlsUriToken=2273914b36344d5c8d3ec5f478e96264087645193ad24da7a7d3e82b081268fc</v>
       </c>
     </row>
     <row r="11">
@@ -584,7 +584,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011821391873/lud/9a1293cc83c24ef9a641c1e034aa2371.m3u8?MtsHlsUriToken=0e54c047f31e4baf978dfcd2dbf6fc0f8c08c1e24c0f4c50a810b5bbd718846f</v>
+        <v>https://v.baoshiyun.com/resource/media-846011821391873/lud/9a1293cc83c24ef9a641c1e034aa2371.m3u8?MtsHlsUriToken=84503c00c94c42eb82961c1ed75895d18d60c5ec615e4dd0afb3b6b5d3917061</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011821326343/lud/177962a160254264b25101a173a26a0e.m3u8?MtsHlsUriToken=538849ab41b4465faea9cf5ea3dd78a52c98a00e381940b79be89d51a8b77cb0</v>
+        <v>https://v.baoshiyun.com/resource/media-846011821326343/lud/177962a160254264b25101a173a26a0e.m3u8?MtsHlsUriToken=01a1fa2ba59f4ed89f6f031422f1c74cd4954dd8d6514b5e94593fc1df8f89d2</v>
       </c>
     </row>
     <row r="13">
@@ -618,7 +618,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011822374913/lud/b415ad43e02946358e33c428f1a83adc.m3u8?MtsHlsUriToken=bbb77c8591e64161914d567cf4a383596995138b620d41638759c668115299c2</v>
+        <v>https://v.baoshiyun.com/resource/media-846011822374913/lud/b415ad43e02946358e33c428f1a83adc.m3u8?MtsHlsUriToken=99dc343900064e9693778b31cd5ead20ab09f4b294a84fa4a23446d3fda53a60</v>
       </c>
     </row>
     <row r="14">
@@ -635,7 +635,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011821883393/lud/bc63e224cb794f6c8649ff8aee9a1cb4.m3u8?MtsHlsUriToken=8a1f73c9fdf344398f271af160c3e01e37056e3ab6cd40a4bc0ae243a1073e22</v>
+        <v>https://v.baoshiyun.com/resource/media-846011821883393/lud/bc63e224cb794f6c8649ff8aee9a1cb4.m3u8?MtsHlsUriToken=423798151e11468ca2d7041339109a2746a1a33d44f04a3fb773a66bc89ef0a3</v>
       </c>
     </row>
     <row r="15">
@@ -652,7 +652,7 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011821850626/lud/94d19620ac5444cbbca6bd0c46059dcd.m3u8?MtsHlsUriToken=dad71266fe824ea58df3cccde6340d264da2ff44bc7a4069bec42dfe82148479</v>
+        <v>https://v.baoshiyun.com/resource/media-846011821850626/lud/94d19620ac5444cbbca6bd0c46059dcd.m3u8?MtsHlsUriToken=9b271d7930a44c8a8fd1d6bc89875183698309d8e8104d92a23c4c53e84e421a</v>
       </c>
     </row>
     <row r="16">
@@ -669,7 +669,7 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011821948934/lud/bab6bf7ae3f642d6b9e00200f8227b9a.m3u8?MtsHlsUriToken=ef1eb358eb224975850023c75f9b4bbb06397ffeb2eb4e90aa924fc0a6886717</v>
+        <v>https://v.baoshiyun.com/resource/media-846011821948934/lud/bab6bf7ae3f642d6b9e00200f8227b9a.m3u8?MtsHlsUriToken=3319f53a414a411d8d2d9f39c027a287778f473b20ff4370b90061a3591ffe27</v>
       </c>
     </row>
     <row r="17">
@@ -686,7 +686,7 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011821948936/lud/8204f0067a184783ac0acad9d704736d.m3u8?MtsHlsUriToken=06ab188731394ae69b5f31663628e4d07fa7248899464327a157e05218b30e1e</v>
+        <v>https://v.baoshiyun.com/resource/media-846011821948936/lud/8204f0067a184783ac0acad9d704736d.m3u8?MtsHlsUriToken=bbb59e4348c34bf1b06c89878cebbb066e2b2145f29a40b5865196aad81f0211</v>
       </c>
     </row>
     <row r="18">
@@ -703,7 +703,7 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011822407682/lud/2f5fca47c26245e29d176307ab3b4373.m3u8?MtsHlsUriToken=80c88d057d0c49af86af742eb55daa11598810d0c6514748983c0611cb90c9c1</v>
+        <v>https://v.baoshiyun.com/resource/media-846011822407682/lud/2f5fca47c26245e29d176307ab3b4373.m3u8?MtsHlsUriToken=425be763275f49a28ea51d45acb541940fcfd18249d14f5687fea894754a8194</v>
       </c>
     </row>
     <row r="19">
@@ -720,7 +720,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011822473218/lud/d7935ba9e7374bac99a00bdde32afdc6.m3u8?MtsHlsUriToken=3bf1546afe6843eca7e3f6f73e793e745f734ea3dc6044f4a5537d2e22f3b9e4</v>
+        <v>https://v.baoshiyun.com/resource/media-846011822473218/lud/d7935ba9e7374bac99a00bdde32afdc6.m3u8?MtsHlsUriToken=249c864974444f6c94b338a3a14b42a2cc67278326a04df795ba098881ce390a</v>
       </c>
     </row>
     <row r="20">
@@ -737,7 +737,7 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011825586176/lud/a9a5a6ddec6746bb80d368a06e73e88a.m3u8?MtsHlsUriToken=f9e49a1587a24c648a1d41f3f36a1393c0bc869014cd407fafa5084abdf0200a</v>
+        <v>https://v.baoshiyun.com/resource/media-846011825586176/lud/a9a5a6ddec6746bb80d368a06e73e88a.m3u8?MtsHlsUriToken=6e4a89eefce6421288c81c87cba7ed17b65d8e1edec04ebb85c9e8e90d4f0df2</v>
       </c>
     </row>
     <row r="21">
@@ -754,7 +754,7 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011825618946/lud/5e17309142ff4873908ca387858849c8.m3u8?MtsHlsUriToken=fa25154ef54c4ab9b6bb87d6c7a18b041c5e6c4d4b9d40f39844674b67f5518d</v>
+        <v>https://v.baoshiyun.com/resource/media-846011825618946/lud/5e17309142ff4873908ca387858849c8.m3u8?MtsHlsUriToken=b66795f6c7f64c329af01a3a8260be53e103dff44f6748d584a9bd78d9768a98</v>
       </c>
     </row>
     <row r="22">
@@ -771,7 +771,7 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011825553412/lud/a2db2745b7b94c0b9edd37330644f49d.m3u8?MtsHlsUriToken=eb355e650fac447a97e4de9b26f975cc15ded725db1348b4ac47a21e46f0d357</v>
+        <v>https://v.baoshiyun.com/resource/media-846011825553412/lud/a2db2745b7b94c0b9edd37330644f49d.m3u8?MtsHlsUriToken=3438df6e1e754f6e8f3403e14f2f22e0a06c539b9870403eb8e05dc7ee5fe007</v>
       </c>
     </row>
     <row r="23">
@@ -788,7 +788,7 @@
         <v/>
       </c>
       <c r="E23" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011826044928/lud/6d8ae20320ba47e09a46d5fa678b63d9.m3u8?MtsHlsUriToken=d5a0c32d89d2440784c755a69b25704642a8b0722d5c49b5baad62076326aeed</v>
+        <v>https://v.baoshiyun.com/resource/media-846011826044928/lud/6d8ae20320ba47e09a46d5fa678b63d9.m3u8?MtsHlsUriToken=b0b89e842db54eadb0b71d41e0001feef7860fd035194f8580e3134be2bc927d</v>
       </c>
     </row>
     <row r="24">
@@ -805,7 +805,7 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011826143232/lud/b947fe4232b2428d90d7446ccff26143.m3u8?MtsHlsUriToken=ece43a0b92284ba0aea03d65c9c992e0f7a708d8469b455e8dcc26fe9b1b646f</v>
+        <v>https://v.baoshiyun.com/resource/media-846011826143232/lud/b947fe4232b2428d90d7446ccff26143.m3u8?MtsHlsUriToken=2583a456eddd439eb5d71ff6dbf03c597163bf6b9ccf4ecd93d72cb7f73b9c36</v>
       </c>
     </row>
     <row r="25">
@@ -822,7 +822,7 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011826110464/lud/a5f1bb452aae42b69157c6a3a887a9e4.m3u8?MtsHlsUriToken=14e0354f90ad4d8b892a86cb8a26b3a8104282104add44249ce3b021465a4d24</v>
+        <v>https://v.baoshiyun.com/resource/media-846011826110464/lud/a5f1bb452aae42b69157c6a3a887a9e4.m3u8?MtsHlsUriToken=4d6bbf3fb2de42ed8b1e66ff25d67e36321802d3ca744aaeaaaa7d7bf12b7f3c</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v/>
       </c>
       <c r="E28" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011827159040/lud/6b33b6d7f1eb4bd592df8a7a2122e4ad.m3u8?MtsHlsUriToken=74373ab9590a40ab8b7fae9269dc9ffc76ff83331ad446ccb4c397905e7aad7f</v>
+        <v>https://v.baoshiyun.com/resource/media-846011827159040/lud/6b33b6d7f1eb4bd592df8a7a2122e4ad.m3u8?MtsHlsUriToken=6968335f6741450b80ed4379b13b99155d10c593a02c48a19ac73611a997a00a</v>
       </c>
     </row>
     <row r="29">
@@ -890,7 +890,7 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011827126272/lud/8bd5cfd3d0ec4dd8928191c619a7814e.m3u8?MtsHlsUriToken=577aa0bd08a249f19a6ff6cf02a4a5847aace8e886c94244a5037d6d7c24b4aa</v>
+        <v>https://v.baoshiyun.com/resource/media-846011827126272/lud/8bd5cfd3d0ec4dd8928191c619a7814e.m3u8?MtsHlsUriToken=e66af4b513ca41c9a0cd650bd53d6a7e3f3b25f87f6840688a02745794fd1713</v>
       </c>
     </row>
     <row r="30">
@@ -907,7 +907,7 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011827617792/lud/078e54cb2cda403e9877c40e066e68ac.m3u8?MtsHlsUriToken=24c674aca1004bdda0e6d1c9606d626b9bf51dc7cbb9416b9dd67f6d28b7ee5a</v>
+        <v>https://v.baoshiyun.com/resource/media-846011827617792/lud/078e54cb2cda403e9877c40e066e68ac.m3u8?MtsHlsUriToken=397b0b0574c743a48c63106a20674d5c067e5b6c53944f3f9fd47ad676cf11db</v>
       </c>
     </row>
     <row r="31">
@@ -924,7 +924,7 @@
         <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828142080/lud/436e42772c804e5ca646b028e168a40f.m3u8?MtsHlsUriToken=494e16462f114f4f88b84678b141616191cff8dcf1a14e1baba90561ba01d18f</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828142080/lud/436e42772c804e5ca646b028e168a40f.m3u8?MtsHlsUriToken=cc5f98bc5e164b6cae632f43ed168aa0655ec1f2c299400fbd606ba2263120e7</v>
       </c>
     </row>
     <row r="32">
@@ -941,7 +941,7 @@
         <v/>
       </c>
       <c r="E32" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828142082/lud/0e7979012e924186bc8b4be30cb9d816.m3u8?MtsHlsUriToken=d5bc001f4c634559a7340d2146ae72fc3940e0abef9b483a959a2a5ff9674047</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828142082/lud/0e7979012e924186bc8b4be30cb9d816.m3u8?MtsHlsUriToken=9466104cd4be45f8bb0f5c6b2b0aa2a206287cfd75f7469a8c832cec921bdeb5</v>
       </c>
     </row>
     <row r="33">
@@ -958,7 +958,7 @@
         <v/>
       </c>
       <c r="E33" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828142083/lud/c551c8839f1b4eb4818467aed17242ea.m3u8?MtsHlsUriToken=86dfc9f4ffec4c82ba73d11bc94517d34ffe257e55d54cb3b7b0e9ab5075d0ca</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828142083/lud/c551c8839f1b4eb4818467aed17242ea.m3u8?MtsHlsUriToken=b971b19e5ee544d3a0ccdc2b787ef1d1cff6d0ffea27456c8930e11d926409a1</v>
       </c>
     </row>
     <row r="34">
@@ -975,7 +975,7 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828666368/lud/2648583ffa2e4a01a48a891e68fdc406.m3u8?MtsHlsUriToken=f418411007054da6886f7d17e4846429e931bb786e0449848d3eed5f066ec99f</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828666368/lud/2648583ffa2e4a01a48a891e68fdc406.m3u8?MtsHlsUriToken=d4f899ad0aaa458b901f88ab6b50211c52b94aa9c14340b184ff7ce2a062f365</v>
       </c>
     </row>
     <row r="35">
@@ -992,7 +992,7 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828764677/lud/d6ad44add7b74fdf807916b981e731a4.m3u8?MtsHlsUriToken=c1e7781e869d4c5f853941f3879c0eedf23b9c448b0344bea6b1b8ed4a5c1310</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828764677/lud/d6ad44add7b74fdf807916b981e731a4.m3u8?MtsHlsUriToken=197d3ff5b1ac469085598add32a9a94090b949b17c1849d4bc0d51929e8e2da0</v>
       </c>
     </row>
     <row r="36">
@@ -1009,7 +1009,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828731905/lud/2135ddc2d6f44a789e2b5fa694940796.m3u8?MtsHlsUriToken=c35137cbf64d454f865b10db8215a048dc3ade99e38448188d76f2a0c6427faa</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828731905/lud/2135ddc2d6f44a789e2b5fa694940796.m3u8?MtsHlsUriToken=75ce04f8b4f5475fbe9ef6145f043754efca6e58c5c3467d8c0d6fcca3b02593</v>
       </c>
     </row>
     <row r="37">
@@ -1026,7 +1026,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011828666375/lud/361f8f65adf74c2982ba67cadda09974.m3u8?MtsHlsUriToken=387635dfb4684bdda50a0f0650dece739d26a19a80a642da82de8ab040a9f7d4</v>
+        <v>https://v.baoshiyun.com/resource/media-846011828666375/lud/361f8f65adf74c2982ba67cadda09974.m3u8?MtsHlsUriToken=3f70f9c0b9734f988b7a094a39797784aa300dbf48a04abeb43d3e1373a1cc93</v>
       </c>
     </row>
     <row r="38">
@@ -1043,7 +1043,7 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011829190656/lud/e41093e2a8e94daa8810921111462c22.m3u8?MtsHlsUriToken=dac19da5d30b42b5add7a310416a91d0c0b07b08e7bd4d1d8cd025a170f6a371</v>
+        <v>https://v.baoshiyun.com/resource/media-846011829190656/lud/e41093e2a8e94daa8810921111462c22.m3u8?MtsHlsUriToken=08d3cbd2b2da41649d663ac26b156e8d53d71b32b2fb4ea087705fc99bb2bbd2</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         <v/>
       </c>
       <c r="E39" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011829223428/lud/d735d50c98b04fb383aa5f21f7434da3.m3u8?MtsHlsUriToken=b7185a1ef1c3452297b42e2321bc14e42d7a0daaae814f25825cff1a39c361ce</v>
+        <v>https://v.baoshiyun.com/resource/media-846011829223428/lud/d735d50c98b04fb383aa5f21f7434da3.m3u8?MtsHlsUriToken=7d3537479c5d431bb12a06c4a159f5e1bab57f85b89a4fcc903afd03b34ffe09</v>
       </c>
     </row>
     <row r="40">
@@ -1132,7 +1132,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841893502976/lud/351f5e7e4fae48929dc084ba86fadd92.m3u8?MtsHlsUriToken=df0314c6f03743d892ef53e24946a3d5f3230dddcaed4a4e8ed54c5a3e0c690a</v>
+        <v>https://v.baoshiyun.com/resource/media-842841893502976/lud/351f5e7e4fae48929dc084ba86fadd92.m3u8?MtsHlsUriToken=abde47af44ce499595931594ed93548127de869ad2e4488f87ce724c73c7aebf</v>
       </c>
     </row>
     <row r="2">
@@ -1200,7 +1200,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841894060032/lud/52570566140840539324100d680e10c0.m3u8?MtsHlsUriToken=c2778441af314fcaae46258c9375e88d75673aa9d85d45eda19c86d4a89f88c1</v>
+        <v>https://v.baoshiyun.com/resource/media-842841894060032/lud/52570566140840539324100d680e10c0.m3u8?MtsHlsUriToken=93dafe434b724038bd2acf497fe8e634d1be7b526fd74532b487649eefc5ac3b</v>
       </c>
     </row>
     <row r="6">
@@ -1234,7 +1234,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841894912001/lud/5255fe43145b4c11974d2caac55b2023.m3u8?MtsHlsUriToken=b54a9d3800864c6baab1ca21037ce1b50b53dca115f54e08a215e9244b9e1222</v>
+        <v>https://v.baoshiyun.com/resource/media-842841894912001/lud/5255fe43145b4c11974d2caac55b2023.m3u8?MtsHlsUriToken=ec807d2a74804300a795a479f69f6fa5d9a68ab0e4bb481f9554d77eb8ccbcf4</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1251,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884743036928/lud/a8ac141d39b34e70939d8628db95714a.m3u8?MtsHlsUriToken=2483d842f3994861bc5d2b399313265e4fb13aa8e905496f8b75c641c4247f4f</v>
+        <v>https://v.baoshiyun.com/resource/media-842884743036928/lud/a8ac141d39b34e70939d8628db95714a.m3u8?MtsHlsUriToken=15b7f29a3a17427f8fb916605f8ecd89e6698e35701149299cae09611ae320f4</v>
       </c>
     </row>
     <row r="9">
@@ -1268,7 +1268,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884744118272/lud/7288107aec8b433e91c46cf5bee3c4e6.m3u8?MtsHlsUriToken=00378930249943629a1759086c214ef2e6adf40eb52b4ca2a78917996dc4db22</v>
+        <v>https://v.baoshiyun.com/resource/media-842884744118272/lud/7288107aec8b433e91c46cf5bee3c4e6.m3u8?MtsHlsUriToken=758d5eddd7634afca54c14d50f2da2086f4ce12c56314524918939d84ed0d1a2</v>
       </c>
     </row>
     <row r="10">
@@ -1285,7 +1285,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884744970241/lud/5cbc37164f0c4d69a3295189a5ae5577.m3u8?MtsHlsUriToken=56c74e2ab6eb45d991f116f6391e3c94d9d6a59f417441a98b93d5046c3caa53</v>
+        <v>https://v.baoshiyun.com/resource/media-842884744970241/lud/5cbc37164f0c4d69a3295189a5ae5577.m3u8?MtsHlsUriToken=99e365d6b7e745c38207c777d7e8cc26b81bf34122c046479b1358e9aeb3dee9</v>
       </c>
     </row>
     <row r="11">
@@ -1302,7 +1302,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884745428995/lud/f0a2e9c91e2f40d7adee7877da1f9d7c.m3u8?MtsHlsUriToken=ae436045046141f18c919c4783ec77717fcb79243875449eb75867032021292f</v>
+        <v>https://v.baoshiyun.com/resource/media-842884745428995/lud/f0a2e9c91e2f40d7adee7877da1f9d7c.m3u8?MtsHlsUriToken=e6d30e9c3b014d60bb0b4d8cc61ae721643ffecba2d844d8b30dde79164cfe2a</v>
       </c>
     </row>
     <row r="12">
@@ -1336,7 +1336,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841896943616/lud/5ac537520cc64d2fb5d595f29b4aa3c5.m3u8?MtsHlsUriToken=0c14db02430548729d7e66827639c15b1c219e2fbcbb4255bdf5a3fdbadba7fe</v>
+        <v>https://v.baoshiyun.com/resource/media-842841896943616/lud/5ac537520cc64d2fb5d595f29b4aa3c5.m3u8?MtsHlsUriToken=d788d928b51b40ebaf2aaf915cae8735b8f5c5780ce940aa87b9a0f9aad231bf</v>
       </c>
     </row>
     <row r="14">
@@ -1353,7 +1353,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884747001857/lud/3b14b6609bdb4624a2c6b6861e9b85b0.m3u8?MtsHlsUriToken=cc097469add34580832351b4d496c7ccc00ff9354a494946aeddc9523c5b382c</v>
+        <v>https://v.baoshiyun.com/resource/media-842884747001857/lud/3b14b6609bdb4624a2c6b6861e9b85b0.m3u8?MtsHlsUriToken=09d2e99424ce47158ceee92eebbf75669c80eb491ebe49da8b5ab8f03fec14d3</v>
       </c>
     </row>
     <row r="15">
@@ -1387,7 +1387,7 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884747755522/lud/0fabb5591bfb432ba5a0a0ebf6959bf0.m3u8?MtsHlsUriToken=395d58a6b6b84ed290ea5f7f93aa82a0dcc1e23dffae4ea48e01496bd0952719</v>
+        <v>https://v.baoshiyun.com/resource/media-842884747755522/lud/0fabb5591bfb432ba5a0a0ebf6959bf0.m3u8?MtsHlsUriToken=70274ee6553342e28757fb6a424d1890c321b871b22948bc8d669af7bf7f82b2</v>
       </c>
     </row>
     <row r="17">
@@ -1404,7 +1404,7 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884748574721/lud/e102dae8785f423da72e06ebae3eb21a.m3u8?MtsHlsUriToken=9ff7e225747a498b96f13ee2dd602364a054d832b3ba40cc8858d0f3ddc58941</v>
+        <v>https://v.baoshiyun.com/resource/media-842884748574721/lud/e102dae8785f423da72e06ebae3eb21a.m3u8?MtsHlsUriToken=c2411faf4f7e44cc9389c382cdc2a79ea8cea306b8ad453590b09efcc48c45ac</v>
       </c>
     </row>
     <row r="18">
@@ -1438,7 +1438,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884748640258/lud/27e1d8a350e245b3b7f1b5161596fc26.m3u8?MtsHlsUriToken=df40b2132d1c42ffa064d021a3eae3bbc4beeda489f44bccbd4aeb0427f2a48a</v>
+        <v>https://v.baoshiyun.com/resource/media-842884748640258/lud/27e1d8a350e245b3b7f1b5161596fc26.m3u8?MtsHlsUriToken=655ac7e6434b468c9ee08a7bd779bcecf8d6ae58f5614c8c8fbdaff3b54ce1b8</v>
       </c>
     </row>
     <row r="20">
@@ -1455,7 +1455,7 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884749164544/lud/68359aa515b14293b0915912ef9348f3.m3u8?MtsHlsUriToken=c8659040e1d94a84a441c9e60f4fe5b50a659c785bd649dc95bab3f43b5f30d6</v>
+        <v>https://v.baoshiyun.com/resource/media-842884749164544/lud/68359aa515b14293b0915912ef9348f3.m3u8?MtsHlsUriToken=7a3f86f4f23143c6b69fa92ffc61dce56bd70962c31d475c8202914942e00cd0</v>
       </c>
     </row>
     <row r="21">
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884749361153/lud/c17f380e49d242b7b7e826a25ff24f6c.m3u8?MtsHlsUriToken=91b1b99b97994fceb258701e232c69a7872f40dda788404cb8a2a1d93c6bb582</v>
+        <v>https://v.baoshiyun.com/resource/media-842884749361153/lud/c17f380e49d242b7b7e826a25ff24f6c.m3u8?MtsHlsUriToken=93313af704fa4768b01e00a16d9e518a5098c536764941028247858346161049</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884750376962/lud/7653a1db550d41ccbf75b081d75f55f5.m3u8?MtsHlsUriToken=04b44e0ff9bb4262b8459788513adfa280306b035d714165aae1a51ed6554e38</v>
+        <v>https://v.baoshiyun.com/resource/media-842884750376962/lud/7653a1db550d41ccbf75b081d75f55f5.m3u8?MtsHlsUriToken=6d10b15041b14e59878320eb2beac020536881f607fb438d9cb7873f358c1c3c</v>
       </c>
     </row>
     <row r="23">
@@ -1506,7 +1506,7 @@
         <v/>
       </c>
       <c r="E23" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884750409729/lud/f5ac14731dc9459f847b7257f2518d29.m3u8?MtsHlsUriToken=f85d0a3cf91c4438b491f7b8e8d1cd4b12dc6eca741f4c46bbb7396cf5d31e50</v>
+        <v>https://v.baoshiyun.com/resource/media-842884750409729/lud/f5ac14731dc9459f847b7257f2518d29.m3u8?MtsHlsUriToken=9630e80627b54488ac18a2de66f25c82f9eb21e8410e461b9c029d62e2c8be3a</v>
       </c>
     </row>
     <row r="24">
@@ -1540,7 +1540,7 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884751261696/lud/a83e96209c4c45b4b1e3e458aeb0b909.m3u8?MtsHlsUriToken=b9656aa1b18f41cca7d565d26f2c71e07afa0391243d48bd9efbd4b924d78fdf</v>
+        <v>https://v.baoshiyun.com/resource/media-842884751261696/lud/a83e96209c4c45b4b1e3e458aeb0b909.m3u8?MtsHlsUriToken=fd6ac9c9fce34f2aa5d209e039f4cb2b60701780b6ec48d3a444c64e552687d9</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1557,7 @@
         <v/>
       </c>
       <c r="E26" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884751196161/lud/0a0e03d4d2514d7c989845f8f8261fdb.m3u8?MtsHlsUriToken=6bb0aeaea7e141249421bdc83152c79244f2507aed1e4c8f877aa987b5157462</v>
+        <v>https://v.baoshiyun.com/resource/media-842884751196161/lud/0a0e03d4d2514d7c989845f8f8261fdb.m3u8?MtsHlsUriToken=dbc438789a194aa4ac7cb47a2a0e9331a601b01ecec2434a8c84927fa439be1f</v>
       </c>
     </row>
     <row r="27">
@@ -1574,7 +1574,7 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884751196162/lud/7d9457b9ed4f4e24b204baadd3809c6f.m3u8?MtsHlsUriToken=f0649172f87144f8908c726cd0ce3a31a245cb8b39834d65b3f5678122343f0c</v>
+        <v>https://v.baoshiyun.com/resource/media-842884751196162/lud/7d9457b9ed4f4e24b204baadd3809c6f.m3u8?MtsHlsUriToken=cd1b1d67bfc0456298dabcef4f821b05140bb9c77a7b44638456b1a3e5f1a4d2</v>
       </c>
     </row>
     <row r="28">
@@ -1608,7 +1608,7 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841897009154/lud/6cee43f4ad734ce09f1cd4f8d72fdd58.m3u8?MtsHlsUriToken=f25439dc169447b0bd440155c01ee0df6bbd4727c2aa4580aff13b1425eafa98</v>
+        <v>https://v.baoshiyun.com/resource/media-842841897009154/lud/6cee43f4ad734ce09f1cd4f8d72fdd58.m3u8?MtsHlsUriToken=dfd3f8e151c541f09797b9f6e156ec204f10315de77c4639b86f13908bcb8c71</v>
       </c>
     </row>
     <row r="30">
@@ -1625,7 +1625,7 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884751196163/lud/43b299dfb24348d499fe9cd11deb97bc.m3u8?MtsHlsUriToken=f3f5d0e924c24bbb91dc96f4c500b2546d0c4fbf50e246e8b06b2e0bd96bb1c9</v>
+        <v>https://v.baoshiyun.com/resource/media-842884751196163/lud/43b299dfb24348d499fe9cd11deb97bc.m3u8?MtsHlsUriToken=baa31563a8154a86a783f39f001c2dc184d71442b9ee41f0b1e1cd00e16d83c5</v>
       </c>
     </row>
     <row r="31">
@@ -1642,7 +1642,7 @@
         <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884751982592/lud/204306e29ef64cd1b6d9e3254825abfc.m3u8?MtsHlsUriToken=1d9e81b4193b4179ad6a96fdf838afce634479e1c1224a96a4fd1152593886a3</v>
+        <v>https://v.baoshiyun.com/resource/media-842884751982592/lud/204306e29ef64cd1b6d9e3254825abfc.m3u8?MtsHlsUriToken=383b466574bb48a4b29a688d32d16f9c6693b56426ba494ab1191ad59204f29b</v>
       </c>
     </row>
     <row r="32">
@@ -1659,7 +1659,7 @@
         <v/>
       </c>
       <c r="E32" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884752310273/lud/488c699f54c34866a933b39b18894d5b.m3u8?MtsHlsUriToken=e1c14714d83e4162a2fad40ec6dabdf2b8bfabd2829442d5b43f60417e3aefc8</v>
+        <v>https://v.baoshiyun.com/resource/media-842884752310273/lud/488c699f54c34866a933b39b18894d5b.m3u8?MtsHlsUriToken=40d07ee728044696b030f1cdf1b56e992b5529169933459782d5e317fe2efc59</v>
       </c>
     </row>
     <row r="33">
@@ -1693,7 +1693,7 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841897009155/lud/0d35527a25ce4d0d83d9c6ce1ca92db9.m3u8?MtsHlsUriToken=f55cb3fce5364b1d86735dc756401181884e9bbf59234c1d825db4490033ce30</v>
+        <v>https://v.baoshiyun.com/resource/media-842841897009155/lud/0d35527a25ce4d0d83d9c6ce1ca92db9.m3u8?MtsHlsUriToken=2bdb13aa21a24ed79b9bf092f747cc73dd4c7931187b45e097ee9ec49b9d5085</v>
       </c>
     </row>
     <row r="35">
@@ -1710,7 +1710,7 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884752474112/lud/ec1994f6521b48d289551a68fc5e7e0d.m3u8?MtsHlsUriToken=dff984affae5435591477d67db831aab8e2cdcc6431c4b1aa910f6b300928243</v>
+        <v>https://v.baoshiyun.com/resource/media-842884752474112/lud/ec1994f6521b48d289551a68fc5e7e0d.m3u8?MtsHlsUriToken=ecaf7f2b29be4d4da6a8c84a139b97277a67d3bd3ff1488a91d300c85f893556</v>
       </c>
     </row>
     <row r="36">
@@ -1727,7 +1727,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884752769024/lud/5628b86759fa4e5a8f8869553875e63b.m3u8?MtsHlsUriToken=71ee080052704b80a896b68b2781ff6b82e7d2c14f314565aa884e4302558f11</v>
+        <v>https://v.baoshiyun.com/resource/media-842884752769024/lud/5628b86759fa4e5a8f8869553875e63b.m3u8?MtsHlsUriToken=f1c9d0225cab4bad907fef95e44e0b6e78e324ab65a745ff98b1bd93ede7c039</v>
       </c>
     </row>
     <row r="37">
@@ -1744,7 +1744,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884752769025/lud/f41d82dbbd2b43b2b31fcb6a0a4f45ef.m3u8?MtsHlsUriToken=0bef942b17b748d38841083cbb65ab7927c2bb18aa11491999384b4d1d79688b</v>
+        <v>https://v.baoshiyun.com/resource/media-842884752769025/lud/f41d82dbbd2b43b2b31fcb6a0a4f45ef.m3u8?MtsHlsUriToken=6cc3e9ca13294b789192a3d1802a6603a2b4edccf96244f2a3f1def8cec279bc</v>
       </c>
     </row>
     <row r="38">
@@ -1761,7 +1761,7 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884753031169/lud/d071c8e44b4a4c5cb065840f1b6974cd.m3u8?MtsHlsUriToken=baa2771c201d4b7da99d7e8cd082cd73728e3f5d61f04b94ab854fe225ea166d</v>
+        <v>https://v.baoshiyun.com/resource/media-842884753031169/lud/d071c8e44b4a4c5cb065840f1b6974cd.m3u8?MtsHlsUriToken=013a1c727a58476ea5cbb5fd637de943f10b04fc820d4a8194dad53eb81dfda4</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v/>
       </c>
       <c r="E39" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884754079746/lud/c3062151d8a44b608b4662db7d9ea53e.m3u8?MtsHlsUriToken=4e1946efc0204ad89e34980c5d8058d6c85f407011474f5d9c4ddda83ed14c5e</v>
+        <v>https://v.baoshiyun.com/resource/media-842884754079746/lud/c3062151d8a44b608b4662db7d9ea53e.m3u8?MtsHlsUriToken=9d4817b542b7429480ead800f129743b4e991738819b4774bed298dc7ccb65af</v>
       </c>
     </row>
     <row r="40">
@@ -1812,7 +1812,7 @@
         <v/>
       </c>
       <c r="E41" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841897533441/lud/55e943dbd97e4a2ab2da554b0205b45a.m3u8?MtsHlsUriToken=df3e0245f8384471a1e218fd83f5d7844393e53720cb4bcbae569ea421487eaf</v>
+        <v>https://v.baoshiyun.com/resource/media-842841897533441/lud/55e943dbd97e4a2ab2da554b0205b45a.m3u8?MtsHlsUriToken=7387475fcfef40b980be3706d28c058cedf3c38746ff40ceb3a4ef8dcda33009</v>
       </c>
     </row>
     <row r="42">
@@ -1829,7 +1829,7 @@
         <v/>
       </c>
       <c r="E42" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884754604034/lud/3ef593bb78ff476db7b56c69037653b5.m3u8?MtsHlsUriToken=01dc5fdb8e554ed58762bb289e2bb82ecc8901389e7b4916abaaa8418c3630f1</v>
+        <v>https://v.baoshiyun.com/resource/media-842884754604034/lud/3ef593bb78ff476db7b56c69037653b5.m3u8?MtsHlsUriToken=ca0ad87d07c54548938c33127005332d88187fe429d34b598510937490598074</v>
       </c>
     </row>
     <row r="43">
@@ -1846,7 +1846,7 @@
         <v/>
       </c>
       <c r="E43" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884755456001/lud/37f3f713af3848f99439e1f6771a70f0.m3u8?MtsHlsUriToken=ffc40290f86b482c93ed954631ba6bc9f26c83aa2a704f92ad33ff09e1bb8ed9</v>
+        <v>https://v.baoshiyun.com/resource/media-842884755456001/lud/37f3f713af3848f99439e1f6771a70f0.m3u8?MtsHlsUriToken=3b07885dafaf49a7ac23db974b089fdf4d6ed74635c7442684759cdc260f4413</v>
       </c>
     </row>
     <row r="44">
@@ -1863,7 +1863,7 @@
         <v/>
       </c>
       <c r="E44" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884755652608/lud/71c4a34df519496eb826bb7bd31fc520.m3u8?MtsHlsUriToken=18efd881e1a34056b808e2979fe497e5dd9726457030476e8ff905796f9eba23</v>
+        <v>https://v.baoshiyun.com/resource/media-842884755652608/lud/71c4a34df519496eb826bb7bd31fc520.m3u8?MtsHlsUriToken=ff463e80cae9493ab1768d29fac2bb001e25d7bfbee0498fb8ab94b4cfa14bfb</v>
       </c>
     </row>
     <row r="45">
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
       <c r="E45" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884756176896/lud/5c69b2cd79094931a364d8008a1dbbb8.m3u8?MtsHlsUriToken=56fe521d20f446e2a8e39b7e74a4c558385e6292c90246f198ac3e1807a6773c</v>
+        <v>https://v.baoshiyun.com/resource/media-842884756176896/lud/5c69b2cd79094931a364d8008a1dbbb8.m3u8?MtsHlsUriToken=c63c814661b14ba28b2cf9b5c5db74e4701a07050daa4512824bbcee7ac26806</v>
       </c>
     </row>
     <row r="46">
@@ -1897,7 +1897,7 @@
         <v/>
       </c>
       <c r="E46" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884756701187/lud/3434503daa704576b0ca9ae145a4eb3e.m3u8?MtsHlsUriToken=521941bc504a4987bdf74c17814203167c8774c85ce64d7cbf8635e6fd1088d7</v>
+        <v>https://v.baoshiyun.com/resource/media-842884756701187/lud/3434503daa704576b0ca9ae145a4eb3e.m3u8?MtsHlsUriToken=935a246ea8374822b12ca9e748b3eb9ac66c48c5c422469984c0b3eb3a377acb</v>
       </c>
     </row>
     <row r="47">
@@ -1914,7 +1914,7 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884757028865/lud/5feb3df0240e45f9abe7938cb850398a.m3u8?MtsHlsUriToken=b19cbc166c9c4062afb77f25e7e9a5f870077eb17da34188a431443296243cc4</v>
+        <v>https://v.baoshiyun.com/resource/media-842884757028865/lud/5feb3df0240e45f9abe7938cb850398a.m3u8?MtsHlsUriToken=20650c1c5cb94dceaee96b698308d289fea86cabb53447cea2c79112b99ef56b</v>
       </c>
     </row>
     <row r="48">
@@ -1931,7 +1931,7 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884758077440/lud/dedcb107bca5475fadef3538748de94d.m3u8?MtsHlsUriToken=8f6a2dd9706442e6823b95360665586e463af68185f343aba72e3cd98c893d51</v>
+        <v>https://v.baoshiyun.com/resource/media-842884758077440/lud/dedcb107bca5475fadef3538748de94d.m3u8?MtsHlsUriToken=096c19d02df047b5934b5ef3b30479064cd965bc3cb145b6ac2e3e8e2e0497cf</v>
       </c>
     </row>
     <row r="49">
@@ -1982,7 +1982,7 @@
         <v/>
       </c>
       <c r="E51" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841898516481/lud/236733f7b36241d5b10aa55efbf3ef4e.m3u8?MtsHlsUriToken=8210b797860a49d58d9f29ff36e12b7bce1a507bb6944846a8643bcd75945dff</v>
+        <v>https://v.baoshiyun.com/resource/media-842841898516481/lud/236733f7b36241d5b10aa55efbf3ef4e.m3u8?MtsHlsUriToken=7c2729f89fa54e8d9fa2952539317ed0088044dc74de4d70b0e6f34233a71ede</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +1999,7 @@
         <v/>
       </c>
       <c r="E52" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884758011904/lud/b66e96ef028945a79127baa80ac9ec8a.m3u8?MtsHlsUriToken=88c2e1e2d9d8458ca79c12e1683484a29add216b270d46078414fefbcfc74c69</v>
+        <v>https://v.baoshiyun.com/resource/media-842884758011904/lud/b66e96ef028945a79127baa80ac9ec8a.m3u8?MtsHlsUriToken=d432d2b2e3194c629a2127ceea99544acd713fbecb2444fc97e6e339943e0675</v>
       </c>
     </row>
     <row r="53">
@@ -2016,7 +2016,7 @@
         <v/>
       </c>
       <c r="E53" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884759126017/lud/538f394148724b9caaf42223fde89c9f.m3u8?MtsHlsUriToken=b7f9b43f855849f6a9cfb9c21dfa9624faab9597790c40ba8cc806153496a030</v>
+        <v>https://v.baoshiyun.com/resource/media-842884759126017/lud/538f394148724b9caaf42223fde89c9f.m3u8?MtsHlsUriToken=c96a3779c7dd4492bd24f94582292c4fee9b90f9ee714a8d93e1cf396692b1b8</v>
       </c>
     </row>
     <row r="54">
@@ -2033,7 +2033,7 @@
         <v/>
       </c>
       <c r="E54" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884759650305/lud/3fcb150d90974ce7aebffaaf6d96c8e7.m3u8?MtsHlsUriToken=7935f2b8102545059878eb524fab16dd04f1976a0f69448d89d4c1ce67cfa072</v>
+        <v>https://v.baoshiyun.com/resource/media-842884759650305/lud/3fcb150d90974ce7aebffaaf6d96c8e7.m3u8?MtsHlsUriToken=3115bc57e1c14ab3b774e3f25678ad81d2bffca186a444d3be9edf75a64a1ec5</v>
       </c>
     </row>
     <row r="55">
@@ -2050,7 +2050,7 @@
         <v/>
       </c>
       <c r="E55" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884759814145/lud/757050cbb14a4ab995487084fee9b366.m3u8?MtsHlsUriToken=d1a1beb975cb42f1baba847b493c0d74f9e32b2f2c904aada5e309037ca0c4a0</v>
+        <v>https://v.baoshiyun.com/resource/media-842884759814145/lud/757050cbb14a4ab995487084fee9b366.m3u8?MtsHlsUriToken=df4313b9f7d6425f8bfa8d458b77ce44c8bcec4a082842b59dab290044b9dd57</v>
       </c>
     </row>
     <row r="56">
@@ -2067,7 +2067,7 @@
         <v/>
       </c>
       <c r="E56" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884760633345/lud/2c925a89c7954b1985133aa599871853.m3u8?MtsHlsUriToken=af9b09bb56954446a9f11a8b51b79c2452be22025ca344c49f099faec77fee6f</v>
+        <v>https://v.baoshiyun.com/resource/media-842884760633345/lud/2c925a89c7954b1985133aa599871853.m3u8?MtsHlsUriToken=dd768b3186604de697f427967d3522a3f87c81d9598248c6a90b98eb5102ead2</v>
       </c>
     </row>
     <row r="57">
@@ -2084,7 +2084,7 @@
         <v/>
       </c>
       <c r="E57" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884761157632/lud/4c3b7b90daee4303ac3fde4d42aae9c5.m3u8?MtsHlsUriToken=a00d75f1b7554a338994463a1bfe913ea8f27509732e4f3d8573e963120dacc5</v>
+        <v>https://v.baoshiyun.com/resource/media-842884761157632/lud/4c3b7b90daee4303ac3fde4d42aae9c5.m3u8?MtsHlsUriToken=87e89b886fd545e8aaf7fca975c529bfe0cef4734fe2460dbd860c6dfca1cf93</v>
       </c>
     </row>
     <row r="58">
@@ -2101,7 +2101,7 @@
         <v/>
       </c>
       <c r="E58" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884761223168/lud/6ff27484ca854e56971c502f6039514f.m3u8?MtsHlsUriToken=fc14eb1574c44b1794296007adc8ccea5f1b04a17ca64f80b50a4b049c276580</v>
+        <v>https://v.baoshiyun.com/resource/media-842884761223168/lud/6ff27484ca854e56971c502f6039514f.m3u8?MtsHlsUriToken=f76d3e9fdf1d467d8677e2e74d17c8a225d42210cae2423ab10b567f6a80385d</v>
       </c>
     </row>
     <row r="59">
@@ -2118,7 +2118,7 @@
         <v/>
       </c>
       <c r="E59" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884761681921/lud/7e8d3d12e1294b739be0eb1dbf99879f.m3u8?MtsHlsUriToken=b29029b8a3e74716b5ef36cb46efcbe60e50ef27b1214400ae9e4df3060d35fa</v>
+        <v>https://v.baoshiyun.com/resource/media-842884761681921/lud/7e8d3d12e1294b739be0eb1dbf99879f.m3u8?MtsHlsUriToken=dafbeeb043df4996a448ca02fc765744534188e800be42d39b7eb3b3c354eb58</v>
       </c>
     </row>
     <row r="60">
@@ -2152,7 +2152,7 @@
         <v/>
       </c>
       <c r="E61" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841913425921/lud/1f757286aa3b43339d94625626931245.m3u8?MtsHlsUriToken=134055ee0a3541c69217e2a2d701094445b2412462cd4b1ab6e28ae7b2945edc</v>
+        <v>https://v.baoshiyun.com/resource/media-842841913425921/lud/1f757286aa3b43339d94625626931245.m3u8?MtsHlsUriToken=d1490477f3054e9f920598f935d1fd8bd3bcd967777c4be08dde09efc04db194</v>
       </c>
     </row>
     <row r="62">
@@ -2169,7 +2169,7 @@
         <v/>
       </c>
       <c r="E62" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884762435587/lud/689f7fce3a40499db281c901c6493517.m3u8?MtsHlsUriToken=5eb00e72700f44e6a5127cb09724886c143a4c1cb3304fecaa0829c0666fb8be</v>
+        <v>https://v.baoshiyun.com/resource/media-842884762435587/lud/689f7fce3a40499db281c901c6493517.m3u8?MtsHlsUriToken=feba0bb8244b410d95e60433c8256ec84f4ba6b1aec745c680fa02adaf4d7c01</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
         <v/>
       </c>
       <c r="E63" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884762435588/lud/b95fe9202bae4f30ab4e5f72f8458f86.m3u8?MtsHlsUriToken=d9e0c93e45884667a24253da5b4a03c526ab6c93809447319ecd7e04b7c41d57</v>
+        <v>https://v.baoshiyun.com/resource/media-842884762435588/lud/b95fe9202bae4f30ab4e5f72f8458f86.m3u8?MtsHlsUriToken=33c95545bbe94e22a2345e256dfbcf7220848ba9feae4f838fcd8d68f526722c</v>
       </c>
     </row>
     <row r="64">
@@ -2203,7 +2203,7 @@
         <v/>
       </c>
       <c r="E64" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884762992640/lud/64ed9a2c1118403c8ac4e1242cddd197.m3u8?MtsHlsUriToken=1be54c4e9b274986bf1dcffdc8d1a2dcc5a08fa0cdb64dca8a176626dcd81931</v>
+        <v>https://v.baoshiyun.com/resource/media-842884762992640/lud/64ed9a2c1118403c8ac4e1242cddd197.m3u8?MtsHlsUriToken=5a4f26c26e9442449e798d263c3d94b5c330bf03845b4a7fbeee58d7563fb198</v>
       </c>
     </row>
     <row r="65">
@@ -2220,7 +2220,7 @@
         <v/>
       </c>
       <c r="E65" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884764368897/lud/141fc93b05914514ae2266c83316ab3d.m3u8?MtsHlsUriToken=9da9eda849a14cdcaac756823551b28d28deaa5a622145949745acb1c8a929df</v>
+        <v>https://v.baoshiyun.com/resource/media-842884764368897/lud/141fc93b05914514ae2266c83316ab3d.m3u8?MtsHlsUriToken=1e7f0965690f4e7895ae51efa7ec013dbe9724ace4934bc4bbca4a0f30e6f0d7</v>
       </c>
     </row>
     <row r="66">
@@ -2237,7 +2237,7 @@
         <v/>
       </c>
       <c r="E66" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884764532737/lud/02fedfe66c084a96a29a77d28e40e638.m3u8?MtsHlsUriToken=6325d4ed112e43b8a787313bdef595abc7678420b3904ab9b6e586c2803b8532</v>
+        <v>https://v.baoshiyun.com/resource/media-842884764532737/lud/02fedfe66c084a96a29a77d28e40e638.m3u8?MtsHlsUriToken=50a2f6d585ad447bad3ddc26d9f2e2252a7b4bcfb0c3485e91d2de4becd0947a</v>
       </c>
     </row>
     <row r="67">
@@ -2254,7 +2254,7 @@
         <v/>
       </c>
       <c r="E67" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842884765417473/lud/e6cb7e14793d435da0ee152ad0aa74db.m3u8?MtsHlsUriToken=b675cfcbdf2a47efa217d8af14f06d9725e1ca9c88d749afb3db129eaa62068f</v>
+        <v>https://v.baoshiyun.com/resource/media-842884765417473/lud/e6cb7e14793d435da0ee152ad0aa74db.m3u8?MtsHlsUriToken=c35e4eb4c1664bb1a56d3d6f6907b804d5bd27ce2c5748b09c32f5b5fdcb993a</v>
       </c>
     </row>
     <row r="68">
@@ -2288,7 +2288,7 @@
         <v/>
       </c>
       <c r="E69" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841951993857/lud/f172048de04f4b1fa4088e81fb5d58f2.m3u8?MtsHlsUriToken=8d98acd8951e44d9ae7555fa58b3e4fd1deee8ff2cb24bc18d9965c4dd8e808c</v>
+        <v>https://v.baoshiyun.com/resource/media-842841951993857/lud/f172048de04f4b1fa4088e81fb5d58f2.m3u8?MtsHlsUriToken=b9307a684e91461c91635634f06039ab3b26c3408bfb42d7846d5c6045056807</v>
       </c>
     </row>
     <row r="70">
@@ -2339,7 +2339,7 @@
         <v/>
       </c>
       <c r="E72" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841941770240/lud/325863059da34b109a566951a09bc107.m3u8?MtsHlsUriToken=3249e739ed7845fa82acb70a569e8cb7591b068e9f22460d8dc8cadd85d9d27c</v>
+        <v>https://v.baoshiyun.com/resource/media-842841941770240/lud/325863059da34b109a566951a09bc107.m3u8?MtsHlsUriToken=8de65251800743e1b07af7785259a6e5792b7f9facda4eabb4ac3dc01b738575</v>
       </c>
     </row>
     <row r="73">
@@ -2390,7 +2390,7 @@
         <v/>
       </c>
       <c r="E75" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885121409024/lud/aae28342f6e0447c8c34ed9de1c6f6a6.m3u8?MtsHlsUriToken=a45b327a635140e1b32313e7716b18d9324776576d1a42bebf7232d702180009</v>
+        <v>https://v.baoshiyun.com/resource/media-842885121409024/lud/aae28342f6e0447c8c34ed9de1c6f6a6.m3u8?MtsHlsUriToken=9a3fbfefcf3649abb967b931878700fea5ab4bd6d25f4b0f99172ddc82f2789b</v>
       </c>
     </row>
     <row r="76">
@@ -2424,7 +2424,7 @@
         <v/>
       </c>
       <c r="E77" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841944915968/lud/04d822675d9b48c3a03c95788c6541ad.m3u8?MtsHlsUriToken=55b7c2f17002477e8e7ce7980499084eafe88485376746008b22cb21fe54d8df</v>
+        <v>https://v.baoshiyun.com/resource/media-842841944915968/lud/04d822675d9b48c3a03c95788c6541ad.m3u8?MtsHlsUriToken=d4b1ff29f6654f23a4e08ceb00325b2cf0bd01c647cc49119d08aee8004a6dcd</v>
       </c>
     </row>
     <row r="78">
@@ -2475,7 +2475,7 @@
         <v/>
       </c>
       <c r="E80" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885122654209/lud/d080520df167418886497d802af41a8b.m3u8?MtsHlsUriToken=3b77c72d055845aa87a1c7682e4e1d1c34d7e4832c524e0198cf786599a06a9c</v>
+        <v>https://v.baoshiyun.com/resource/media-842885122654209/lud/d080520df167418886497d802af41a8b.m3u8?MtsHlsUriToken=f9ec851df0d3484a8ddda28416f9707f987053c8627149c58f90b03a50616113</v>
       </c>
     </row>
     <row r="81">
@@ -2526,7 +2526,7 @@
         <v/>
       </c>
       <c r="E83" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885122621443/lud/d8ca83592e3d4ce68056a6b223a7461b.m3u8?MtsHlsUriToken=cc5efec5eb2c4c12a5caec071145c51d7cdab4e6d0b7462ea7a85d2610d8182e</v>
+        <v>https://v.baoshiyun.com/resource/media-842885122621443/lud/d8ca83592e3d4ce68056a6b223a7461b.m3u8?MtsHlsUriToken=b27f666b624244dda5b788fe4301bd2fd987c0704ba448c596adbc671113428a</v>
       </c>
     </row>
     <row r="84">
@@ -2560,7 +2560,7 @@
         <v/>
       </c>
       <c r="E85" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885122621445/lud/8f0362759e3a48ec84371de81662f91b.m3u8?MtsHlsUriToken=870e7c82efbb4e0cb0c930780207f9a6e4f42d7374514a88b5c8eb2db3b05665</v>
+        <v>https://v.baoshiyun.com/resource/media-842885122621445/lud/8f0362759e3a48ec84371de81662f91b.m3u8?MtsHlsUriToken=8446f4c47a6f41e3b8c39c230da942a650df569050234e1bbac82b5f798e0e8e</v>
       </c>
     </row>
     <row r="86">
@@ -2594,7 +2594,7 @@
         <v/>
       </c>
       <c r="E87" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885122621446/lud/e4351dd0a4e94d4e92ab9dd9c5638ff9.m3u8?MtsHlsUriToken=e3e5cc011bd64e37b26feaec85cf4c6ded9f3694e74342cdb236e3f453f997c8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885122621446/lud/e4351dd0a4e94d4e92ab9dd9c5638ff9.m3u8?MtsHlsUriToken=a97dcb0fd4a24a0f9fec839d5f4a596b199d5f088ba6466aa6d51866d2a2d751</v>
       </c>
     </row>
     <row r="88">
@@ -2628,7 +2628,7 @@
         <v/>
       </c>
       <c r="E89" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885123178496/lud/13f78315fee9430c9e036ae211c417e5.m3u8?MtsHlsUriToken=6df3812743f242ac93d21ae6159373f2ddf5ad55c44447e1b2dcfa79dc7650e4</v>
+        <v>https://v.baoshiyun.com/resource/media-842885123178496/lud/13f78315fee9430c9e036ae211c417e5.m3u8?MtsHlsUriToken=d06f0e61025f4325ab732018bba75ca4be1bfa32303b4cdba260c1ce871bbbaa</v>
       </c>
     </row>
     <row r="90">
@@ -2662,7 +2662,7 @@
         <v/>
       </c>
       <c r="E91" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841950420992/lud/caef78f975ba45f0876b73d8f4430e3b.m3u8?MtsHlsUriToken=1395c61809d64dbdb7ece390b15ebb227b2159688def4d58969634f6b597fe06</v>
+        <v>https://v.baoshiyun.com/resource/media-842841950420992/lud/caef78f975ba45f0876b73d8f4430e3b.m3u8?MtsHlsUriToken=4d3dbb63bd334c8aaac479e83aef351a2b79d6a061d24759b37a135c2fa8700b</v>
       </c>
     </row>
     <row r="92">
@@ -2696,7 +2696,7 @@
         <v/>
       </c>
       <c r="E93" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890376282113/lud/0861e6a5f17940fdb1e3041a59d22d52.m3u8?MtsHlsUriToken=c3e3c6c12bad4c9d959d0e36f9485e7739c94176238d4ce5aecfd76d23de4ff9</v>
+        <v>https://v.baoshiyun.com/resource/media-842890376282113/lud/0861e6a5f17940fdb1e3041a59d22d52.m3u8?MtsHlsUriToken=601de0521c1b424fa7aa073324c7a242551059ca92ab490aa0340d2670f8f9e5</v>
       </c>
     </row>
     <row r="94">
@@ -2730,7 +2730,7 @@
         <v/>
       </c>
       <c r="E95" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841964118017/lud/1c7605f8d06148d38666ed1d126b6c28.m3u8?MtsHlsUriToken=e45d0cfd8009404096dda3443ef8d7c54dcb0b7ad5ee4576a260cf6a6eaa5b77</v>
+        <v>https://v.baoshiyun.com/resource/media-842841964118017/lud/1c7605f8d06148d38666ed1d126b6c28.m3u8?MtsHlsUriToken=6c52b875e5b849d0a7739bc445e9e0d5cba254763821497f989c1a49394bad3f</v>
       </c>
     </row>
     <row r="96">
@@ -2764,7 +2764,7 @@
         <v/>
       </c>
       <c r="E97" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841963757568/lud/b47158a292724b349296182560b29932.m3u8?MtsHlsUriToken=83cabe847d77445c8ad65351941d40b5d77158dd75da453f8b5702350b70de00</v>
+        <v>https://v.baoshiyun.com/resource/media-842841963757568/lud/b47158a292724b349296182560b29932.m3u8?MtsHlsUriToken=3ab4ef675bcd43e59e50fe55ea67bac88c9b7a720848444db945248e5ea5cc05</v>
       </c>
     </row>
     <row r="98">
@@ -2798,7 +2798,7 @@
         <v/>
       </c>
       <c r="E99" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841963757569/lud/1df5ea1562634755b57249cda121592a.m3u8?MtsHlsUriToken=e83ce4d6fad84440b39e2b9d51c1f14eedbefb46b8724cf0be491bd1cc2d7bed</v>
+        <v>https://v.baoshiyun.com/resource/media-842841963757569/lud/1df5ea1562634755b57249cda121592a.m3u8?MtsHlsUriToken=447c96dd386547a69d1f3eb69c06bdcb3939bb0f1f3e4c9aa48d0a7d19dd83a7</v>
       </c>
     </row>
     <row r="100">
@@ -2832,7 +2832,7 @@
         <v/>
       </c>
       <c r="E101" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894882766849/lud/f6f4f4aa481b4b9dad3964c1bc101bf3.m3u8?MtsHlsUriToken=b29e6a746cf44fdc85d2e8a27ceed745b0bd438fe78b4403bda8c2709c3bb0cd</v>
+        <v>https://v.baoshiyun.com/resource/media-842894882766849/lud/f6f4f4aa481b4b9dad3964c1bc101bf3.m3u8?MtsHlsUriToken=7b1f00436fc94a67b6ac21ef16180765feb18f85b71b418e9df4af9f1133eb66</v>
       </c>
     </row>
     <row r="102">
@@ -2849,7 +2849,7 @@
         <v/>
       </c>
       <c r="E102" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894883586048/lud/0896bb7fd30549a9bc98a007fc759cd1.m3u8?MtsHlsUriToken=79e22064762e48778cd76f184e20b96b330199c505254396b4e2141b9abfab90</v>
+        <v>https://v.baoshiyun.com/resource/media-842894883586048/lud/0896bb7fd30549a9bc98a007fc759cd1.m3u8?MtsHlsUriToken=9689ec9285e34fbbb24f0a9a44868778ecb0606b621c4629a2da3ac386b1dbff</v>
       </c>
     </row>
     <row r="103">
@@ -2866,7 +2866,7 @@
         <v/>
       </c>
       <c r="E103" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894884110336/lud/4f0136bb75b241e5b4dba534c2eb3bf9.m3u8?MtsHlsUriToken=2625695c12684445bb54f8a7ecb08ea8b827ace07dae4dc3b251a62756f84443</v>
+        <v>https://v.baoshiyun.com/resource/media-842894884110336/lud/4f0136bb75b241e5b4dba534c2eb3bf9.m3u8?MtsHlsUriToken=fd5b5d32ef214993a89cb8dc24ff9d1dd7230f0d26294c398aa377d6cb076697</v>
       </c>
     </row>
     <row r="104">
@@ -2883,7 +2883,7 @@
         <v/>
       </c>
       <c r="E104" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890376282114/lud/24bec988f9f44e9092c8c6b7a9aaa70b.m3u8?MtsHlsUriToken=c50d211dfa0b412c902eb33f00d84b1d2a03bef528b54205af7f4a01bf4cf126</v>
+        <v>https://v.baoshiyun.com/resource/media-842890376282114/lud/24bec988f9f44e9092c8c6b7a9aaa70b.m3u8?MtsHlsUriToken=d175631531744317ab29c1498c722e394e4268b2ddd24eab836d248c510c5e95</v>
       </c>
     </row>
     <row r="105">
@@ -2900,7 +2900,7 @@
         <v/>
       </c>
       <c r="E105" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890376019969/lud/a98e822a7e3c4f038fc82acfb886bef2.m3u8?MtsHlsUriToken=947d5f1a3fdd48338177d6a738868fb448c24c34dc41432084682e7b6bf4b9c8</v>
+        <v>https://v.baoshiyun.com/resource/media-842890376019969/lud/a98e822a7e3c4f038fc82acfb886bef2.m3u8?MtsHlsUriToken=087d9632957b449cbfe0dbda2636146d25b3c4edb7d14eb784b9b819be3ae9e0</v>
       </c>
     </row>
     <row r="106">
@@ -2917,7 +2917,7 @@
         <v/>
       </c>
       <c r="E106" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885810323457/lud/afa21d26ce1c41a29171f546b7591551.m3u8?MtsHlsUriToken=7ceaf32deb504d61be73cb333f575024e882edf89bb14237a8220dbc20194b42</v>
+        <v>https://v.baoshiyun.com/resource/media-842885810323457/lud/afa21d26ce1c41a29171f546b7591551.m3u8?MtsHlsUriToken=d4de7ff0ab744d969311c0012353642744c077b2975a43b0bb3e8ac626c38829</v>
       </c>
     </row>
     <row r="107">
@@ -2934,7 +2934,7 @@
         <v/>
       </c>
       <c r="E107" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885810847744/lud/c3495ab229184a3fb489519d883bc5b3.m3u8?MtsHlsUriToken=bc0e6ba369a348b8a9ee861b342c57f7511e657c72ca4fe4b3bc6365639ef0a8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885810847744/lud/c3495ab229184a3fb489519d883bc5b3.m3u8?MtsHlsUriToken=b2122c3cec804ea39b13b0c542996a38bc7d1c55184640a6b1b0a11bbb0c861e</v>
       </c>
     </row>
     <row r="108">
@@ -2951,7 +2951,7 @@
         <v/>
       </c>
       <c r="E108" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885812584448/lud/d2f5c8230385448d9c05040b71518fd4.m3u8?MtsHlsUriToken=752044a78fce4fd5aa67c73377ada0397da3d711d45e4abd80a41bad825dfde1</v>
+        <v>https://v.baoshiyun.com/resource/media-842885812584448/lud/d2f5c8230385448d9c05040b71518fd4.m3u8?MtsHlsUriToken=e67855b5ca3a47fe8cbb5f6f76f0b5c14c28cf1da51c464ca638d649efc6c4ea</v>
       </c>
     </row>
     <row r="109">
@@ -2968,7 +2968,7 @@
         <v/>
       </c>
       <c r="E109" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885810847745/lud/e7d43eefd5ce4694b10853b320b927d2.m3u8?MtsHlsUriToken=7e330042b4fd441c92b1be2f12925391227c60574e354d3bb9b7a79c3fde75c8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885810847745/lud/e7d43eefd5ce4694b10853b320b927d2.m3u8?MtsHlsUriToken=235d7dc0f6b34b38aa2ada4d7f43e494682a52f6200c469c8dd28f2d1e692bd9</v>
       </c>
     </row>
     <row r="110">
@@ -2985,7 +2985,7 @@
         <v/>
       </c>
       <c r="E110" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885812584449/lud/922ef43432004f0daebe9c2a65cf8e73.m3u8?MtsHlsUriToken=68294a0b06a64821844bd97fce75a2a190d202e305934342b4850f579c55dcfa</v>
+        <v>https://v.baoshiyun.com/resource/media-842885812584449/lud/922ef43432004f0daebe9c2a65cf8e73.m3u8?MtsHlsUriToken=18b9b60b1b6141efb92b5381b9857f73618a54d69a5c43ca9072d0cb5d315ebb</v>
       </c>
     </row>
     <row r="111">
@@ -3002,7 +3002,7 @@
         <v/>
       </c>
       <c r="E111" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885812944896/lud/7f61719ba27c48e08c42f902f4b785c0.m3u8?MtsHlsUriToken=6e89e2f239754438a7e3424e2c663592fe5e1bc3ddb843e9bfd34b628e67cd28</v>
+        <v>https://v.baoshiyun.com/resource/media-842885812944896/lud/7f61719ba27c48e08c42f902f4b785c0.m3u8?MtsHlsUriToken=374d3eabffb44b22ba32fa870b3b0eb3dad7deb336644bfcbdacdd5e0ddba1f5</v>
       </c>
     </row>
     <row r="112">
@@ -3019,7 +3019,7 @@
         <v/>
       </c>
       <c r="E112" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888940257280/lud/32062af26a1a458f806e208bdb560120.m3u8?MtsHlsUriToken=649f67b35832427188b4250ba7b3f0cb0473a4d660954c659eff3f24ce76d004</v>
+        <v>https://v.baoshiyun.com/resource/media-842888940257280/lud/32062af26a1a458f806e208bdb560120.m3u8?MtsHlsUriToken=fea899b29f314603a1be9aee694d08678a30cc5a18e241589a698b32cbb9b7b7</v>
       </c>
     </row>
     <row r="113">
@@ -3036,7 +3036,7 @@
         <v/>
       </c>
       <c r="E113" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886516178945/lud/32af4353911c44a1864788b612f0e158.m3u8?MtsHlsUriToken=a47ba93c23454d6a8e428e9dc7aef3b7bb6f160f4f004d81858755c94dab1d2c</v>
+        <v>https://v.baoshiyun.com/resource/media-842886516178945/lud/32af4353911c44a1864788b612f0e158.m3u8?MtsHlsUriToken=641b49f92c7d4f6f9c486f80b65c82eb798e32d09a21434dbea6e7762b443bbb</v>
       </c>
     </row>
     <row r="114">
@@ -3070,7 +3070,7 @@
         <v/>
       </c>
       <c r="E115" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888939962371/lud/bfb3a107bf514d61b6842573c72c598c.m3u8?MtsHlsUriToken=fbcfd72c9d28434581ed91e201c2aa7624b8b2cedaab4c6fb5aef20947f4cefe</v>
+        <v>https://v.baoshiyun.com/resource/media-842888939962371/lud/bfb3a107bf514d61b6842573c72c598c.m3u8?MtsHlsUriToken=ba484b0aeca847099e70d48f2c4746efbe1a33af3aae449aa8c789671d9cc010</v>
       </c>
     </row>
     <row r="116">
@@ -3087,7 +3087,7 @@
         <v/>
       </c>
       <c r="E116" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888947302400/lud/71cf7453bd474f8da355a9b131ec3fb5.m3u8?MtsHlsUriToken=a1f39f2e1f0645da805b37eec4b0b099f848d40edfca4ffb8710555df08432e3</v>
+        <v>https://v.baoshiyun.com/resource/media-842888947302400/lud/71cf7453bd474f8da355a9b131ec3fb5.m3u8?MtsHlsUriToken=ccddb2a5ba6d4e6ea2ec62aaad85c0a8fae1ce600ad84cf69c4ff40422b86327</v>
       </c>
     </row>
     <row r="117">
@@ -3104,7 +3104,7 @@
         <v/>
       </c>
       <c r="E117" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885990842371/lud/9ca94a0cb8bf4c2d8e419f88caadcd4c.m3u8?MtsHlsUriToken=6d0a0d7ddc8548b885437c21257cb04033aab291d5dd4cd9ab84782953205eac</v>
+        <v>https://v.baoshiyun.com/resource/media-842885990842371/lud/9ca94a0cb8bf4c2d8e419f88caadcd4c.m3u8?MtsHlsUriToken=cc462ee669c541abaaf527194b37b82ba027316b65a94541aeb9244c4c34ff1e</v>
       </c>
     </row>
     <row r="118">
@@ -3121,7 +3121,7 @@
         <v/>
       </c>
       <c r="E118" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885991137281/lud/2b91f0db0789480fae0ff3a4172b234d.m3u8?MtsHlsUriToken=7c3f43cc2ab6433d9e14f1447b8c2e72ed546eadacaf4d65910651fd5133a1ce</v>
+        <v>https://v.baoshiyun.com/resource/media-842885991137281/lud/2b91f0db0789480fae0ff3a4172b234d.m3u8?MtsHlsUriToken=a3340c01e89d496c9d4a101ccfe6966e00315a0c01fd4b3e9203609f721a81dd</v>
       </c>
     </row>
     <row r="119">
@@ -3138,7 +3138,7 @@
         <v/>
       </c>
       <c r="E119" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888966701057/lud/42fba35cd72c44a5b3b991cf6584b558.m3u8?MtsHlsUriToken=c960a2cc1d354ddc9a0adb169650b8eb86fbafb62e5e4bc7871d662fb9a53600</v>
+        <v>https://v.baoshiyun.com/resource/media-842888966701057/lud/42fba35cd72c44a5b3b991cf6584b558.m3u8?MtsHlsUriToken=f4c4de73bb4b47ca8fc8dfbb786484299e7d3bc997ea48288d9165e4e4a6de6d</v>
       </c>
     </row>
     <row r="120">
@@ -3155,7 +3155,7 @@
         <v/>
       </c>
       <c r="E120" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888966701058/lud/6d56c1ed194641a0b14786408d01d059.m3u8?MtsHlsUriToken=aff3ed263f324c96822e14f9710651caa9a26b0ac6bb424ebf9d83da503171f0</v>
+        <v>https://v.baoshiyun.com/resource/media-842888966701058/lud/6d56c1ed194641a0b14786408d01d059.m3u8?MtsHlsUriToken=bf6586fb1acc409eb4386b1ed01e554e880e0c79c3bb4da8a38ec8bfcb44d73b</v>
       </c>
     </row>
     <row r="121">
@@ -3172,7 +3172,7 @@
         <v/>
       </c>
       <c r="E121" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842214367235/lud/eee976f7d4184baaa139797bbe47e2a6.m3u8?MtsHlsUriToken=f08fe062fe704a6cb78b64a7e886febee591aa622c994b34a4f546007c1c728b</v>
+        <v>https://v.baoshiyun.com/resource/media-842842214367235/lud/eee976f7d4184baaa139797bbe47e2a6.m3u8?MtsHlsUriToken=f9868f0928ee44ec949b2bf08d24883c35e9a8e6bab54b338cba2c468dfdfb51</v>
       </c>
     </row>
     <row r="122">
@@ -3240,7 +3240,7 @@
         <v/>
       </c>
       <c r="E125" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842214400002/lud/2a62fc9874b2472487da21fae32c2acb.m3u8?MtsHlsUriToken=0a0190803c9c46f69ae2f001afd96dcfe04e963db0f94f3aae64354cbfb7eed2</v>
+        <v>https://v.baoshiyun.com/resource/media-842842214400002/lud/2a62fc9874b2472487da21fae32c2acb.m3u8?MtsHlsUriToken=9f288ec94e2c4897aa015bbe063fa20491f18212b5e6489884a8f5a7c0b02fc5</v>
       </c>
     </row>
     <row r="126">
@@ -3274,7 +3274,7 @@
         <v/>
       </c>
       <c r="E127" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842214400003/lud/ba0c8080ceeb4685be4cd72750762c73.m3u8?MtsHlsUriToken=ca8f93d7fee9441daf1d0d9cae06f56716be5490befd4150be023b2d1a08b759</v>
+        <v>https://v.baoshiyun.com/resource/media-842842214400003/lud/ba0c8080ceeb4685be4cd72750762c73.m3u8?MtsHlsUriToken=a3e3e68ce96e4551b9d488c7682cdd09d1a44d3f34b5407babcec45c1e9e3433</v>
       </c>
     </row>
     <row r="128">
@@ -3308,7 +3308,7 @@
         <v/>
       </c>
       <c r="E129" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842214924289/lud/c487c5a7e64e4b47bacecf92f904cc2e.m3u8?MtsHlsUriToken=af040e7ac6ce4701a43e0e0c1c539c91c3fdfddccfb54ba497957ed4a0afd9ca</v>
+        <v>https://v.baoshiyun.com/resource/media-842842214924289/lud/c487c5a7e64e4b47bacecf92f904cc2e.m3u8?MtsHlsUriToken=c04271fdff0e4abd8ce976d96283720a58e3d494c42d4384927a6b1e27f6366a</v>
       </c>
     </row>
     <row r="130">
@@ -3342,7 +3342,7 @@
         <v/>
       </c>
       <c r="E131" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842215415808/lud/218d780dc0934e8ab164a94271aa8394.m3u8?MtsHlsUriToken=3ac1f8a6dc7b47878fab815cf4a5d7067860af84f53f499c9c3287bd1556177e</v>
+        <v>https://v.baoshiyun.com/resource/media-842842215415808/lud/218d780dc0934e8ab164a94271aa8394.m3u8?MtsHlsUriToken=98492e247b2d46d2bc2239fb7108e8065c243fb3d8cd4d2faf451427e16d1c9f</v>
       </c>
     </row>
     <row r="132">
@@ -3376,7 +3376,7 @@
         <v/>
       </c>
       <c r="E133" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842215710720/lud/dcd7121734714f9589ab78ae1fb26591.m3u8?MtsHlsUriToken=7d9e3421729549a48bed6cd1ef57d60a79012a5b9f1341fdbee5595066b420ec</v>
+        <v>https://v.baoshiyun.com/resource/media-842842215710720/lud/dcd7121734714f9589ab78ae1fb26591.m3u8?MtsHlsUriToken=4bdd5bc828cf41748e5a4fa4ae93076bd0a96224b6e84b95a8d770db4faa79a7</v>
       </c>
     </row>
     <row r="134">
@@ -3410,7 +3410,7 @@
         <v/>
       </c>
       <c r="E135" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842215776257/lud/5f4a9dc633a94270a63f11a2829d27d0.m3u8?MtsHlsUriToken=58f1638c2a2747f282b3105fadbec6260825d321a55e47619382e94b62b9d9e5</v>
+        <v>https://v.baoshiyun.com/resource/media-842842215776257/lud/5f4a9dc633a94270a63f11a2829d27d0.m3u8?MtsHlsUriToken=8fefeff29bcc47c39fe2e39c02f51f96c83f29496fee4ba99e60edc6a1295583</v>
       </c>
     </row>
     <row r="136">
@@ -3444,7 +3444,7 @@
         <v/>
       </c>
       <c r="E137" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842215776259/lud/77c4247689d44ebc96b10b82339c089d.m3u8?MtsHlsUriToken=556df614adc4441cb3685ce406005568e7335d40573f4b23917870a466cf2f06</v>
+        <v>https://v.baoshiyun.com/resource/media-842842215776259/lud/77c4247689d44ebc96b10b82339c089d.m3u8?MtsHlsUriToken=e42db91fe29348b9a9d0a9f200bc5a38188a4b782b134cf49c432248c6200d83</v>
       </c>
     </row>
     <row r="138">
@@ -3478,7 +3478,7 @@
         <v/>
       </c>
       <c r="E139" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842216235008/lud/4c9a975687e34aa6818ceb79c7a6c394.m3u8?MtsHlsUriToken=b3df415e58404124a9126cada59c22b08ea5cda13f2e40dcb719ca6b6ae2b73f</v>
+        <v>https://v.baoshiyun.com/resource/media-842842216235008/lud/4c9a975687e34aa6818ceb79c7a6c394.m3u8?MtsHlsUriToken=20ed6fccaebd493a80d316ad0e0c08ad582ef9e180d74573b952ceaf3b9b5d2a</v>
       </c>
     </row>
     <row r="140">
@@ -3512,7 +3512,7 @@
         <v/>
       </c>
       <c r="E141" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842215940098/lud/796f7d3b34734851852933f1afddbb56.m3u8?MtsHlsUriToken=9e021615f1da42ce94d27150b125acba5dda4057529c445fa272283e22001717</v>
+        <v>https://v.baoshiyun.com/resource/media-842842215940098/lud/796f7d3b34734851852933f1afddbb56.m3u8?MtsHlsUriToken=3fd8d53be79c4a6a886f9ea8a354f07f8fae74b2f6c94e18aaef09763b3a7483</v>
       </c>
     </row>
     <row r="142">
@@ -3546,7 +3546,7 @@
         <v/>
       </c>
       <c r="E143" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842216235011/lud/9b930826dee340b5b84d5b2ec21451a2.m3u8?MtsHlsUriToken=bac2baba76b94255b0ef49a8b53bee935c5254e265484870b314da89f7643d06</v>
+        <v>https://v.baoshiyun.com/resource/media-842842216235011/lud/9b930826dee340b5b84d5b2ec21451a2.m3u8?MtsHlsUriToken=ba515ac95c0645ec9dd4a780648bb1c6936049138ae64d3f84863b024a0c17a5</v>
       </c>
     </row>
     <row r="144">
@@ -3580,7 +3580,7 @@
         <v/>
       </c>
       <c r="E145" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842215972867/lud/66857237ed814befaf3b637482eca7f8.m3u8?MtsHlsUriToken=d7306324fe774c188d993d7647a5d941226146485ac64d6ab742f8355ddbf8d5</v>
+        <v>https://v.baoshiyun.com/resource/media-842842215972867/lud/66857237ed814befaf3b637482eca7f8.m3u8?MtsHlsUriToken=fa6c8d5e3e7e4bfcb6e235f8678e0ac746389ce5068a44f191b928e1ddac0c3f</v>
       </c>
     </row>
     <row r="146">
@@ -3614,7 +3614,7 @@
         <v/>
       </c>
       <c r="E147" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842842216235012/lud/cc20ee5494df4ee697b33cde1aec6e57.m3u8?MtsHlsUriToken=417b6cd3d15449f3a9108297de8bbb89873918a478a2487b855d310e0dabb8e3</v>
+        <v>https://v.baoshiyun.com/resource/media-842842216235012/lud/cc20ee5494df4ee697b33cde1aec6e57.m3u8?MtsHlsUriToken=3d9c8545237e4573be517d01ec6b077ecdab9dc967b241d29cc13f799f7ca778</v>
       </c>
     </row>
     <row r="148">
@@ -3648,7 +3648,7 @@
         <v/>
       </c>
       <c r="E149" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893619068928/lud/0ef0eb33d4e14ef1aeaebd363039b947.m3u8?MtsHlsUriToken=931d0f0a520440db88e6b5a39f3ffd415a764ae8479a4d5099cca34e2dcf2109</v>
+        <v>https://v.baoshiyun.com/resource/media-842893619068928/lud/0ef0eb33d4e14ef1aeaebd363039b947.m3u8?MtsHlsUriToken=f422d2249070465cbe3e46b207705e6c622548efb6c14e33a7e95035a6b5cac0</v>
       </c>
     </row>
     <row r="150">
@@ -3665,7 +3665,7 @@
         <v/>
       </c>
       <c r="E150" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894214823937/lud/fb6a5ddba68c4f29a793efa765ce4346.m3u8?MtsHlsUriToken=8816bff16b354d02818b01207d0e18dc291126fcd35f4c9f8c15d3996035fb62</v>
+        <v>https://v.baoshiyun.com/resource/media-842894214823937/lud/fb6a5ddba68c4f29a793efa765ce4346.m3u8?MtsHlsUriToken=5202252a0623437fad37c2131fbcf9394ea6856dd29242ed9749847b48a21c73</v>
       </c>
     </row>
     <row r="151">
@@ -3682,7 +3682,7 @@
         <v/>
       </c>
       <c r="E151" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890319134720/lud/fd5b7fcfb7374779bb99b49d08476eb1.m3u8?MtsHlsUriToken=d7570456ce804d0399536795209d1df2a2a1ba2bcc244bf5859504acf26ab663</v>
+        <v>https://v.baoshiyun.com/resource/media-842890319134720/lud/fd5b7fcfb7374779bb99b49d08476eb1.m3u8?MtsHlsUriToken=7bd6f560e86a474da03055ed2d67ab2bc6174b4d9a6441d995faee1fa864d151</v>
       </c>
     </row>
     <row r="152">
@@ -3699,7 +3699,7 @@
         <v/>
       </c>
       <c r="E152" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890320773123/lud/db764f29533a4c29ac9840615e0d7694.m3u8?MtsHlsUriToken=7c118a49b41f4bcb9dd80a5f8db2a2669bb35ac9cda747b3a12bb6c977e92936</v>
+        <v>https://v.baoshiyun.com/resource/media-842890320773123/lud/db764f29533a4c29ac9840615e0d7694.m3u8?MtsHlsUriToken=b8ec7df609564f6fb61a9ac88774c5d8b6c0cb98c27b42c8b4872f171e0861af</v>
       </c>
     </row>
     <row r="153">
@@ -3716,7 +3716,7 @@
         <v/>
       </c>
       <c r="E153" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890320707584/lud/a36a426b4dc74cd29d31314a286d77f9.m3u8?MtsHlsUriToken=950577b5c9e54e54adcd9cf40418650603aa7ee174e441e6804f4970c4e938dc</v>
+        <v>https://v.baoshiyun.com/resource/media-842890320707584/lud/a36a426b4dc74cd29d31314a286d77f9.m3u8?MtsHlsUriToken=21478da43724457ebed8e2d89d117747c07d603e15b84ca78aed5051fbfffcd8</v>
       </c>
     </row>
     <row r="154">
@@ -3733,7 +3733,7 @@
         <v/>
       </c>
       <c r="E154" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890320936960/lud/01b039d2952e4fdfaf5ebf9a325c3eb9.m3u8?MtsHlsUriToken=60701abde9fa45f585abc0049ba4948dd4d5bc077f5f4b178e9e95d0419d5f58</v>
+        <v>https://v.baoshiyun.com/resource/media-842890320936960/lud/01b039d2952e4fdfaf5ebf9a325c3eb9.m3u8?MtsHlsUriToken=1a99628a8f9c4b6e8383c4489e8f13f43571919fcf0b4ebb8de5247db35948e5</v>
       </c>
     </row>
     <row r="155">
@@ -3750,7 +3750,7 @@
         <v/>
       </c>
       <c r="E155" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890321756162/lud/cc14b3277a2747d6882607419c254826.m3u8?MtsHlsUriToken=87bd608ec680432ea4a285159c007e53d4d23c644aee4da6a33b471be3a4040e</v>
+        <v>https://v.baoshiyun.com/resource/media-842890321756162/lud/cc14b3277a2747d6882607419c254826.m3u8?MtsHlsUriToken=fd55ab4bbd1f460fbc1673c76b566b9706d41d8742fd4a69b1dd69a9d772cea4</v>
       </c>
     </row>
     <row r="156">
@@ -3767,7 +3767,7 @@
         <v/>
       </c>
       <c r="E156" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890321821697/lud/911bf0b1e27b4cf4b13d654749fc9ac9.m3u8?MtsHlsUriToken=f21ab5d315d9489ab65b3cfc2aa8fb2755b9fe5d8c1b45f3bbad470e85534595</v>
+        <v>https://v.baoshiyun.com/resource/media-842890321821697/lud/911bf0b1e27b4cf4b13d654749fc9ac9.m3u8?MtsHlsUriToken=ac346572afef487bbff928c7596256ea7924deca043d48aba595cd67d0e45fb3</v>
       </c>
     </row>
     <row r="157">
@@ -3784,7 +3784,7 @@
         <v/>
       </c>
       <c r="E157" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841914834944/lud/1b76b019f10b4bc096a38d6f72299c94.m3u8?MtsHlsUriToken=2881f4045385476da92bbd59e08b813e5b0a0fa6e9ab4af0b9cf7d856b06a58f</v>
+        <v>https://v.baoshiyun.com/resource/media-842841914834944/lud/1b76b019f10b4bc096a38d6f72299c94.m3u8?MtsHlsUriToken=7eb426267277456eb117ea2fd8a51a2622b5476428d94fb187534c8e0479103a</v>
       </c>
     </row>
     <row r="158">
@@ -3818,7 +3818,7 @@
         <v/>
       </c>
       <c r="E159" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841919488001/lud/c1fdb1c49fd847ed8ca0c3fe3ca7cc16.m3u8?MtsHlsUriToken=a276ce1f749d4517aa04764217168eec81640f1e61954e6097a032f7e6ed27b7</v>
+        <v>https://v.baoshiyun.com/resource/media-842841919488001/lud/c1fdb1c49fd847ed8ca0c3fe3ca7cc16.m3u8?MtsHlsUriToken=f2be84532fe4431ea69b96e74c8833399cd7a720224347488958241f27a63e5f</v>
       </c>
     </row>
     <row r="160">
@@ -3852,7 +3852,7 @@
         <v/>
       </c>
       <c r="E161" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841925517314/lud/b3d9081a1da34f829a0bfa89de36c92d.m3u8?MtsHlsUriToken=be307d83ec4e4166bc48ada0a87e5c4a1b711d7b840848308a053b07223cc04c</v>
+        <v>https://v.baoshiyun.com/resource/media-842841925517314/lud/b3d9081a1da34f829a0bfa89de36c92d.m3u8?MtsHlsUriToken=e93c90584a1b42b1b70076ffbb10970893572f86b4b74139a3590396a89fcc94</v>
       </c>
     </row>
     <row r="162">
@@ -3886,7 +3886,7 @@
         <v/>
       </c>
       <c r="E163" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841925779459/lud/260a3e340a614c61839d712e03f45540.m3u8?MtsHlsUriToken=d294eb63832d4699829c35024caa2f441c0c4363cf074984848bf1ae33581275</v>
+        <v>https://v.baoshiyun.com/resource/media-842841925779459/lud/260a3e340a614c61839d712e03f45540.m3u8?MtsHlsUriToken=8a8770f21025467c86ac24dd993987613a5173666ea049499596e858eeee2dcc</v>
       </c>
     </row>
     <row r="164">
@@ -3920,7 +3920,7 @@
         <v/>
       </c>
       <c r="E165" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841926041601/lud/780a3b91212948d9ae0305504671ce24.m3u8?MtsHlsUriToken=e0a95c64972f4e49a08e737fe1636cfa19cf8f0bb5194f03880688385c7071e1</v>
+        <v>https://v.baoshiyun.com/resource/media-842841926041601/lud/780a3b91212948d9ae0305504671ce24.m3u8?MtsHlsUriToken=3a686f9c546d495291eaff7c69fd2f5a69592a6e20b94838b60e5e2aafece2d2</v>
       </c>
     </row>
     <row r="166">
@@ -3954,7 +3954,7 @@
         <v/>
       </c>
       <c r="E167" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841926369280/lud/0decec13b4564b44afab3c55309ee54d.m3u8?MtsHlsUriToken=e02ea5e3a407468dbd1071a10713c61b5c3148e2916b444f9df2a3ed65fdf2ca</v>
+        <v>https://v.baoshiyun.com/resource/media-842841926369280/lud/0decec13b4564b44afab3c55309ee54d.m3u8?MtsHlsUriToken=cd9fa03622044c1ebb3efffba63bcada81584c91a2724d40967a2dec89811bdc</v>
       </c>
     </row>
     <row r="168">
@@ -3988,7 +3988,7 @@
         <v/>
       </c>
       <c r="E169" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841991905281/lud/cd50459dd91040fc988cc2c30f5910a4.m3u8?MtsHlsUriToken=811428b522a948ed9ec08e10905ce39df80f9aa0b02b43a2b86caf93e4a771bd</v>
+        <v>https://v.baoshiyun.com/resource/media-842841991905281/lud/cd50459dd91040fc988cc2c30f5910a4.m3u8?MtsHlsUriToken=e0d1fb0bf57a4b409416c559fa7756c3d43f8dd61e9140f5b3c490a065d1dd4f</v>
       </c>
     </row>
     <row r="170">
@@ -4022,7 +4022,7 @@
         <v/>
       </c>
       <c r="E171" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841926828033/lud/713d4acf689741849813cd2b3da41488.m3u8?MtsHlsUriToken=81610249e3c140b595452b4edf2a4f00af343e081ccc4dec9b184813fa5df162</v>
+        <v>https://v.baoshiyun.com/resource/media-842841926828033/lud/713d4acf689741849813cd2b3da41488.m3u8?MtsHlsUriToken=bb99d220535842fdbfe7755ae7a02a28ef1e05bc3eb4415ea6aeb18e57d323d7</v>
       </c>
     </row>
     <row r="172">
@@ -4056,7 +4056,7 @@
         <v/>
       </c>
       <c r="E173" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841927057408/lud/9363e3769b69427e92dcfbb6bbcde0a3.m3u8?MtsHlsUriToken=e42f3abc35a74701b1431e0959ef52fbde62d13a62d04294b6217f68ce50f938</v>
+        <v>https://v.baoshiyun.com/resource/media-842841927057408/lud/9363e3769b69427e92dcfbb6bbcde0a3.m3u8?MtsHlsUriToken=598d792ef32c4eb5bf9549023b4fe42d8c0db9544c5a460b9a8cb9113ce995d8</v>
       </c>
     </row>
     <row r="174">
@@ -4090,7 +4090,7 @@
         <v/>
       </c>
       <c r="E175" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841928466433/lud/4923695bb70742b49cce5a05fb6a2b5d.m3u8?MtsHlsUriToken=cbecb11d1ba54701a9cf751d8ce0c89bda92695aa01047e68b6d84c66316d6e8</v>
+        <v>https://v.baoshiyun.com/resource/media-842841928466433/lud/4923695bb70742b49cce5a05fb6a2b5d.m3u8?MtsHlsUriToken=fbf2b8f4b4e9436c89de020f3f76d59aa1e89c2366ad4c8d91553c2526def624</v>
       </c>
     </row>
     <row r="176">
@@ -4124,7 +4124,7 @@
         <v/>
       </c>
       <c r="E177" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841928138753/lud/39794b47ce534c67b247767020030272.m3u8?MtsHlsUriToken=0281835676c147b79dc1f49d15d93dfd9a0170dbeaf2495d89e16a85ec63e3f8</v>
+        <v>https://v.baoshiyun.com/resource/media-842841928138753/lud/39794b47ce534c67b247767020030272.m3u8?MtsHlsUriToken=a57c277c64bc4de8a9da3912322d38bcb11d949a95f34209a816d7d3a1faaa31</v>
       </c>
     </row>
     <row r="178">
@@ -4158,7 +4158,7 @@
         <v/>
       </c>
       <c r="E179" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841929973761/lud/4508ecc1e6864cb58298931f4ce1eb7f.m3u8?MtsHlsUriToken=64c43332a53c4805b2d5f4d1182c8bca5ca31242a32340b782551eb090218a46</v>
+        <v>https://v.baoshiyun.com/resource/media-842841929973761/lud/4508ecc1e6864cb58298931f4ce1eb7f.m3u8?MtsHlsUriToken=01a1ef35de1641bf8276355d538d1d3fd0ff222347684977aea931dae4a68ba9</v>
       </c>
     </row>
     <row r="180">
@@ -4192,7 +4192,7 @@
         <v/>
       </c>
       <c r="E181" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841929973762/lud/d97931d614ae4b10bd8b09a1543d7005.m3u8?MtsHlsUriToken=1ed29db7ba484f0abdc2ab8c1ce88e816d6efea295634091b7a264aed8c0e40d</v>
+        <v>https://v.baoshiyun.com/resource/media-842841929973762/lud/d97931d614ae4b10bd8b09a1543d7005.m3u8?MtsHlsUriToken=c6445b8c512c4a1cafb50178cb7e28077e207400774b428c93e9eaf909b44090</v>
       </c>
     </row>
     <row r="182">
@@ -4209,7 +4209,7 @@
         <v/>
       </c>
       <c r="E182" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841930039298/lud/a165766569d241f09c000cfca4a3c720.m3u8?MtsHlsUriToken=6c0cdf53b6ca4c4595cf23249c821e664e113daddc21402ab9142ab647bfc768</v>
+        <v>https://v.baoshiyun.com/resource/media-842841930039298/lud/a165766569d241f09c000cfca4a3c720.m3u8?MtsHlsUriToken=0b81483d14634a84a6a03f376f00edce13bd15fdec7441a2bd7b61bdcdfdd57c</v>
       </c>
     </row>
     <row r="183">
@@ -4243,7 +4243,7 @@
         <v/>
       </c>
       <c r="E184" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841934757888/lud/b3b0964ccbfd43558a059a76f916849b.m3u8?MtsHlsUriToken=a9a6ecb54d29454e8251e593aa4e64f0b19c8a07835041dabecb05c91420a689</v>
+        <v>https://v.baoshiyun.com/resource/media-842841934757888/lud/b3b0964ccbfd43558a059a76f916849b.m3u8?MtsHlsUriToken=38705fdc30c34ac8b8fc9a5955f0a41503afaf79487c43f2b830763606e9dce6</v>
       </c>
     </row>
     <row r="185">
@@ -4277,7 +4277,7 @@
         <v/>
       </c>
       <c r="E186" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841934757889/lud/c6341342a97f4d62a2ca80bb046bcea2.m3u8?MtsHlsUriToken=647f104be9c742168708da7f8a3d4a004390b28854f346fa878741762954d146</v>
+        <v>https://v.baoshiyun.com/resource/media-842841934757889/lud/c6341342a97f4d62a2ca80bb046bcea2.m3u8?MtsHlsUriToken=7b8d107c4e064abdb2bc0ada9b6b8023943a569c63ab4134848f390b3dfe7b0b</v>
       </c>
     </row>
     <row r="187">
@@ -4294,7 +4294,7 @@
         <v/>
       </c>
       <c r="E187" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841934757890/lud/5efe2841a22045e784ea93dc26e13767.m3u8?MtsHlsUriToken=c2863bc798744570aaa89abc3c943f7a400504285ac746e29a9dbb46c0ae8cfd</v>
+        <v>https://v.baoshiyun.com/resource/media-842841934757890/lud/5efe2841a22045e784ea93dc26e13767.m3u8?MtsHlsUriToken=9aacf986a2624273a15fe21d0ce6e995942ba5324d3444e1bcf753cccdaefbd7</v>
       </c>
     </row>
     <row r="188">
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
       <c r="E189" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841934397443/lud/b81c5bbba53a46d88fda58899ec70d9e.m3u8?MtsHlsUriToken=9aceb4699241493ba433054cd6579fded8d162af2b7a445f9910d1668c690634</v>
+        <v>https://v.baoshiyun.com/resource/media-842841934397443/lud/b81c5bbba53a46d88fda58899ec70d9e.m3u8?MtsHlsUriToken=7e421983f8fb4980bac6d666973eada1881b1a682bd9433e806675153792ad72</v>
       </c>
     </row>
     <row r="190">
@@ -4362,7 +4362,7 @@
         <v/>
       </c>
       <c r="E191" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841935216640/lud/038ae26f11c147469bac5e79b1c1c253.m3u8?MtsHlsUriToken=cadb7efef1cb45dd9544f480c1eade8e0ffa12ea32824921b014e57f5d072ebb</v>
+        <v>https://v.baoshiyun.com/resource/media-842841935216640/lud/038ae26f11c147469bac5e79b1c1c253.m3u8?MtsHlsUriToken=93b845145f80433ab8a5a70fda271b52fb9b6ce04dda444b9f35c89f4c2ad894</v>
       </c>
     </row>
     <row r="192">
@@ -4396,7 +4396,7 @@
         <v/>
       </c>
       <c r="E193" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841935216641/lud/8406c9b7753f4d27a9c6f4d115fa9ac6.m3u8?MtsHlsUriToken=0d7190cddc6d422786ec706b6f25cf15ff874e1654964f66a05169ca61984e6e</v>
+        <v>https://v.baoshiyun.com/resource/media-842841935216641/lud/8406c9b7753f4d27a9c6f4d115fa9ac6.m3u8?MtsHlsUriToken=7f80e9ed84cc4e5d9a861349d6eddd4b1da256eab1e94b04a08ce3193e01e734</v>
       </c>
     </row>
     <row r="194">
@@ -4430,7 +4430,7 @@
         <v/>
       </c>
       <c r="E195" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841935216642/lud/e826d465e6b145a89aea4282700e1fbf.m3u8?MtsHlsUriToken=cde22a06cbc94da3a5bba52cf9348bdc887fb8cf2da94acfb7ff334664cbce92</v>
+        <v>https://v.baoshiyun.com/resource/media-842841935216642/lud/e826d465e6b145a89aea4282700e1fbf.m3u8?MtsHlsUriToken=3e325d9597b740578659afdd68930e5dc2a3c846e4d14ebb84f595d1305a7a13</v>
       </c>
     </row>
     <row r="196">
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
       <c r="E197" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842841934921729/lud/94293f3099bc42118c6334e906287706.m3u8?MtsHlsUriToken=a951cbaeb4a64e76ab604ea9a1c18ed4f5e3ba90d5fc4d278c4ca1589805bc9d</v>
+        <v>https://v.baoshiyun.com/resource/media-842841934921729/lud/94293f3099bc42118c6334e906287706.m3u8?MtsHlsUriToken=cb78ba2591f84e649bf57edda8bb19a895d2f85fdb564531a83ab75c29353f91</v>
       </c>
     </row>
     <row r="198">
@@ -4498,7 +4498,7 @@
         <v/>
       </c>
       <c r="E199" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888943108097/lud/13bdaa0807cf42369e27245bed098c8b.m3u8?MtsHlsUriToken=a3edfc96f4344666b6f6423cdbbafba8b21296ceae334fc4b2a04571c5e2f7ee</v>
+        <v>https://v.baoshiyun.com/resource/media-842888943108097/lud/13bdaa0807cf42369e27245bed098c8b.m3u8?MtsHlsUriToken=daa2b0fbebd247a6876137e097223848d95be238206b4e48a78e4525e06e3c8c</v>
       </c>
     </row>
     <row r="200">
@@ -4515,7 +4515,7 @@
         <v/>
       </c>
       <c r="E200" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888945205248/lud/499126ae031d4912bbae623834151830.m3u8?MtsHlsUriToken=c26b515c6e7b406ab8551f87cda681f853b05cd511b547f18628a83aae12cca1</v>
+        <v>https://v.baoshiyun.com/resource/media-842888945205248/lud/499126ae031d4912bbae623834151830.m3u8?MtsHlsUriToken=9db04add83be4044875b30982e3d38f5f8925c37d7bc4d9485129595ad6d2011</v>
       </c>
     </row>
     <row r="201">
@@ -4549,7 +4549,7 @@
         <v/>
       </c>
       <c r="E202" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888945500161/lud/24c599d43aaa40c4a4bcaf8c455263f0.m3u8?MtsHlsUriToken=8b984d2068f145608ada2e3db7d64a192e0273de50e34ed8ae9307125c3c32b3</v>
+        <v>https://v.baoshiyun.com/resource/media-842888945500161/lud/24c599d43aaa40c4a4bcaf8c455263f0.m3u8?MtsHlsUriToken=93c50673d7a24088b425932811c2dd2c99c4c79a4c1e4b09a31946eeb37bff28</v>
       </c>
     </row>
     <row r="203">
@@ -4566,7 +4566,7 @@
         <v/>
       </c>
       <c r="E203" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888946024448/lud/fbf733a025fb447fab0c574bfc505661.m3u8?MtsHlsUriToken=833663674a394782aad83571122ba03b57d12bd820844d31a68351f8877b7bc3</v>
+        <v>https://v.baoshiyun.com/resource/media-842888946024448/lud/fbf733a025fb447fab0c574bfc505661.m3u8?MtsHlsUriToken=99b2a303f9444a27b237920c5861e002477d4fc3e24a4c17929189b675704d1c</v>
       </c>
     </row>
     <row r="204">
@@ -4600,7 +4600,7 @@
         <v/>
       </c>
       <c r="E205" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888966701059/lud/0bebe58778b94170bdd649e2c4a49cd2.m3u8?MtsHlsUriToken=ba1051b06f97400cbe7b09cbc88de9c48117cfd7b8814dbebaf65d1840a55d64</v>
+        <v>https://v.baoshiyun.com/resource/media-842888966701059/lud/0bebe58778b94170bdd649e2c4a49cd2.m3u8?MtsHlsUriToken=71c166b98eb1494b8e14ed8508c86db5e82754a154a04bf493adf1c95be6fc33</v>
       </c>
     </row>
     <row r="206">
@@ -4634,7 +4634,7 @@
         <v/>
       </c>
       <c r="E207" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888967520256/lud/dbd36960873a4c13bd4453d1e72c1418.m3u8?MtsHlsUriToken=67bbd58704dc477394694b9ee260d6564050b4d63f5641d48c46a0b01747ae82</v>
+        <v>https://v.baoshiyun.com/resource/media-842888967520256/lud/dbd36960873a4c13bd4453d1e72c1418.m3u8?MtsHlsUriToken=0b188fe2463e4fd78e9b88997d9c53e7bc00ee850a674d4ebc3d67982c00724d</v>
       </c>
     </row>
     <row r="208">
@@ -4651,7 +4651,7 @@
         <v/>
       </c>
       <c r="E208" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888967258113/lud/5877031f734749aa8655e764595c99fc.m3u8?MtsHlsUriToken=4b13bbfc335a4961b02b26d5cc7e6242ba7827f5b91940c78ca531e4d3dfe8dc</v>
+        <v>https://v.baoshiyun.com/resource/media-842888967258113/lud/5877031f734749aa8655e764595c99fc.m3u8?MtsHlsUriToken=d9726170779f4a44a83fdd2b5d2e0fcad107be9b8aa94abca1d8d6e357ec0b60</v>
       </c>
     </row>
     <row r="209">
@@ -4668,7 +4668,7 @@
         <v/>
       </c>
       <c r="E209" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881440841728/lud/842316982eec42f5b51dc4f37f95b0f2.m3u8?MtsHlsUriToken=8e93dd9a04a746ba9c77f3af4c7a96370cbd367b0c87416c9918a694547d67f3</v>
+        <v>https://v.baoshiyun.com/resource/media-842881440841728/lud/842316982eec42f5b51dc4f37f95b0f2.m3u8?MtsHlsUriToken=5f996c5bd68f41468b55d43f27961e0004b13f454a1d4db79dd18b09afcb0296</v>
       </c>
     </row>
     <row r="210">
@@ -4702,7 +4702,7 @@
         <v/>
       </c>
       <c r="E211" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881440907266/lud/ae2993a07c5a40b9b8a130358a504422.m3u8?MtsHlsUriToken=9d4cef64033e479c883f94dfaf3acf712518e8d9fb2444f9ae7a91cdb6542ba9</v>
+        <v>https://v.baoshiyun.com/resource/media-842881440907266/lud/ae2993a07c5a40b9b8a130358a504422.m3u8?MtsHlsUriToken=f46319981bc140aeb6e85a4aee73a2c3a67f16b925d84641bda0ce16f9e68d91</v>
       </c>
     </row>
     <row r="212">
@@ -4719,7 +4719,7 @@
         <v/>
       </c>
       <c r="E212" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881440579587/lud/2095b0227f23499e8e92f9db0c4bcd28.m3u8?MtsHlsUriToken=7d4b6aca5b734d95a88562404f3ea1b3b318106bab8b498bb95a468e1c97882c</v>
+        <v>https://v.baoshiyun.com/resource/media-842881440579587/lud/2095b0227f23499e8e92f9db0c4bcd28.m3u8?MtsHlsUriToken=ed5daf74a00f486c8afcda1560ec16213373b237d69d4047996eea1d03323dc9</v>
       </c>
     </row>
     <row r="213">
@@ -4736,7 +4736,7 @@
         <v/>
       </c>
       <c r="E213" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881441366016/lud/ab40da6bdf2140f7b132eca641fcc930.m3u8?MtsHlsUriToken=90ddb4ff99734d1b8f753191136cf6894b9f762d9e9d4243bce8ce4801c834d3</v>
+        <v>https://v.baoshiyun.com/resource/media-842881441366016/lud/ab40da6bdf2140f7b132eca641fcc930.m3u8?MtsHlsUriToken=4ba09846662b468bb619cf40e2c18730350250c47e3c48f680a837c1d832ccc8</v>
       </c>
     </row>
     <row r="214">
@@ -4753,7 +4753,7 @@
         <v/>
       </c>
       <c r="E214" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881441595393/lud/3c3118e39076445ea333af12db0e9b99.m3u8?MtsHlsUriToken=9e9fac7e59e14a59bfd00c04081720d228c6103c1bad4b35878ed36fc336cc6c</v>
+        <v>https://v.baoshiyun.com/resource/media-842881441595393/lud/3c3118e39076445ea333af12db0e9b99.m3u8?MtsHlsUriToken=947300f24a934210b5306c8163f26dcb58425483e53b4295b13e6b1cb564306b</v>
       </c>
     </row>
     <row r="215">
@@ -4770,7 +4770,7 @@
         <v/>
       </c>
       <c r="E215" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881441595394/lud/594c219f9f9347518e87491ab89b9a61.m3u8?MtsHlsUriToken=d0f556dfe9ba4e47b9a30c4e2e7570ebd08993d163604e2788e99cd7706ff556</v>
+        <v>https://v.baoshiyun.com/resource/media-842881441595394/lud/594c219f9f9347518e87491ab89b9a61.m3u8?MtsHlsUriToken=4e01b9b529dc4ac1827c90021739552574a6f46143fc43489eec6db59b195920</v>
       </c>
     </row>
     <row r="216">
@@ -4787,7 +4787,7 @@
         <v/>
       </c>
       <c r="E216" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842881441890304/lud/aeb84b63028343d0beb05924198f43a5.m3u8?MtsHlsUriToken=271a9a37e843470681a04533dec1ea98e445ed7574214be8aa71c789cef47243</v>
+        <v>https://v.baoshiyun.com/resource/media-842881441890304/lud/aeb84b63028343d0beb05924198f43a5.m3u8?MtsHlsUriToken=f794d6b0ac874353a933b11ba5a62a7a6f0cbf1bc7024c399ab98137912960cb</v>
       </c>
     </row>
   </sheetData>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842896683171845/lud/93c89cebc8c14008833e16b74ef6801a.m3u8?MtsHlsUriToken=b7d28e1690da4b27b02cc617125d7d7ac941e1e761ca4d65befdff8eb53c7699</v>
+        <v>https://v.baoshiyun.com/resource/media-842896683171845/lud/93c89cebc8c14008833e16b74ef6801a.m3u8?MtsHlsUriToken=41f47331dbee4ec8a619f00ad1f8e327ddd6f0580c71446f91d8684433241735</v>
       </c>
     </row>
     <row r="2">
@@ -4862,7 +4862,7 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842896684220416/lud/f0834bba64f34773b7b6c509e543524b.m3u8?MtsHlsUriToken=6b7f0d49daf949f6b7d3009171943f6f9d19d5a2278d432b864cac9c2e7eac2e</v>
+        <v>https://v.baoshiyun.com/resource/media-842896684220416/lud/f0834bba64f34773b7b6c509e543524b.m3u8?MtsHlsUriToken=024386ea7078482fad69c95e8899a90908e2fb63ed3041b09782772d707c2a11</v>
       </c>
     </row>
     <row r="3">
@@ -4879,7 +4879,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842896684580865/lud/dbd91e15b2d2457e934516a0775bc48e.m3u8?MtsHlsUriToken=c06a7d61907f4764ac51f738d8b18fcd3bcd45ab81d24f7a9936b49c9e6f1c80</v>
+        <v>https://v.baoshiyun.com/resource/media-842896684580865/lud/dbd91e15b2d2457e934516a0775bc48e.m3u8?MtsHlsUriToken=25a852a1b75f4dd58fa0b9c45c6a9aa8e6d046a1e9e6437688424fc5b21b1688</v>
       </c>
     </row>
   </sheetData>
@@ -4917,7 +4917,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842890468556803/lud/e0c9ca1157a949ca807f50392832b658.m3u8?MtsHlsUriToken=03809d5e57714816a5b7f4f8b06c4f7f04c75065e1ca4f5c8534029686c62b13</v>
+        <v>https://v.baoshiyun.com/resource/media-842890468556803/lud/e0c9ca1157a949ca807f50392832b658.m3u8?MtsHlsUriToken=efd68870e2774a388940d1f31a11c2bff03030fb65a840e7adfa5de991c7dcb5</v>
       </c>
     </row>
   </sheetData>
@@ -4955,7 +4955,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842888842477569/lud/ebf2d51b188f4066b748b71f109bc992.m3u8?MtsHlsUriToken=a6976397279e44999f805f73de2402bc0c6e9d88662f4b38bdc56abb51db0dd7</v>
+        <v>https://v.baoshiyun.com/resource/media-842888842477569/lud/ebf2d51b188f4066b748b71f109bc992.m3u8?MtsHlsUriToken=20d3e46360ef4f05a4fa45204c06b8dbae51315f203b41eb9cc7220ddb58b2f4</v>
       </c>
     </row>
   </sheetData>
@@ -4993,7 +4993,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885378506753/lud/33db1422bfaf4f7eb74292a4a06aea3e.m3u8?MtsHlsUriToken=b1fca4e7025d4c61969805d4173dcd3f437594e05172479d8fd0528db864eaa3</v>
+        <v>https://v.baoshiyun.com/resource/media-842885378506753/lud/33db1422bfaf4f7eb74292a4a06aea3e.m3u8?MtsHlsUriToken=06401191a5b84062999883b7096e45c89aeb3bc39cd145bd887ca964c6ece326</v>
       </c>
     </row>
     <row r="2">
@@ -5010,7 +5010,7 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885378506754/lud/e07b2b0cfb3d4bb79f85375c2ad97961.m3u8?MtsHlsUriToken=410d579b59bd4b7db00ca807f978f02ccb70fe700d024b139a7b40d6d9cb5b89</v>
+        <v>https://v.baoshiyun.com/resource/media-842885378506754/lud/e07b2b0cfb3d4bb79f85375c2ad97961.m3u8?MtsHlsUriToken=d3a3d12dce014eeeae6d7ad7fe782f68865ded8446c54f9191f3c8a09947a32f</v>
       </c>
     </row>
     <row r="3">
@@ -5027,7 +5027,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885378834432/lud/dbb22c07055c45128e8abc62bc279332.m3u8?MtsHlsUriToken=8fc9889595864176bf0a9cd4f2807f224df6e620e8b2419786c549495fafe5ae</v>
+        <v>https://v.baoshiyun.com/resource/media-842885378834432/lud/dbb22c07055c45128e8abc62bc279332.m3u8?MtsHlsUriToken=e74cd89e5bb9449cb334ec7ef800d2c8865c825cbbed4740ab963e0ac79d3592</v>
       </c>
     </row>
     <row r="4">
@@ -5044,7 +5044,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885378998272/lud/f5ed620c02d44c2889d49303c05526a3.m3u8?MtsHlsUriToken=aabbbf5e846f4989b08d500d5288d66f13f4c4397a8c49299b4d75ea0b2767ed</v>
+        <v>https://v.baoshiyun.com/resource/media-842885378998272/lud/f5ed620c02d44c2889d49303c05526a3.m3u8?MtsHlsUriToken=3cdcae121c4142158d906751a812ecb063ee1390a3fc475b98b05142625a6226</v>
       </c>
     </row>
     <row r="5">
@@ -5061,7 +5061,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885378998273/lud/f3a50095ce0e4dfa8050dbd9bc29fd77.m3u8?MtsHlsUriToken=4bb9f617dee041c096da748695cab7b6b5676bd290c34798a23de5d676f8487e</v>
+        <v>https://v.baoshiyun.com/resource/media-842885378998273/lud/f3a50095ce0e4dfa8050dbd9bc29fd77.m3u8?MtsHlsUriToken=a3bd3d6707b14e5eaebb8e4fdf3f713d0a610d1c025b4304ab4946b88a287cca</v>
       </c>
     </row>
     <row r="6">
@@ -5078,7 +5078,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885379293186/lud/49fcc19fd9424e1b93b4da9c2ff0f603.m3u8?MtsHlsUriToken=41eb698e722d4beca6ed1b003ec1a66f674d4aa5a3ca490689b3314006e2d010</v>
+        <v>https://v.baoshiyun.com/resource/media-842885379293186/lud/49fcc19fd9424e1b93b4da9c2ff0f603.m3u8?MtsHlsUriToken=a21cf9b240a14e46a227698a0d264ea3eb56631e0a8a4444905d71b1c9a5eac3</v>
       </c>
     </row>
     <row r="7">
@@ -5095,7 +5095,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885383716864/lud/b8045c8d26fc4033b02b57f0d914206c.m3u8?MtsHlsUriToken=c33c89f8346a47d3acbc6c6c9cdd26ab18b61d3ca00147e0b62b9922f23a08b5</v>
+        <v>https://v.baoshiyun.com/resource/media-842885383716864/lud/b8045c8d26fc4033b02b57f0d914206c.m3u8?MtsHlsUriToken=995b9a0bf687457597ce9fa258315d86374ca90cba4945e08b1c219b66ced903</v>
       </c>
     </row>
     <row r="8">
@@ -5112,7 +5112,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885383716866/lud/d347fae59be64a73be57ff7ff51b7cbd.m3u8?MtsHlsUriToken=3c3bd89c2ab54a0f8cb35529bd613199af65a0d45e6047feabef0d14ee3157ee</v>
+        <v>https://v.baoshiyun.com/resource/media-842885383716866/lud/d347fae59be64a73be57ff7ff51b7cbd.m3u8?MtsHlsUriToken=8be10faf13294eca9476c316edde17934a882685d6274bf992214475df82f823</v>
       </c>
     </row>
     <row r="9">
@@ -5129,7 +5129,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885384011776/lud/ff076bfedb1f4666afd1de60d7dae9df.m3u8?MtsHlsUriToken=7ebeeb4e5f9b46ecbb7c92301e9d92d2c93a953157ea4922ad174973da2286b8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885384011776/lud/ff076bfedb1f4666afd1de60d7dae9df.m3u8?MtsHlsUriToken=2fae52fa2e0444f1b005acea4c5c4ff7f4265692862a4d59b8127d01766576b8</v>
       </c>
     </row>
     <row r="10">
@@ -5146,7 +5146,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885383716867/lud/b73a9af1932848bbb12ffb64468a4655.m3u8?MtsHlsUriToken=dd2ffd7137e34c43b77a2086c065f1f6ef3569bb2c98419bbed5d8a50bee5ca6</v>
+        <v>https://v.baoshiyun.com/resource/media-842885383716867/lud/b73a9af1932848bbb12ffb64468a4655.m3u8?MtsHlsUriToken=78e377e7f349459a8f71a465ddaa2e06f6c9dcadc5f34941afdee334bca77c81</v>
       </c>
     </row>
     <row r="11">
@@ -5163,7 +5163,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885384601600/lud/1335e7fbf94a491cb6f4fdf51d338d3d.m3u8?MtsHlsUriToken=612cbba36b364c0ab27e91575965c570edc34c1a75e44ae0b68436bbe170e5c3</v>
+        <v>https://v.baoshiyun.com/resource/media-842885384601600/lud/1335e7fbf94a491cb6f4fdf51d338d3d.m3u8?MtsHlsUriToken=de596ef4fc5d45a7adfcf068c4d8903b21058d2d3e2842289666c604b04068d4</v>
       </c>
     </row>
     <row r="12">
@@ -5180,7 +5180,7 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885384273920/lud/ba8a076454894336b1c4c6b060404139.m3u8?MtsHlsUriToken=ff1c11ce6299403d9cb929cc6deec1e1c56910caa1a445e5922bc9b7acc4aeaa</v>
+        <v>https://v.baoshiyun.com/resource/media-842885384273920/lud/ba8a076454894336b1c4c6b060404139.m3u8?MtsHlsUriToken=6acd0e777fb44ced8ada6e0e673f440d4d21b2f86021424183ec3929c195df35</v>
       </c>
     </row>
     <row r="13">
@@ -5197,7 +5197,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885401575424/lud/29b9444e745b4c1dae2bd7cf66501578.m3u8?MtsHlsUriToken=0721d9497024424a84adb0babe4139860b96e259d3a24f4b98f772b626b698cd</v>
+        <v>https://v.baoshiyun.com/resource/media-842885401575424/lud/29b9444e745b4c1dae2bd7cf66501578.m3u8?MtsHlsUriToken=c0d6f3bde965418ab457e7d04a6d856b20b2301c77cd42a096ac16aa57dc9e46</v>
       </c>
     </row>
     <row r="14">
@@ -5214,7 +5214,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885401837568/lud/c29d337b3c454f07a5c20f656544a118.m3u8?MtsHlsUriToken=869196c34f3943d0bf1ca8c7241a52d827a5ec87ccad416da65e635dc6d2a70b</v>
+        <v>https://v.baoshiyun.com/resource/media-842885401837568/lud/c29d337b3c454f07a5c20f656544a118.m3u8?MtsHlsUriToken=a1f18a47b0674236a39fde32b5e36e1df49dd1a28e4c4ad4a15bc392105f41c6</v>
       </c>
     </row>
     <row r="15">
@@ -5231,7 +5231,7 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885401542658/lud/4b19d9d548aa409a8c80759c18caf2d1.m3u8?MtsHlsUriToken=747071901f484b1ba640d9f6b73914b9e651efba16c04555992c18f4ccc8da9d</v>
+        <v>https://v.baoshiyun.com/resource/media-842885401542658/lud/4b19d9d548aa409a8c80759c18caf2d1.m3u8?MtsHlsUriToken=d5168dc1a58e40958344483956074fd7d825376203e84cbda93312b5b7c0053c</v>
       </c>
     </row>
     <row r="16">
@@ -5248,7 +5248,7 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885402624000/lud/36856963bb144e689079925fde7762fb.m3u8?MtsHlsUriToken=e716a58509644e3cb9bf24340e3665e5dc686c2d81bc46db9fb8b5f2a8a21fb8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885402624000/lud/36856963bb144e689079925fde7762fb.m3u8?MtsHlsUriToken=3cdc4362407e42bc800293b80911da4f2b275883357241728a4aed7749271397</v>
       </c>
     </row>
     <row r="17">
@@ -5265,7 +5265,7 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885402591233/lud/49238352b0c34b2889473758e11f20d3.m3u8?MtsHlsUriToken=9c1f3f42d5984137b422056ddfde98882bd9c7f70f7a4998bd63d9a8e954361b</v>
+        <v>https://v.baoshiyun.com/resource/media-842885402591233/lud/49238352b0c34b2889473758e11f20d3.m3u8?MtsHlsUriToken=478c8c5cfda14f0f9fe4ad0f84fb5a81046ca9db07294d759b935a894d3f8971</v>
       </c>
     </row>
     <row r="18">
@@ -5282,7 +5282,7 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885402624001/lud/df15f46c81ce4c5989ad45bb2a2e9577.m3u8?MtsHlsUriToken=823e3a366ad7491a9ddea67bd4daa661116affac7252401aa8339030fb9278f2</v>
+        <v>https://v.baoshiyun.com/resource/media-842885402624001/lud/df15f46c81ce4c5989ad45bb2a2e9577.m3u8?MtsHlsUriToken=00a53b4099b74caea5d3e038a4e7035e529d9aebc0eb4bc79f4916c625d8d941</v>
       </c>
     </row>
     <row r="19">
@@ -5299,7 +5299,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885403639809/lud/87b723dd24f741c68fc27437d0424787.m3u8?MtsHlsUriToken=59242231e4324a839d645a1e0f9620ba42924fa925a34269a6f4019d76e1fba8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885403639809/lud/87b723dd24f741c68fc27437d0424787.m3u8?MtsHlsUriToken=e03569009e074a04adc19fb2a86bb5c7e18a6c342e544723a8490695bb72ee23</v>
       </c>
     </row>
     <row r="20">
@@ -5316,7 +5316,7 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885424087040/lud/7dbd00e655a24c7c84eb527037e594d4.m3u8?MtsHlsUriToken=7c98d16df3b343daac52ae844c3ed735df77493675c345eca49d91c85dd69ae8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885424087040/lud/7dbd00e655a24c7c84eb527037e594d4.m3u8?MtsHlsUriToken=dc949e54984042cd86af33f91dbc16fb583225667490489bbb09bf6ad69af191</v>
       </c>
     </row>
     <row r="21">
@@ -5333,7 +5333,7 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885424971776/lud/b3fe231117e64f74b4518271daee6b82.m3u8?MtsHlsUriToken=eabd4304f678422281476db10ccc73a782115648a7fa413bb07f3b75b8a7c289</v>
+        <v>https://v.baoshiyun.com/resource/media-842885424971776/lud/b3fe231117e64f74b4518271daee6b82.m3u8?MtsHlsUriToken=16a375e7d8654468aa7a2aa3479998719b9c6f8a1839456ead5e23acf547ba2b</v>
       </c>
     </row>
     <row r="22">
@@ -5350,7 +5350,7 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885424644097/lud/34399f326aa14cf685237123821a88a3.m3u8?MtsHlsUriToken=86983689b8dd4daea2e21dd189943890be1d726c92744c129a059cbaad83b29d</v>
+        <v>https://v.baoshiyun.com/resource/media-842885424644097/lud/34399f326aa14cf685237123821a88a3.m3u8?MtsHlsUriToken=b32ae5245c6b476dbea2eeaaa5e5bfed4dd9cbd65b3a4f9085b234a16de61e03</v>
       </c>
     </row>
     <row r="23">
@@ -5367,7 +5367,7 @@
         <v/>
       </c>
       <c r="E23" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885424644099/lud/7b928e7d4ab742fd98de74ba9d4212b7.m3u8?MtsHlsUriToken=fc12e6b004d34a9ea5b00a947d8410866c3f41de010d400886c9ab05f8ac82f2</v>
+        <v>https://v.baoshiyun.com/resource/media-842885424644099/lud/7b928e7d4ab742fd98de74ba9d4212b7.m3u8?MtsHlsUriToken=e60ff25bd05e4fa3a6baa64146964086395087164ad04baba63768721d4cb8ca</v>
       </c>
     </row>
     <row r="24">
@@ -5384,7 +5384,7 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425135617/lud/de13d7015fc74ee68e27bc9ace5eebdd.m3u8?MtsHlsUriToken=21cc4651dce44d12817bda2abf6d899e174ca5b543294e35916b66d2ea0f8fd2</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425135617/lud/de13d7015fc74ee68e27bc9ace5eebdd.m3u8?MtsHlsUriToken=4fe8b23cab324495a301317068737e2bd419be81c19d4d5faa415d2d1f1f4186</v>
       </c>
     </row>
     <row r="25">
@@ -5401,7 +5401,7 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425168384/lud/3efbf0e7e96340b8ac6b8f3f1bd92dd9.m3u8?MtsHlsUriToken=40e26c4f46c247dfb8ba4bf64446f39a8fae2b9f32554edbb53a267069fa448e</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425168384/lud/3efbf0e7e96340b8ac6b8f3f1bd92dd9.m3u8?MtsHlsUriToken=f78c86ad4a524c8d8509b9e22bc412a1f2d72538742b4b6da6f7931b4aeb07c6</v>
       </c>
     </row>
     <row r="26">
@@ -5418,7 +5418,7 @@
         <v/>
       </c>
       <c r="E26" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425168385/lud/8255a5b0c35443d4a63de58353135b5e.m3u8?MtsHlsUriToken=3f39ac0c59a74eaf9bb0d45f75c8144b5e77ac192ec345e1a1543067fd718889</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425168385/lud/8255a5b0c35443d4a63de58353135b5e.m3u8?MtsHlsUriToken=dc54b26d09b841a7b3bb8eee71a7255b557f60f04a1c44438250ac712ec571ed</v>
       </c>
     </row>
     <row r="27">
@@ -5435,7 +5435,7 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425135619/lud/18fb02405e724752997160e45a82a1ab.m3u8?MtsHlsUriToken=24ac26cfd5c544b88caa3e4f7ec2350af02160b6f18546cd937a3c7c1cd9bf1c</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425135619/lud/18fb02405e724752997160e45a82a1ab.m3u8?MtsHlsUriToken=c2102c4b75084b52ad1d21f9f744eb1ea20841bc1ef14d5ea0374610935e09b8</v>
       </c>
     </row>
     <row r="28">
@@ -5452,7 +5452,7 @@
         <v/>
       </c>
       <c r="E28" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425954816/lud/ad45ffc367914f9cbdb19015ec9765d1.m3u8?MtsHlsUriToken=6efa7effa7e94390b1613e6c3c95612467fd739e5a63468da85b51af52e3324b</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425954816/lud/ad45ffc367914f9cbdb19015ec9765d1.m3u8?MtsHlsUriToken=8395443bc024444d90716cf08d5e8a62375f1608eb484bf2af1adc72ab872bd2</v>
       </c>
     </row>
     <row r="29">
@@ -5469,7 +5469,7 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425954817/lud/4fe620c3d6134dcca1352a1e156598d1.m3u8?MtsHlsUriToken=1f2c498845ca4ae4819418245e75bccb85d3f2cf96e148e68bfb6e490e15d9b4</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425954817/lud/4fe620c3d6134dcca1352a1e156598d1.m3u8?MtsHlsUriToken=fae29b8e1ae44e1c8644288eef20bc0378063337eb8e4a4da3ff36eab9083ec8</v>
       </c>
     </row>
     <row r="30">
@@ -5486,7 +5486,7 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425954818/lud/a9713989166d4bd79d27f051d57c07a8.m3u8?MtsHlsUriToken=57f7b3f61d704dbb99ea3cf48055e90241a3964f20be423b8931da6431f2445b</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425954818/lud/a9713989166d4bd79d27f051d57c07a8.m3u8?MtsHlsUriToken=739ff10be72b443199ab95d486dabbcfb9bcf5b28d404c2f846ecb6eda806d0d</v>
       </c>
     </row>
     <row r="31">
@@ -5503,7 +5503,7 @@
         <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885426020353/lud/305826abbd7a4725a7a7cf2a80781949.m3u8?MtsHlsUriToken=e1b52700ec4643f68ad9daf4de62fde2b9ca8b32a433478695fded69647ff4bf</v>
+        <v>https://v.baoshiyun.com/resource/media-842885426020353/lud/305826abbd7a4725a7a7cf2a80781949.m3u8?MtsHlsUriToken=8eeb60cabf9e44e39f9e23d8f86246e13894560606054398bf9f7ed2aeac38fc</v>
       </c>
     </row>
     <row r="32">
@@ -5520,7 +5520,7 @@
         <v/>
       </c>
       <c r="E32" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885425692675/lud/1e6679b180f844f78e942defd4f6b45e.m3u8?MtsHlsUriToken=011d0d915f6e49408b025e99672a850d9de47d18e88a4bfe85a9503df9f46501</v>
+        <v>https://v.baoshiyun.com/resource/media-842885425692675/lud/1e6679b180f844f78e942defd4f6b45e.m3u8?MtsHlsUriToken=2f448a07f36c485b8a1b5992909417939ee7a71238594a85bc2b54218e416fff</v>
       </c>
     </row>
     <row r="33">
@@ -5537,7 +5537,7 @@
         <v/>
       </c>
       <c r="E33" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885426216960/lud/fedd46b9ac7a4516b121c1ef9f636382.m3u8?MtsHlsUriToken=25e68afdb2b049a19775feb915505f23f14ef938c32c420fb3653d36274ff77f</v>
+        <v>https://v.baoshiyun.com/resource/media-842885426216960/lud/fedd46b9ac7a4516b121c1ef9f636382.m3u8?MtsHlsUriToken=c9a4443136e7494187589e7ba37cafcfc96779842a4d46af81a774c65a7c152e</v>
       </c>
     </row>
     <row r="34">
@@ -5554,7 +5554,7 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885426544640/lud/397a58131e4443f5ba808d0d2eb89ecf.m3u8?MtsHlsUriToken=29ef6ad49fa347d895a73de61c4e05889bc1446667294607a32438724711904f</v>
+        <v>https://v.baoshiyun.com/resource/media-842885426544640/lud/397a58131e4443f5ba808d0d2eb89ecf.m3u8?MtsHlsUriToken=fa6517a09faa40ef8e368afd8085fa66ced22dc57ca64e11a478e305f6bc5122</v>
       </c>
     </row>
     <row r="35">
@@ -5571,7 +5571,7 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885440372737/lud/ed73e65ed3234b3f90eef03b9d3b253e.m3u8?MtsHlsUriToken=d2448d8626c0439296c6a1ea8ac06d64475e6f9293aa4bb08329bc6e9d3a006f</v>
+        <v>https://v.baoshiyun.com/resource/media-842885440372737/lud/ed73e65ed3234b3f90eef03b9d3b253e.m3u8?MtsHlsUriToken=f11ceaf218da4251a2bf839c0352d6ce8cc33d285a994165b8d747582c7d838d</v>
       </c>
     </row>
     <row r="36">
@@ -5588,7 +5588,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441159168/lud/cf9585e155464bc2bb7c6485a470f93f.m3u8?MtsHlsUriToken=90dc27bb0e5346089996a3169c7870398a59b44d13604057b8b0436b60d8afc7</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441159168/lud/cf9585e155464bc2bb7c6485a470f93f.m3u8?MtsHlsUriToken=15612f912c0a41fb944d7f4858899a54df0b6945bc5541cdb85c2fb1bf5d6de7</v>
       </c>
     </row>
     <row r="37">
@@ -5605,7 +5605,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885440897024/lud/cde15b264a074a989a0db8183d77e0f0.m3u8?MtsHlsUriToken=cc32106432d7442294de00685536b03cc49706a6573942d39f2fd0cefc065f65</v>
+        <v>https://v.baoshiyun.com/resource/media-842885440897024/lud/cde15b264a074a989a0db8183d77e0f0.m3u8?MtsHlsUriToken=29135d6905334e24bef1cec337e2976c517e9a2cc8f1406d8a256538ae80b82a</v>
       </c>
     </row>
     <row r="38">
@@ -5622,7 +5622,7 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441159170/lud/4e8c1af99c564fb0a8fd9f1f7fec655b.m3u8?MtsHlsUriToken=d7d1673ab1844691827c3884abe338da809f652b05214d2186083dda4706befc</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441159170/lud/4e8c1af99c564fb0a8fd9f1f7fec655b.m3u8?MtsHlsUriToken=c3a4c6393996499cbfd7db387a7e9a72751661591b4f48c19e35d4c96508d773</v>
       </c>
     </row>
     <row r="39">
@@ -5639,7 +5639,7 @@
         <v/>
       </c>
       <c r="E39" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441159171/lud/22743fa70ba84761bad0be4bd8446209.m3u8?MtsHlsUriToken=feb70b316b724ed38f413873160f3d84e746b8e71157494c85de165b7c747861</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441159171/lud/22743fa70ba84761bad0be4bd8446209.m3u8?MtsHlsUriToken=09418d026a31438194f7c7b4509348903c603c1ed9c047a0accf64a0e78f962e</v>
       </c>
     </row>
     <row r="40">
@@ -5656,7 +5656,7 @@
         <v/>
       </c>
       <c r="E40" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441159172/lud/224d2e053dee4ceba0ea6c1d40361350.m3u8?MtsHlsUriToken=322e503c6d3d4fdfb1d8859376def8db79c8d09e9944480d81656916d05222e4</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441159172/lud/224d2e053dee4ceba0ea6c1d40361350.m3u8?MtsHlsUriToken=3ff32ba550904f7b9d6eec5bbe74daec6c84e29451544ff5a9156d5241b1614e</v>
       </c>
     </row>
     <row r="41">
@@ -5673,7 +5673,7 @@
         <v/>
       </c>
       <c r="E41" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441388545/lud/6a7663a368d0423fa8cd587c46f98b69.m3u8?MtsHlsUriToken=ab9fcb29b8634667964dcbcdf27eb91dce3aaccce6b84558a2aa99d7b4018ac3</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441388545/lud/6a7663a368d0423fa8cd587c46f98b69.m3u8?MtsHlsUriToken=4d8ecf83e20a414aa1f74a502548d0e8cdac3e3b7ce7474c80c441a8d4e947ae</v>
       </c>
     </row>
     <row r="42">
@@ -5690,7 +5690,7 @@
         <v/>
       </c>
       <c r="E42" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441421314/lud/cffc36d6f0c4436c9e8a29242382e45c.m3u8?MtsHlsUriToken=1bb05c7bbea24780863e113debb6ab42d3555b1e3e1643029adf7fff0af821b3</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441421314/lud/cffc36d6f0c4436c9e8a29242382e45c.m3u8?MtsHlsUriToken=3721733f887344e0b80f5f8651416fa6120f73f6caaa40ec8b1e92f3573ffb1c</v>
       </c>
     </row>
     <row r="43">
@@ -5707,7 +5707,7 @@
         <v/>
       </c>
       <c r="E43" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885441421315/lud/8ee363e5d9e2476db3edaff112dde7aa.m3u8?MtsHlsUriToken=00f3d127b621486b84c62db7f221cee234bb55b4f05f495d971b6bb6e6341a69</v>
+        <v>https://v.baoshiyun.com/resource/media-842885441421315/lud/8ee363e5d9e2476db3edaff112dde7aa.m3u8?MtsHlsUriToken=fbf3a0deb3f342538044d03d1f950ba12787d37116344de491b5111cb127377d</v>
       </c>
     </row>
     <row r="44">
@@ -5724,7 +5724,7 @@
         <v/>
       </c>
       <c r="E44" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885442273281/lud/23e9aaf1750d42989b548c1ffd23b460.m3u8?MtsHlsUriToken=550e18bf630a475daad4c3d811ffe62092d916a08b5a451cb8ad19ecbbf8a6f3</v>
+        <v>https://v.baoshiyun.com/resource/media-842885442273281/lud/23e9aaf1750d42989b548c1ffd23b460.m3u8?MtsHlsUriToken=c9d95514c7a34caca1706caf12bcdf47a56c27231673418894faa6f340efc475</v>
       </c>
     </row>
     <row r="45">
@@ -5741,7 +5741,7 @@
         <v/>
       </c>
       <c r="E45" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885442469888/lud/61fea9ce132a42f7916c63ad99915e92.m3u8?MtsHlsUriToken=7ea3ff35b37e4c169465501c4ebb548c000dec17b45f429195d0ddc5c54929ac</v>
+        <v>https://v.baoshiyun.com/resource/media-842885442469888/lud/61fea9ce132a42f7916c63ad99915e92.m3u8?MtsHlsUriToken=76fe57b3ca1843c3a98ba6e9828a696e99518e26d91345e29b1ff3a322c9c49b</v>
       </c>
     </row>
     <row r="46">
@@ -5758,7 +5758,7 @@
         <v/>
       </c>
       <c r="E46" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885442437121/lud/ebc17afdc25140b3a86f92b5b9ad2ea8.m3u8?MtsHlsUriToken=43ed52722662457daeb64f397ee711b96c8b1aeb12f540a487a4be1ae50112a8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885442437121/lud/ebc17afdc25140b3a86f92b5b9ad2ea8.m3u8?MtsHlsUriToken=29aaba31ddef42d7acf7ff4febc5b83fbbc7d001e6e04fcd80074774e2bdc0d4</v>
       </c>
     </row>
     <row r="47">
@@ -5775,7 +5775,7 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885586976768/lud/f7c7dab510c14f90a8de247e245e6da4.m3u8?MtsHlsUriToken=c2e4e8e8fa11450083c146be8e1b9985baf48f69f6864810aa6413532e952370</v>
+        <v>https://v.baoshiyun.com/resource/media-842885586976768/lud/f7c7dab510c14f90a8de247e245e6da4.m3u8?MtsHlsUriToken=146c8e07cfb446a6a37140386ed30e9488689ce38fbb454e9ea01ac4c25734e2</v>
       </c>
     </row>
     <row r="48">
@@ -5792,7 +5792,7 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885586649088/lud/6a8d34f2aa2d4439ba1db5243c7c8ded.m3u8?MtsHlsUriToken=287c308c33d348f2b213a958517c6a99b0744a941b78423fb35d3313eea5553f</v>
+        <v>https://v.baoshiyun.com/resource/media-842885586649088/lud/6a8d34f2aa2d4439ba1db5243c7c8ded.m3u8?MtsHlsUriToken=6cb3491e4e4a49f2984d59683d08032206249fe5b31e4410b36103eedc114d20</v>
       </c>
     </row>
     <row r="49">
@@ -5809,7 +5809,7 @@
         <v/>
       </c>
       <c r="E49" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885587173376/lud/9e44c28c7bd94263ab87580870cd018b.m3u8?MtsHlsUriToken=4d85d610da6d446f8b6fbb20961761d422f3cc914191445881b5d7f196b4e8cd</v>
+        <v>https://v.baoshiyun.com/resource/media-842885587173376/lud/9e44c28c7bd94263ab87580870cd018b.m3u8?MtsHlsUriToken=27250ac1a82a46bf9bd920cc6d222e0c827d95d21e294c6e8b2c98a92d0a1596</v>
       </c>
     </row>
     <row r="50">
@@ -5826,7 +5826,7 @@
         <v/>
       </c>
       <c r="E50" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885587140611/lud/2c7c43d43d8d4c1f9db54927e39c6fa7.m3u8?MtsHlsUriToken=94c168af83834524aea6ba3661321ffc3ba8f2404db44db3a66d702f74c37f0d</v>
+        <v>https://v.baoshiyun.com/resource/media-842885587140611/lud/2c7c43d43d8d4c1f9db54927e39c6fa7.m3u8?MtsHlsUriToken=6d556885e1b246c2af32a7d145689b5f14b4d9440c144d0cbaa6df18c0238df7</v>
       </c>
     </row>
     <row r="51">
@@ -5843,7 +5843,7 @@
         <v/>
       </c>
       <c r="E51" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885588025344/lud/bf03b77f2b274a9abe5eb27148b34ec0.m3u8?MtsHlsUriToken=34b65324f2a54072b4ff55abcda762d71ff0c3ccb1e6463fb70267d01803cd78</v>
+        <v>https://v.baoshiyun.com/resource/media-842885588025344/lud/bf03b77f2b274a9abe5eb27148b34ec0.m3u8?MtsHlsUriToken=a07172c465a44a7a9822594fc45dd3a5744fe2df141e4b04b02e38c9d4094eff</v>
       </c>
     </row>
     <row r="52">
@@ -5860,7 +5860,7 @@
         <v/>
       </c>
       <c r="E52" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885588549633/lud/2c33f472802a4e8ab71b84e605eadb85.m3u8?MtsHlsUriToken=0fce205c6dbb4ca9acd28c1ffc1cd25e036a7ae8acf24cb8bffc746d458648d8</v>
+        <v>https://v.baoshiyun.com/resource/media-842885588549633/lud/2c33f472802a4e8ab71b84e605eadb85.m3u8?MtsHlsUriToken=3c60d908125849298a0b845323545fc5c56fba6d648d4c7ea5826c3329ac5b22</v>
       </c>
     </row>
     <row r="53">
@@ -5877,7 +5877,7 @@
         <v/>
       </c>
       <c r="E53" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885593726977/lud/b56aff4a70ce45a8a8902aa9a62956a6.m3u8?MtsHlsUriToken=619a2241f4cd48539ccca7265d54ec106716f7e232664bdb8cb95635cd1b1bcc</v>
+        <v>https://v.baoshiyun.com/resource/media-842885593726977/lud/b56aff4a70ce45a8a8902aa9a62956a6.m3u8?MtsHlsUriToken=156a6db297a446cb909e73a2fc26b1e308116cb0ff5141d7986629e558f505b8</v>
       </c>
     </row>
     <row r="54">
@@ -5894,7 +5894,7 @@
         <v/>
       </c>
       <c r="E54" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885595299840/lud/b1f8e130b5b44bf6b7a149c888105cb1.m3u8?MtsHlsUriToken=8f0a535fee924b20b27a4a8d5c50f996a055887dfff4406c880104ce57b05c9d</v>
+        <v>https://v.baoshiyun.com/resource/media-842885595299840/lud/b1f8e130b5b44bf6b7a149c888105cb1.m3u8?MtsHlsUriToken=d1bd49fbf1624ca3a77cb4a8f003e2f5270548c22cb44137a45c16ddf73b4381</v>
       </c>
     </row>
     <row r="55">
@@ -5911,7 +5911,7 @@
         <v/>
       </c>
       <c r="E55" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715066881/lud/85566770c2684c4988050152c8061cbd.m3u8?MtsHlsUriToken=4e490ecfbffc4b3e8f1cbc4804e4d8ea6741980912354838915428ab3f3fbee0</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715066881/lud/85566770c2684c4988050152c8061cbd.m3u8?MtsHlsUriToken=a04f3d4731924bbf875676fd0ae9c4c9f0539f433bf84b29a10e499d5138be1a</v>
       </c>
     </row>
     <row r="56">
@@ -5928,7 +5928,7 @@
         <v/>
       </c>
       <c r="E56" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715099650/lud/81de3deb06cd4ab08b61ffa12115ec98.m3u8?MtsHlsUriToken=1b085017a3264d1fa09a9820c7df44f2a4843e534725440481af692459d5f341</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715099650/lud/81de3deb06cd4ab08b61ffa12115ec98.m3u8?MtsHlsUriToken=a3f2f54a1a894425a7a329797566cc780c42554c797840d58404e2c778975f9e</v>
       </c>
     </row>
     <row r="57">
@@ -5945,7 +5945,7 @@
         <v/>
       </c>
       <c r="E57" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715591168/lud/65ba73dbf84d44979625267491513a9c.m3u8?MtsHlsUriToken=56c1923f372e4356af067bac12061fcd675430bdcb6849ab86d698c48f7005c5</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715591168/lud/65ba73dbf84d44979625267491513a9c.m3u8?MtsHlsUriToken=86f5f7230e864c0981928b71ef474fdb6e80ae5a202f4684bc6a022aec90c3a5</v>
       </c>
     </row>
     <row r="58">
@@ -5962,7 +5962,7 @@
         <v/>
       </c>
       <c r="E58" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715591169/lud/2497f0b724814133af1bf83dba178c9b.m3u8?MtsHlsUriToken=6f4c150123834228b2c5a268e24a4a6eada237a10a624583bf94fa1e44f0e152</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715591169/lud/2497f0b724814133af1bf83dba178c9b.m3u8?MtsHlsUriToken=1c09e1e23db34057b1b0f32835e2518fefa9ba7b7db44457b1c5efe83601077d</v>
       </c>
     </row>
     <row r="59">
@@ -5979,7 +5979,7 @@
         <v/>
       </c>
       <c r="E59" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715591170/lud/af54d40f34a848dc90ac5ed533082866.m3u8?MtsHlsUriToken=403e18524b8442738bdfcb21290c6d54b5ef4b3408a94a79b8ad730b46829e13</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715591170/lud/af54d40f34a848dc90ac5ed533082866.m3u8?MtsHlsUriToken=1c03beccaefe4822834c656814929751fea29aecc64948c79e2750e837d660dd</v>
       </c>
     </row>
     <row r="60">
@@ -5996,7 +5996,7 @@
         <v/>
       </c>
       <c r="E60" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715591171/lud/aceabab3462d415ab8d62e027df36de6.m3u8?MtsHlsUriToken=8a70804cece3402290f0fc69ab249def18034af7ae6b404aad30557650426c41</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715591171/lud/aceabab3462d415ab8d62e027df36de6.m3u8?MtsHlsUriToken=c628186f525d441d98a4949982465e57009d08e66c6044f982964c3525d2e6aa</v>
       </c>
     </row>
     <row r="61">
@@ -6013,7 +6013,7 @@
         <v/>
       </c>
       <c r="E61" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885715886081/lud/90cf8a5d9e7843d4be9049bfe6977be9.m3u8?MtsHlsUriToken=8f5e72662fd948f69413e53ee9e60f64a07818eaf22b4c9989b2baffd6220247</v>
+        <v>https://v.baoshiyun.com/resource/media-842885715886081/lud/90cf8a5d9e7843d4be9049bfe6977be9.m3u8?MtsHlsUriToken=62e7c4581c044d7398d73555107c31b9a3bbbd0cd7ac49bbb2c9138ea6ae76db</v>
       </c>
     </row>
     <row r="62">
@@ -6030,7 +6030,7 @@
         <v/>
       </c>
       <c r="E62" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886093963264/lud/d0f65405fca64c71952bc88dee0a0740.m3u8?MtsHlsUriToken=cc15ea5a9b21412cb701ef5c2a5266fd877adf988e534999bdb74952c0286b41</v>
+        <v>https://v.baoshiyun.com/resource/media-842886093963264/lud/d0f65405fca64c71952bc88dee0a0740.m3u8?MtsHlsUriToken=1fca15cc80be41e1990873e98f812e7cdf7bc844344f4327a3da8f072e52b138</v>
       </c>
     </row>
     <row r="63">
@@ -6047,7 +6047,7 @@
         <v/>
       </c>
       <c r="E63" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886093963265/lud/9037640e60e046fba82baaf1902fb2da.m3u8?MtsHlsUriToken=2fc87827ede94b1b9f50de3d92b2507b3fc82f652e9d448880b525339a165069</v>
+        <v>https://v.baoshiyun.com/resource/media-842886093963265/lud/9037640e60e046fba82baaf1902fb2da.m3u8?MtsHlsUriToken=7d4cc9a31dd040179bf4e7de0ac37ac9e3135f3387f54754a4f426b7daac12ab</v>
       </c>
     </row>
     <row r="64">
@@ -6064,7 +6064,7 @@
         <v/>
       </c>
       <c r="E64" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886093963266/lud/d0adaf5307d4488985385534ed6c91eb.m3u8?MtsHlsUriToken=7c529105875b4f468e3fdb8cf21582ce919bb46d7da94596a50fcee47df14413</v>
+        <v>https://v.baoshiyun.com/resource/media-842886093963266/lud/d0adaf5307d4488985385534ed6c91eb.m3u8?MtsHlsUriToken=c6d97d754e344f78b63d9c54967a3d00e96decfac41b4323ac8bd7f03dd13145</v>
       </c>
     </row>
     <row r="65">
@@ -6081,7 +6081,7 @@
         <v/>
       </c>
       <c r="E65" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886093602816/lud/6e4f715bee584b9db13091f6b7881a04.m3u8?MtsHlsUriToken=b04a5ee9301141e18f5c4b9c4235f6988b3049d717a0411389b52ccfae2fdfaa</v>
+        <v>https://v.baoshiyun.com/resource/media-842886093602816/lud/6e4f715bee584b9db13091f6b7881a04.m3u8?MtsHlsUriToken=d303c5794e0b4f71a49ffe9cfd12c3447f48f2c9e39e42cc9a4f540155a0a6e1</v>
       </c>
     </row>
     <row r="66">
@@ -6098,7 +6098,7 @@
         <v/>
       </c>
       <c r="E66" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886094127104/lud/b165df4850034bf0871e27f6a295b745.m3u8?MtsHlsUriToken=bcf822bbcd29477e922d62ebbb5b6ded4dc0cc3bae6648e9985d506adf922536</v>
+        <v>https://v.baoshiyun.com/resource/media-842886094127104/lud/b165df4850034bf0871e27f6a295b745.m3u8?MtsHlsUriToken=619602ab75d840c799038e8f42d3e5b64a44fbe7003d478bb6e9eb535c3d3d43</v>
       </c>
     </row>
     <row r="67">
@@ -6115,7 +6115,7 @@
         <v/>
       </c>
       <c r="E67" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886094127107/lud/c09608f4d47242d2a3e959f9334c139f.m3u8?MtsHlsUriToken=a0efd9e22a8c4bb8a79e1404efb4ce36d58e614643d54752b4fa36b580084ce1</v>
+        <v>https://v.baoshiyun.com/resource/media-842886094127107/lud/c09608f4d47242d2a3e959f9334c139f.m3u8?MtsHlsUriToken=50efe8032469495c8a1afb9e003bd1d601462a77371142e484ded4b7a296ffad</v>
       </c>
     </row>
     <row r="68">
@@ -6132,7 +6132,7 @@
         <v/>
       </c>
       <c r="E68" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886094684160/lud/95e12bdb0db6484f8b567897805aa572.m3u8?MtsHlsUriToken=bd284c0b507543b18f50f21744184f4a2544aa1914554efebe5b32074be5f4ef</v>
+        <v>https://v.baoshiyun.com/resource/media-842886094684160/lud/95e12bdb0db6484f8b567897805aa572.m3u8?MtsHlsUriToken=9fd941318b6943d1b551708527137e1049703a96617c4bf9a38d81d6f14dc853</v>
       </c>
     </row>
   </sheetData>
@@ -6170,7 +6170,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045409869826/lud/c4c27180c9054e68a92df662f97298cb.m3u8?MtsHlsUriToken=5663cf7d02df475ba63ff33115df683c9d8c2bf874b9423ead6e76f697cf8d0a</v>
+        <v>https://v.baoshiyun.com/resource/media-846045409869826/lud/c4c27180c9054e68a92df662f97298cb.m3u8?MtsHlsUriToken=f70026970bc64cabbff48cca5dd28ad37090671b635a4a5581459971f91e6c5f</v>
       </c>
     </row>
     <row r="2">
@@ -6187,7 +6187,7 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045411966976/lud/554a6374a39f4170a8d956eb706cccf6.m3u8?MtsHlsUriToken=aefed267c8f14f5ab1f07f3ac2f0a106764b3a21e02042bfb9c820bdca707f78</v>
+        <v>https://v.baoshiyun.com/resource/media-846045411966976/lud/554a6374a39f4170a8d956eb706cccf6.m3u8?MtsHlsUriToken=053e5ace201146d0988076c32ef79f22785949d9129746a78416bac9fe55ca94</v>
       </c>
     </row>
     <row r="3">
@@ -6204,7 +6204,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045411999744/lud/07e58fdf6ec148f4a2cd480de4737b43.m3u8?MtsHlsUriToken=c7dd890ea44d4163bb3ddec09aea16c5b9018109b46e4046ac473b060aaa9ab0</v>
+        <v>https://v.baoshiyun.com/resource/media-846045411999744/lud/07e58fdf6ec148f4a2cd480de4737b43.m3u8?MtsHlsUriToken=e6027a79e8bf4f1385804f5c46a1cb0ea19c7c48a2ef4ed48dbe9c2cfbdffcd1</v>
       </c>
     </row>
     <row r="4">
@@ -6289,7 +6289,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045411934209/lud/b260c83c13a144749b50e892e6ac4b2a.m3u8?MtsHlsUriToken=cd44ef7c7f3f48569383778d90eaebac67b874c6b3b4404792e2b9fa09b68315</v>
+        <v>https://v.baoshiyun.com/resource/media-846045411934209/lud/b260c83c13a144749b50e892e6ac4b2a.m3u8?MtsHlsUriToken=184451f539ef48a29e36da5d06c8d5016b4e2173981f4603b1d7f4550d27838b</v>
       </c>
     </row>
     <row r="9">
@@ -6306,7 +6306,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045411934210/lud/f7833f4ef7d041c8a90a566f8952952d.m3u8?MtsHlsUriToken=8ba7d7d4d28c4cb4bb3bb218eb2cfafe99011a149d314a33bf7cfd7c5e45e43d</v>
+        <v>https://v.baoshiyun.com/resource/media-846045411934210/lud/f7833f4ef7d041c8a90a566f8952952d.m3u8?MtsHlsUriToken=17ffcbc52cca49baad10cd00ae94c318a5a5e4bd121643b4ba55617feafd818a</v>
       </c>
     </row>
     <row r="10">
@@ -6378,7 +6378,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885495947265/lud/be353791c465465e83e4164c89339c39.m3u8?MtsHlsUriToken=a76f2173039849f38224e5ca459747c7f2d7832a88a14a278246e2307bcf9635</v>
+        <v>https://v.baoshiyun.com/resource/media-842885495947265/lud/be353791c465465e83e4164c89339c39.m3u8?MtsHlsUriToken=d0578d6b5a0b4268ada3a9879906678349fb722ac26e4ad9aac32bd2d9268a67</v>
       </c>
     </row>
     <row r="2">
@@ -6412,7 +6412,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885496471552/lud/9c59f3ddc85641d7918560781257a26d.m3u8?MtsHlsUriToken=4f7bc8250be641339e78ac24cdcff7a2aa778f40182348f7904b099e2e3b27d4</v>
+        <v>https://v.baoshiyun.com/resource/media-842885496471552/lud/9c59f3ddc85641d7918560781257a26d.m3u8?MtsHlsUriToken=d9ea279b574045298fdf9b348aca2c68ceb7e1f819424525a7741d291f3ba6c7</v>
       </c>
     </row>
     <row r="4">
@@ -6429,7 +6429,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885496733696/lud/c559283719444c6f9a30756b0f4de951.m3u8?MtsHlsUriToken=c3bd3e7b801949589ea5b81393b536d79022809eca484a349654537e187a4f03</v>
+        <v>https://v.baoshiyun.com/resource/media-842885496733696/lud/c559283719444c6f9a30756b0f4de951.m3u8?MtsHlsUriToken=4d462a26d6414d34a9b1912b7143b29647d7b22f54704cf392f604d02cd67c08</v>
       </c>
     </row>
     <row r="5">
@@ -6446,7 +6446,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885496438784/lud/0f68c34697e043bf9cc483c562c18dfc.m3u8?MtsHlsUriToken=41203d9faa0f444d8f572efab47c487ad38afac73d964fd3bc964a1c91f15758</v>
+        <v>https://v.baoshiyun.com/resource/media-842885496438784/lud/0f68c34697e043bf9cc483c562c18dfc.m3u8?MtsHlsUriToken=1b3e31b785f645d5af364a8870eb515d68b015cd75274679bade2a466c6c4f54</v>
       </c>
     </row>
     <row r="6">
@@ -6463,7 +6463,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842885496799232/lud/908147e03d20420b8bc287c23790e9a6.m3u8?MtsHlsUriToken=7b67933f72ee4455b8a95ab4a247043308e20be1afcd42688c3fd0adc81ba928</v>
+        <v>https://v.baoshiyun.com/resource/media-842885496799232/lud/908147e03d20420b8bc287c23790e9a6.m3u8?MtsHlsUriToken=90f3f0bda9c44357913a0298ac1cb891cc5324ab684c4b40a4cdb5a04e8963dc</v>
       </c>
     </row>
     <row r="7">
@@ -6480,7 +6480,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886157860864/lud/07b85888b31141c4bb46734b089616fe.m3u8?MtsHlsUriToken=f9f393e1f9ab4ac895cd5df00414ed4376d1d29329d34efbb68d0c41f4be579c</v>
+        <v>https://v.baoshiyun.com/resource/media-842886157860864/lud/07b85888b31141c4bb46734b089616fe.m3u8?MtsHlsUriToken=4105193473164afab4b2358f29831a3a69fc7d8161a74ee49825af3b6752369f</v>
       </c>
     </row>
     <row r="8">
@@ -6497,7 +6497,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886157926405/lud/42bca8ce51aa459ba246f05d0da7ce8e.m3u8?MtsHlsUriToken=ec097a7ee3f2491ebc587e7ceb9d041c88b1f4fcb17b4593ae1bde773abb71d5</v>
+        <v>https://v.baoshiyun.com/resource/media-842886157926405/lud/42bca8ce51aa459ba246f05d0da7ce8e.m3u8?MtsHlsUriToken=4519d89c1c534d489fd51a50a3c59f2246f1405e28f34ab19fc4c6dc4862bf36</v>
       </c>
     </row>
     <row r="9">
@@ -6514,7 +6514,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886158123008/lud/d5de865c72744daa8e6366b1b9e243db.m3u8?MtsHlsUriToken=fb90f0ab927b4b7f9e1e0f5d6a2966b322a5f33b3eed4db68be060caa5be7467</v>
+        <v>https://v.baoshiyun.com/resource/media-842886158123008/lud/d5de865c72744daa8e6366b1b9e243db.m3u8?MtsHlsUriToken=cef919d6f743410587aead62da09fe75f1184052b8d04445bc3c264029c9ac37</v>
       </c>
     </row>
     <row r="10">
@@ -6531,7 +6531,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886158123009/lud/8d72dbb4244f467fa0fb0bc483e33a36.m3u8?MtsHlsUriToken=db0a51b34b024eeea652d364721346af01b48ed7100945c4803adf200b2082e8</v>
+        <v>https://v.baoshiyun.com/resource/media-842886158123009/lud/8d72dbb4244f467fa0fb0bc483e33a36.m3u8?MtsHlsUriToken=ca4beddbc0434137add2c8b8c01619cfda018a7662f34c20a79583d49eac5068</v>
       </c>
     </row>
     <row r="11">
@@ -6548,7 +6548,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886158909442/lud/d9dc5f26745846d39488c43eaf2448cd.m3u8?MtsHlsUriToken=75a828cdb0584c7ab4099376eac79bbda0444a57db2e4a37986c409410fb8514</v>
+        <v>https://v.baoshiyun.com/resource/media-842886158909442/lud/d9dc5f26745846d39488c43eaf2448cd.m3u8?MtsHlsUriToken=a14a290418d14faaa3f25c127478e5586d687fead3064a5cbf6fe290ef75f15d</v>
       </c>
     </row>
     <row r="12">
@@ -6565,7 +6565,7 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886159138818/lud/8fedbefca8b04bdcaf6da1112e98ba7b.m3u8?MtsHlsUriToken=b199fd836c3a41f0be5087a396659ebf17bbf0ddf1244fd0ad2325ce4224c395</v>
+        <v>https://v.baoshiyun.com/resource/media-842886159138818/lud/8fedbefca8b04bdcaf6da1112e98ba7b.m3u8?MtsHlsUriToken=39e1f787358c4205ab28d6e310cba133d91781bbad5d4fbc840923f064d42033</v>
       </c>
     </row>
     <row r="13">
@@ -6582,7 +6582,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886159138819/lud/246a9baa44d84c468fef3deb61678c90.m3u8?MtsHlsUriToken=df20998f173d4b95a8fb472712ae9aa23e1e79f2acb84f4d8a932a9c3d0d7098</v>
+        <v>https://v.baoshiyun.com/resource/media-842886159138819/lud/246a9baa44d84c468fef3deb61678c90.m3u8?MtsHlsUriToken=1dc9d73b5506497898f7d19894e78504d3b79746e3554654b5739933c4ebf70c</v>
       </c>
     </row>
     <row r="14">
@@ -6599,7 +6599,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886159138816/lud/3106c197e27e4b189223e3705837a23a.m3u8?MtsHlsUriToken=5c40e2d87aae4cd3b60fa28618018b69b04f982367a4481a8fe9cc740aa4ea8e</v>
+        <v>https://v.baoshiyun.com/resource/media-842886159138816/lud/3106c197e27e4b189223e3705837a23a.m3u8?MtsHlsUriToken=40d20b78aff3449e863b8f8fdb4fefa7f2f87139fb8e406c8a4f4acdbcf50362</v>
       </c>
     </row>
     <row r="15">
@@ -6616,7 +6616,7 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886159695872/lud/8aa11962fe97433b84d24cea0d423038.m3u8?MtsHlsUriToken=c7efe29948c54aebab6a576a170b5ede1cadf42c2ced439d84766f2c7b162c9b</v>
+        <v>https://v.baoshiyun.com/resource/media-842886159695872/lud/8aa11962fe97433b84d24cea0d423038.m3u8?MtsHlsUriToken=7ec6827d837f4551994685902ce26309e347adae603d438b8e8699d400b8bde6</v>
       </c>
     </row>
     <row r="16">
@@ -6633,7 +6633,7 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886160023553/lud/e973f75d62c54aaa888fa7125c41568b.m3u8?MtsHlsUriToken=6a52cb9a97fd45f3a77632b8f0f885f08f7599cfd9c54583b05d36db35b8deca</v>
+        <v>https://v.baoshiyun.com/resource/media-842886160023553/lud/e973f75d62c54aaa888fa7125c41568b.m3u8?MtsHlsUriToken=a3c6e5a5c9284022a4ebd93f7f14e0ed38edfe1a39694fcab36cd1418f976806</v>
       </c>
     </row>
     <row r="17">
@@ -6650,7 +6650,7 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886160482304/lud/740cdcf131c243959e9397f25c487723.m3u8?MtsHlsUriToken=daa469a2556a4160be147e56d9385594b2b9d659aa554329a99e2577c70ce1b5</v>
+        <v>https://v.baoshiyun.com/resource/media-842886160482304/lud/740cdcf131c243959e9397f25c487723.m3u8?MtsHlsUriToken=f45e2e5e95194f409b06b6ab06e8d0f59a4cf0f614364a5c9ff067a0aedb8646</v>
       </c>
     </row>
     <row r="18">
@@ -6667,7 +6667,7 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886162317313/lud/b1924189e1604b8f8bba200e8c8f85e6.m3u8?MtsHlsUriToken=fe54fcf443e94e889a70676c546d53e30e55ba8455214be68b8c8fb2b796d9e3</v>
+        <v>https://v.baoshiyun.com/resource/media-842886162317313/lud/b1924189e1604b8f8bba200e8c8f85e6.m3u8?MtsHlsUriToken=edb8e46f611148dfb8973e6bb232f3695a3ab6d05db042298baeb9bfc9a7ca5b</v>
       </c>
     </row>
     <row r="19">
@@ -6684,7 +6684,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886425313282/lud/c4180acba5934ad8b3f4dceee9bf5a5e.m3u8?MtsHlsUriToken=7d49f5b318014cd098335d2bbf7b7388c652238c9c8847e58fe241173589be27</v>
+        <v>https://v.baoshiyun.com/resource/media-842886425313282/lud/c4180acba5934ad8b3f4dceee9bf5a5e.m3u8?MtsHlsUriToken=85c4ae48f5474aa4a2acdfa9255d45dc0cd34f3e7710435ebf628e3756bd6fc3</v>
       </c>
     </row>
     <row r="20">
@@ -6701,7 +6701,7 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886424985603/lud/890cfb48f3a04f69a28ba02ff637d45e.m3u8?MtsHlsUriToken=819d7ab06ca64e2292871bdb6a68d8a77be70daa847e4786bbfed047d8b455e4</v>
+        <v>https://v.baoshiyun.com/resource/media-842886424985603/lud/890cfb48f3a04f69a28ba02ff637d45e.m3u8?MtsHlsUriToken=64e59ec0bdd142a1bf52f54831ed9536115f569da3b9455db920cadd0a404875</v>
       </c>
     </row>
     <row r="21">
@@ -6718,7 +6718,7 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886425477120/lud/4986fa0340c84b1cb05aef7ddfcb2f55.m3u8?MtsHlsUriToken=30e182e809754ae98742a73fc4ed662e24822d2f2a9543a197e9373743aef0cc</v>
+        <v>https://v.baoshiyun.com/resource/media-842886425477120/lud/4986fa0340c84b1cb05aef7ddfcb2f55.m3u8?MtsHlsUriToken=8671ebceb38946269be0631c5f1a6041158b8cc177cd4415858e165ca0983fed</v>
       </c>
     </row>
     <row r="22">
@@ -6735,7 +6735,7 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886425772035/lud/23df1ed30dd04de9802932d9b4561757.m3u8?MtsHlsUriToken=dbde5cb209eb4dab95f0076b2f586d42d76f10dc1c5c4663a0571492c9d155d6</v>
+        <v>https://v.baoshiyun.com/resource/media-842886425772035/lud/23df1ed30dd04de9802932d9b4561757.m3u8?MtsHlsUriToken=277812b7e8844ebbacd822ada374a928dd1390c922a34e2fb0013aa475d32052</v>
       </c>
     </row>
     <row r="23">
@@ -6752,7 +6752,7 @@
         <v/>
       </c>
       <c r="E23" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886426296320/lud/c3177a63a8bd4e65995eb72d40d27c13.m3u8?MtsHlsUriToken=3f3551a56451406bab2f9d2ade489ec81496d64c01054a078b5504b5a797e332</v>
+        <v>https://v.baoshiyun.com/resource/media-842886426296320/lud/c3177a63a8bd4e65995eb72d40d27c13.m3u8?MtsHlsUriToken=382a21958e1d4ccb9d703b8d36eb8d88f4b2b72f883645ac85705c01d15096ef</v>
       </c>
     </row>
     <row r="24">
@@ -6769,7 +6769,7 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886426296321/lud/73144174ca6f4ff6850738d67f743851.m3u8?MtsHlsUriToken=93fe513ad2b3444083bb5d3a4042eddfb7bb545af28544c99e64403f46e9b2b8</v>
+        <v>https://v.baoshiyun.com/resource/media-842886426296321/lud/73144174ca6f4ff6850738d67f743851.m3u8?MtsHlsUriToken=27dc945170734b02b79a3dadc4fd642d11686cd86f4a425d837b5780adec3d65</v>
       </c>
     </row>
     <row r="25">
@@ -6786,7 +6786,7 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886426034178/lud/b1543af782614d628a2df2bcb666ee4e.m3u8?MtsHlsUriToken=875b4ce034c4456387396f047e1ce88ae5c4e7e6689d48bebee8a9b9472451a5</v>
+        <v>https://v.baoshiyun.com/resource/media-842886426034178/lud/b1543af782614d628a2df2bcb666ee4e.m3u8?MtsHlsUriToken=e56fa39446454bcb897dbe661d9b58528aa40a5c5754422e9a6f2ad3bc516b1c</v>
       </c>
     </row>
     <row r="26">
@@ -6803,7 +6803,7 @@
         <v/>
       </c>
       <c r="E26" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886426886144/lud/064a8c7b6a204b5bb6d33a4bec2a3cf0.m3u8?MtsHlsUriToken=db34889d1cdc4f368f7bfb5bca33c55c7c025e66ad0f448c88fb320dbc8c099e</v>
+        <v>https://v.baoshiyun.com/resource/media-842886426886144/lud/064a8c7b6a204b5bb6d33a4bec2a3cf0.m3u8?MtsHlsUriToken=ee8426926bb6435c9be4d5abc1c6654073053c77a81c4a1a95f707078e515f2e</v>
       </c>
     </row>
     <row r="27">
@@ -6820,7 +6820,7 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886426525696/lud/26685fd1bd3c46a788d4852cb74df15a.m3u8?MtsHlsUriToken=7e7de78e51b844acb0b1b5f4ccc3d76a0cb1d8be8f934ec397cd22548472144b</v>
+        <v>https://v.baoshiyun.com/resource/media-842886426525696/lud/26685fd1bd3c46a788d4852cb74df15a.m3u8?MtsHlsUriToken=c724cc2b25134a7eab14b8c54ae862185b887004ee234cb1876ddb0b85a84f2c</v>
       </c>
     </row>
     <row r="28">
@@ -6837,7 +6837,7 @@
         <v/>
       </c>
       <c r="E28" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886594854915/lud/2d0693915a7b4cb280c45a559574ab62.m3u8?MtsHlsUriToken=3bce1837e2974ce48bf53e1993d006c422406a4aa8ec43258dda5d7e3c72e428</v>
+        <v>https://v.baoshiyun.com/resource/media-842886594854915/lud/2d0693915a7b4cb280c45a559574ab62.m3u8?MtsHlsUriToken=763fba61eeba497394e0de2fffab1f5c097a528beb15477091341ec9be82fc6d</v>
       </c>
     </row>
     <row r="29">
@@ -6854,7 +6854,7 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886594822145/lud/14bcdb716a874f3da80f154d2253ab1e.m3u8?MtsHlsUriToken=7089b84f0f1f4fbd8efcf8e82a85e6b9db3da4f3d4fc490381e9eaa416e71ee8</v>
+        <v>https://v.baoshiyun.com/resource/media-842886594822145/lud/14bcdb716a874f3da80f154d2253ab1e.m3u8?MtsHlsUriToken=d3dac8b048774bee8b316e0cbe488346adf07272a59446809ed8343d7f2d50d3</v>
       </c>
     </row>
     <row r="30">
@@ -6871,7 +6871,7 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886596231168/lud/c6d7a7e361c44893b05902aee438e8df.m3u8?MtsHlsUriToken=db6082dbd1b848198812ef28ca1d6e64f8e66fae69cc426a94b383c10099c983</v>
+        <v>https://v.baoshiyun.com/resource/media-842886596231168/lud/c6d7a7e361c44893b05902aee438e8df.m3u8?MtsHlsUriToken=33db3626774f4b53b6e5fe0e0ca0112b2ffb00383d0a48d2877a8ad91939e254</v>
       </c>
     </row>
     <row r="31">
@@ -6888,7 +6888,7 @@
         <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886596165632/lud/2ea0f67559a34fe6b464f73956b39996.m3u8?MtsHlsUriToken=961acedbd8534a699927ed908d3328752b6cb96e13ec4be986ff5082268faeb7</v>
+        <v>https://v.baoshiyun.com/resource/media-842886596165632/lud/2ea0f67559a34fe6b464f73956b39996.m3u8?MtsHlsUriToken=0cd9e2b5fc5847559170adbef98590f50ff935454bd846a9a6319b5626f22960</v>
       </c>
     </row>
     <row r="32">
@@ -6905,7 +6905,7 @@
         <v/>
       </c>
       <c r="E32" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886596231169/lud/dbfc949e40cf4cefbfd32967a4146f2f.m3u8?MtsHlsUriToken=cb8434f416b84d8e83d53108c5fddf68f740c81ddc0e4c2586e68127ef9f9a7d</v>
+        <v>https://v.baoshiyun.com/resource/media-842886596231169/lud/dbfc949e40cf4cefbfd32967a4146f2f.m3u8?MtsHlsUriToken=9ababfd0420448a5aa01efe448aa48c5229d0bdcaae2477db1b79ad261e6e63e</v>
       </c>
     </row>
     <row r="33">
@@ -6922,7 +6922,7 @@
         <v/>
       </c>
       <c r="E33" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886809092097/lud/9077cbdfdfdd4f4997fa80043634c7d0.m3u8?MtsHlsUriToken=6485cd4c7857499caf9f6ef102ae0ccca223b05609724c88b2586fb103f2ed1d</v>
+        <v>https://v.baoshiyun.com/resource/media-842886809092097/lud/9077cbdfdfdd4f4997fa80043634c7d0.m3u8?MtsHlsUriToken=014ffc0af2a44293912e6e3ea6c0039894e28bf6d619443f9d650256d38b0ef8</v>
       </c>
     </row>
     <row r="34">
@@ -6939,7 +6939,7 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886809026562/lud/f93420ca0ca74baab49fdad6cd96815e.m3u8?MtsHlsUriToken=a9325c6d9a644c8ea58bd90ee9675ba8136921371cb24d538f283f1ad448e095</v>
+        <v>https://v.baoshiyun.com/resource/media-842886809026562/lud/f93420ca0ca74baab49fdad6cd96815e.m3u8?MtsHlsUriToken=fcb0c8c88d514563a8ca83db1829a25f2f438867964e4491a7d148a30277b894</v>
       </c>
     </row>
     <row r="35">
@@ -6956,7 +6956,7 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886809092099/lud/7bc009e1f8ed47bbb2ce2cbc60b7c79e.m3u8?MtsHlsUriToken=360b73cc0367467694d9b0a2e971b60e9a3389a2b4794418a111fcdd5d1d9453</v>
+        <v>https://v.baoshiyun.com/resource/media-842886809092099/lud/7bc009e1f8ed47bbb2ce2cbc60b7c79e.m3u8?MtsHlsUriToken=a1f22750b6f64c2e9d2688a1dfde7bfbdb0cc9ad3e714d2494c6de61f45e5ea7</v>
       </c>
     </row>
     <row r="36">
@@ -6973,7 +6973,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886809288704/lud/4cc038ca704a4c83a20284c20e0521ef.m3u8?MtsHlsUriToken=e5669125b62e4ea19d47b37094302c7a24c4c1dbe6b14f719579937cd9db3432</v>
+        <v>https://v.baoshiyun.com/resource/media-842886809288704/lud/4cc038ca704a4c83a20284c20e0521ef.m3u8?MtsHlsUriToken=9783a6b35e3d48aea94e654ca88553ea2bb72a9b7158477b8f906d25526c3a56</v>
       </c>
     </row>
     <row r="37">
@@ -6990,7 +6990,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886809288705/lud/e49c58fd6c3a43aa831dbf0ef648c6e6.m3u8?MtsHlsUriToken=1339dd9c1fd04dcf971cf724fa9afebea3fd5b938a3749b3be22a5276f428c63</v>
+        <v>https://v.baoshiyun.com/resource/media-842886809288705/lud/e49c58fd6c3a43aa831dbf0ef648c6e6.m3u8?MtsHlsUriToken=1738731823744ab781ae4406c1fc518b355247b36c144ff5aa7ca84a0475c210</v>
       </c>
     </row>
     <row r="38">
@@ -7007,7 +7007,7 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886887735297/lud/79326f0f9a24458ba3e84367bab0a911.m3u8?MtsHlsUriToken=471ae4a8ddfb49d59f54d27440d931a105229fbe89e341c9bd3a26fd75b6b9e5</v>
+        <v>https://v.baoshiyun.com/resource/media-842886887735297/lud/79326f0f9a24458ba3e84367bab0a911.m3u8?MtsHlsUriToken=28d4da9cf6dc43beb3cd75e27b264c164fee3befbcc446dbae7e9be172505303</v>
       </c>
     </row>
     <row r="39">
@@ -7024,7 +7024,7 @@
         <v/>
       </c>
       <c r="E39" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886887931904/lud/113787f978b14cecb920b8b23ee032dd.m3u8?MtsHlsUriToken=4984152059bd44f4a73084710c88d32ee016b0c2107b448882405473c0393040</v>
+        <v>https://v.baoshiyun.com/resource/media-842886887931904/lud/113787f978b14cecb920b8b23ee032dd.m3u8?MtsHlsUriToken=c308871434b243b5863dd2d4fee4d07414cff9516df049e1824cf6cacc1adcc5</v>
       </c>
     </row>
     <row r="40">
@@ -7041,7 +7041,7 @@
         <v/>
       </c>
       <c r="E40" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886888259584/lud/764a072eb80445bf9b3b7a879552485d.m3u8?MtsHlsUriToken=ccd3289796004f6d9775d5d1c6ffe30eb2741037e1954a3cb936519ea5acf2ad</v>
+        <v>https://v.baoshiyun.com/resource/media-842886888259584/lud/764a072eb80445bf9b3b7a879552485d.m3u8?MtsHlsUriToken=36b63fd2bb9e463ea497d71dd1be240871f3320fa14c448e80f68ea9d9f1ca6f</v>
       </c>
     </row>
     <row r="41">
@@ -7058,7 +7058,7 @@
         <v/>
       </c>
       <c r="E41" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886888259586/lud/5a04b918ee734f29b2fb6f95d65ec433.m3u8?MtsHlsUriToken=e91bde85f6ef436ab5c0b3ef8884af0295006250e01f4436bfd4cf61fbbad25b</v>
+        <v>https://v.baoshiyun.com/resource/media-842886888259586/lud/5a04b918ee734f29b2fb6f95d65ec433.m3u8?MtsHlsUriToken=b170b37a2e354fcbaf35f5c2936f0337fb8a02cc28a442b8a94c5ee4bd944499</v>
       </c>
     </row>
     <row r="42">
@@ -7075,7 +7075,7 @@
         <v/>
       </c>
       <c r="E42" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842886888259588/lud/722da789f15b460eb8e33c706029fd2c.m3u8?MtsHlsUriToken=d2c5fde4e20c464b86cdf7e4433e2b3c2111189f64ad432db653e4d365d00c26</v>
+        <v>https://v.baoshiyun.com/resource/media-842886888259588/lud/722da789f15b460eb8e33c706029fd2c.m3u8?MtsHlsUriToken=de98887be8284eefb5a21d6378b0f7375fb96891830245afa38caffe0ef6901a</v>
       </c>
     </row>
     <row r="43">
@@ -7092,7 +7092,7 @@
         <v/>
       </c>
       <c r="E43" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889576218626/lud/d5395874a6304446b3b49699398df6ab.m3u8?MtsHlsUriToken=3a7cd31c98ed4b1f9399e9b36a250629500b5522ac4a435bb20fca7e872301e6</v>
+        <v>https://v.baoshiyun.com/resource/media-842889576218626/lud/d5395874a6304446b3b49699398df6ab.m3u8?MtsHlsUriToken=0ba8c590139f4bf89ad3cb2043fc68e18b845fbbe62c46a4986d132277c6e5f9</v>
       </c>
     </row>
     <row r="44">
@@ -7109,7 +7109,7 @@
         <v/>
       </c>
       <c r="E44" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889576808449/lud/400dd34688e24deba8e86e04742a656f.m3u8?MtsHlsUriToken=b201f08fc1ee43edb5d4fb88bed1528895db57e7cd2e4a418bfbb4157e631fb1</v>
+        <v>https://v.baoshiyun.com/resource/media-842889576808449/lud/400dd34688e24deba8e86e04742a656f.m3u8?MtsHlsUriToken=6e640ab5939f42389bf5798fee2420b224b253c163654bd0afc0ecc8e793a2e8</v>
       </c>
     </row>
     <row r="45">
@@ -7126,7 +7126,7 @@
         <v/>
       </c>
       <c r="E45" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889576808450/lud/fbd45db0b3ab47ff8dbd32e8841e0177.m3u8?MtsHlsUriToken=e1aa25e729d440228ef2c3e096b8ba72fd3fbe852d274b4da5a112ab587f47cf</v>
+        <v>https://v.baoshiyun.com/resource/media-842889576808450/lud/fbd45db0b3ab47ff8dbd32e8841e0177.m3u8?MtsHlsUriToken=ea85894489094298b000fa25fd696b213a04e4c7043e44e0ab82edfcd53bf87e</v>
       </c>
     </row>
     <row r="46">
@@ -7143,7 +7143,7 @@
         <v/>
       </c>
       <c r="E46" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889577332736/lud/d57d510829ac4fcd8cb73820bb5dc457.m3u8?MtsHlsUriToken=8c36b694334c4fe98e30a207465e2dabbf1e82940e214a0c992c69133e431b28</v>
+        <v>https://v.baoshiyun.com/resource/media-842889577332736/lud/d57d510829ac4fcd8cb73820bb5dc457.m3u8?MtsHlsUriToken=7e120f00382e456a82dec49dfecff3b29bce1ecc30de4abc9ac629ea0721a60b</v>
       </c>
     </row>
     <row r="47">
@@ -7160,7 +7160,7 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889583624193/lud/9302d280e56f4dfa933d834783c3e423.m3u8?MtsHlsUriToken=6975e89c4cf94d679ccf87dfafe0ff376cc9f90f1bde45cbb5167277a9335c91</v>
+        <v>https://v.baoshiyun.com/resource/media-842889583624193/lud/9302d280e56f4dfa933d834783c3e423.m3u8?MtsHlsUriToken=14a027525a3c415980ca5dd04a63b45fc0ce06f1f8724585b9aadf946e81ea76</v>
       </c>
     </row>
     <row r="48">
@@ -7177,7 +7177,7 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889585655809/lud/f3392d91246748c1a62f2db52408ea83.m3u8?MtsHlsUriToken=e126fe4f37ed4144a904066f9982311f105fe0cda625434399eb382ca54d3dee</v>
+        <v>https://v.baoshiyun.com/resource/media-842889585655809/lud/f3392d91246748c1a62f2db52408ea83.m3u8?MtsHlsUriToken=043b89b1a40d4152be632939acae2809ec9437c2d14844918bb1b49de77e3587</v>
       </c>
     </row>
     <row r="49">
@@ -7194,7 +7194,7 @@
         <v/>
       </c>
       <c r="E49" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889585885187/lud/0ea98afd3666402bbe5468d179a880b7.m3u8?MtsHlsUriToken=909ace7272f74cd5a9da2d4fa6cbecdb362911abe3ea4cbc948868f79a9b4438</v>
+        <v>https://v.baoshiyun.com/resource/media-842889585885187/lud/0ea98afd3666402bbe5468d179a880b7.m3u8?MtsHlsUriToken=728603699e2448a88000f517a7575a00362c8b7966084a40b31a6a10a04b02bc</v>
       </c>
     </row>
   </sheetData>
@@ -7232,7 +7232,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887781646337/lud/20f845bc2fb04ac5af2e90b964a73c7e.m3u8?MtsHlsUriToken=f706d19c0ba1466b8cfa6952287dc37c28b68971d9dd4d55960a115d040e7ef3</v>
+        <v>https://v.baoshiyun.com/resource/media-842887781646337/lud/20f845bc2fb04ac5af2e90b964a73c7e.m3u8?MtsHlsUriToken=2b0979da11a74d5b9e6f2894857374a1d8fb2b18c49148f0bd299c409e5fb869</v>
       </c>
     </row>
     <row r="2">
@@ -7249,7 +7249,7 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887781580801/lud/e585b33f12124f38a3988187a7ad0fca.m3u8?MtsHlsUriToken=4c27a305ac374878b02c1bcb1e14db33c00080d920c844f1bc64e835cf0d93ac</v>
+        <v>https://v.baoshiyun.com/resource/media-842887781580801/lud/e585b33f12124f38a3988187a7ad0fca.m3u8?MtsHlsUriToken=dc669c02d88a4a64b6618d91339b3413b6053f1d3fba44c78cd67b0007af938f</v>
       </c>
     </row>
     <row r="3">
@@ -7266,7 +7266,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887781285889/lud/82b930e908e64570b78d10166c65b4ce.m3u8?MtsHlsUriToken=00947d04d7db485c9213edb4eecb4c89213cd58b3aee42ecb59b624ad94beea8</v>
+        <v>https://v.baoshiyun.com/resource/media-842887781285889/lud/82b930e908e64570b78d10166c65b4ce.m3u8?MtsHlsUriToken=4ef59493b09f4890aeef137a0f239c8979d31d93243f4dce944861a00ca75a62</v>
       </c>
     </row>
     <row r="4">
@@ -7283,7 +7283,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887783153665/lud/53179e0d4131438aa381ea1990aea709.m3u8?MtsHlsUriToken=9d5b488774dd4ecbb1f419bd5abc7d9b48a9bb6ef52244758fd62c641dedd148</v>
+        <v>https://v.baoshiyun.com/resource/media-842887783153665/lud/53179e0d4131438aa381ea1990aea709.m3u8?MtsHlsUriToken=4b221e61bd614085949368133dd578da4efdbe19cb3e442188210b5ff7d2c9e6</v>
       </c>
     </row>
     <row r="5">
@@ -7300,7 +7300,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887783743489/lud/bbb38652d1534dce9f1fb226e3eb18db.m3u8?MtsHlsUriToken=11e18bfd51584b979b339a2cafaf81a2f81d65a7475c4c8d8df80fa40fa83d6c</v>
+        <v>https://v.baoshiyun.com/resource/media-842887783743489/lud/bbb38652d1534dce9f1fb226e3eb18db.m3u8?MtsHlsUriToken=68ca284d884d4c2fb73a7622f3f468d4d1d2571177e94e22b7e4187277ef4a33</v>
       </c>
     </row>
     <row r="6">
@@ -7317,7 +7317,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887783743491/lud/0e3e49e86a4042638d77af7f7cd1a5dd.m3u8?MtsHlsUriToken=90f3a350bd474929a721a0c78d7ed2e8db02e13d9834443182e9aecbb3fedb19</v>
+        <v>https://v.baoshiyun.com/resource/media-842887783743491/lud/0e3e49e86a4042638d77af7f7cd1a5dd.m3u8?MtsHlsUriToken=5df392d60156410682807936d528595b4ff1348dc34c4e6bb4843932231d9c69</v>
       </c>
     </row>
     <row r="7">
@@ -7334,7 +7334,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887783383041/lud/1fc5b81590354392a7a50ae0ce8fefbe.m3u8?MtsHlsUriToken=2dbf1c5ecd1b4bfc895855527ee0bffb4aad613f7a824c8c96de9e0e29f7d74c</v>
+        <v>https://v.baoshiyun.com/resource/media-842887783383041/lud/1fc5b81590354392a7a50ae0ce8fefbe.m3u8?MtsHlsUriToken=a31fc349b8b347d0a0247ac33c506fc4751a9418529c4522ad9ff03d343020e6</v>
       </c>
     </row>
     <row r="8">
@@ -7351,7 +7351,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887784267776/lud/9c48131c0f4c473c875b1b02ef6a4152.m3u8?MtsHlsUriToken=190df947998e478981a836cfd91355d5b59fc56078044ea5855bbd0addbf7b81</v>
+        <v>https://v.baoshiyun.com/resource/media-842887784267776/lud/9c48131c0f4c473c875b1b02ef6a4152.m3u8?MtsHlsUriToken=5ade3c4f074640bb9a48e0bd7b0d0c0fe7a6ad4b9b67479db1c5d738aa6214e0</v>
       </c>
     </row>
     <row r="9">
@@ -7406,7 +7406,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889428369409/lud/5f103684b2e34cb1aa769b71c6f1af77.m3u8?MtsHlsUriToken=6d5b5d127d9f4a8d935cc8f2a216be597aef0c09e1ea4392a2b30bfbd4491136</v>
+        <v>https://v.baoshiyun.com/resource/media-842889428369409/lud/5f103684b2e34cb1aa769b71c6f1af77.m3u8?MtsHlsUriToken=242821479de846829fa668957b97eae48a2e2f21797449dbb882406915a750a6</v>
       </c>
     </row>
     <row r="2">
@@ -7440,7 +7440,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889428369411/lud/2222781b0aae42ca9f0a98d6ef71869c.m3u8?MtsHlsUriToken=efb9acc8b5ee4d83b1ac67ecf631b5c48fb20622389d4a2c9af5887928793e01</v>
+        <v>https://v.baoshiyun.com/resource/media-842889428369411/lud/2222781b0aae42ca9f0a98d6ef71869c.m3u8?MtsHlsUriToken=0c82231365e04482b8defbd5ae021715e866953a08c548b78bf1bb11eca9f556</v>
       </c>
     </row>
     <row r="4">
@@ -7457,7 +7457,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889428959232/lud/a2ca55b9c9ed4c6bbee30b8520be9ee4.m3u8?MtsHlsUriToken=cdd241aa18de4afbbf584f8e237c68b5f3565527f3cf41b0ade729a202dc1297</v>
+        <v>https://v.baoshiyun.com/resource/media-842889428959232/lud/a2ca55b9c9ed4c6bbee30b8520be9ee4.m3u8?MtsHlsUriToken=3f2536f575c64ab5b7475a453de0c8742dc26714e4e1420fbb37a6c3524973e5</v>
       </c>
     </row>
     <row r="5">
@@ -7474,7 +7474,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889428959234/lud/2244e9d486ea4d4e8f5b8efc2a65c06e.m3u8?MtsHlsUriToken=e8a59424f9164db8b1b6c2ff988db16d115af5e3f0ec42ff8d5fa6d3106c34bd</v>
+        <v>https://v.baoshiyun.com/resource/media-842889428959234/lud/2244e9d486ea4d4e8f5b8efc2a65c06e.m3u8?MtsHlsUriToken=55956b077fae4717954fb21b1a78ac4960f9f21b44864ce1aea49b29058b0a21</v>
       </c>
     </row>
     <row r="6">
@@ -7491,7 +7491,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889429123077/lud/8091af0593404c1fb5a196ffe385348c.m3u8?MtsHlsUriToken=fdf9b04e16514de6abed0397d381dc6e22caf54016764a239ff7a9f5bc7a666f</v>
+        <v>https://v.baoshiyun.com/resource/media-842889429123077/lud/8091af0593404c1fb5a196ffe385348c.m3u8?MtsHlsUriToken=0ddb824b332848b4a72c74d471c1002a25744101675840eea2dcfc47e71d658c</v>
       </c>
     </row>
     <row r="7">
@@ -7508,7 +7508,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889430007808/lud/11b5eff028c2485891aed4e3b1f5e91d.m3u8?MtsHlsUriToken=21c036633f0a4fdeba9c95bb3be38d5288e2d6627f004d7aa1a58439a31333d5</v>
+        <v>https://v.baoshiyun.com/resource/media-842889430007808/lud/11b5eff028c2485891aed4e3b1f5e91d.m3u8?MtsHlsUriToken=b35ecfc5fad6472480b9d5b7c09f4adf1aeb52d509c54cdc8de78899d6b42c54</v>
       </c>
     </row>
     <row r="8">
@@ -7525,7 +7525,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889429942273/lud/93fb829f6a4f4e16b7f4191ab90afdcc.m3u8?MtsHlsUriToken=421c6f4d54b84f24a11312df4f3e2eb66050773e4a5841eab76c524d73190639</v>
+        <v>https://v.baoshiyun.com/resource/media-842889429942273/lud/93fb829f6a4f4e16b7f4191ab90afdcc.m3u8?MtsHlsUriToken=b52191da51e94b85a75d18a76b76c94206373d01aa1046aaae6d166d650bab9c</v>
       </c>
     </row>
     <row r="9">
@@ -7542,7 +7542,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889430990848/lud/0e6b76ad864b4cadaa868993e7e5da01.m3u8?MtsHlsUriToken=1224206c63554f018494eed22cb34977c3d540430b2c4a28bc3ec543f9782b44</v>
+        <v>https://v.baoshiyun.com/resource/media-842889430990848/lud/0e6b76ad864b4cadaa868993e7e5da01.m3u8?MtsHlsUriToken=593b1c39c7e94498914bca9b9b87939518913a24b12647c48af8e85720fe6d3b</v>
       </c>
     </row>
     <row r="10">
@@ -7559,7 +7559,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889431056385/lud/38edc8b85f4545f4b0b2206a504cc4a5.m3u8?MtsHlsUriToken=aea7a1e06c784851844b8b5705ef903e6b33fcd051114d629121fea0babcfd8a</v>
+        <v>https://v.baoshiyun.com/resource/media-842889431056385/lud/38edc8b85f4545f4b0b2206a504cc4a5.m3u8?MtsHlsUriToken=515147d87abc41ab86424306afffbd41f45531adf1b04259a38f88035a6dff30</v>
       </c>
     </row>
     <row r="11">
@@ -7576,7 +7576,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889431252993/lud/534fc9b3caed47b392ec5441809c9590.m3u8?MtsHlsUriToken=b679aa934aeb424a8ad546170bce013e12bf9f5620a94e4db09e46f38f669257</v>
+        <v>https://v.baoshiyun.com/resource/media-842889431252993/lud/534fc9b3caed47b392ec5441809c9590.m3u8?MtsHlsUriToken=e4306db43db64980b2fab2dbb357c8cd873e351e3f6c48568a545b7511450fb2</v>
       </c>
     </row>
     <row r="12">
@@ -7593,7 +7593,7 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889430990852/lud/c8f3e4df0c0e48d99e3b09f76de65f0c.m3u8?MtsHlsUriToken=983936d0d7e741ea8a9e1632f87d80b1a68818baff1d483995b717cbed5ed18f</v>
+        <v>https://v.baoshiyun.com/resource/media-842889430990852/lud/c8f3e4df0c0e48d99e3b09f76de65f0c.m3u8?MtsHlsUriToken=a2e2aa80f8d447b8b8899cbdac21723e70a4b67cfb824a468dfb1488e9a6e042</v>
       </c>
     </row>
     <row r="13">
@@ -7610,7 +7610,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889431515136/lud/b37d6a0e10aa4d1db89676566c7400b3.m3u8?MtsHlsUriToken=13d58f876dd5424f856d2eec362a242fc7e30862b81d425b82df55c6629f91ce</v>
+        <v>https://v.baoshiyun.com/resource/media-842889431515136/lud/b37d6a0e10aa4d1db89676566c7400b3.m3u8?MtsHlsUriToken=d462cfe3999a4dd7b48f9e80948ddea391b35423fcfe41769fc7db7f991d47cf</v>
       </c>
     </row>
     <row r="14">
@@ -7627,7 +7627,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889481322497/lud/50ffece567064941ae9af29f870ac7b5.m3u8?MtsHlsUriToken=4b9cbe485c8d4ffdb879240e14d68d6c33bc41822e78444d8ef81ae44970ac25</v>
+        <v>https://v.baoshiyun.com/resource/media-842889481322497/lud/50ffece567064941ae9af29f870ac7b5.m3u8?MtsHlsUriToken=6382704e68af49b9bd6fe93e87505f000af1a7a335ea4df690c2d36d37b94fcd</v>
       </c>
     </row>
   </sheetData>
@@ -7665,7 +7665,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889173565443/lud/f9cee9832c4d41fda4f190860a818225.m3u8?MtsHlsUriToken=df6f5f0bc7824b38b612f31aaab4e3c1bdaf4600c2c8493ba0912497d6429e13</v>
+        <v>https://v.baoshiyun.com/resource/media-842889173565443/lud/f9cee9832c4d41fda4f190860a818225.m3u8?MtsHlsUriToken=301fdc6fa60044b49d2fccaf353dccfb3b374a2d65274284a0d0d0e2326ed6a0</v>
       </c>
     </row>
     <row r="2">
@@ -7784,7 +7784,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889174089728/lud/53be208eae9143948223831e2016bec4.m3u8?MtsHlsUriToken=2de48b7b5cc84bd88106cae2f3919175ec2b13bda54145b6ae509f85bb51bf77</v>
+        <v>https://v.baoshiyun.com/resource/media-842889174089728/lud/53be208eae9143948223831e2016bec4.m3u8?MtsHlsUriToken=fca2389f05c5455f89ec1624a41f68feae1647d6c1404f2585c64da28bd92278</v>
       </c>
     </row>
     <row r="9">
@@ -7801,7 +7801,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889174155265/lud/703b794d434e4cae97036726dec3d2cc.m3u8?MtsHlsUriToken=9a9314a3d43442fe958a73678f49624a5c357e3b2a5744ae86e1330d194f8efe</v>
+        <v>https://v.baoshiyun.com/resource/media-842889174155265/lud/703b794d434e4cae97036726dec3d2cc.m3u8?MtsHlsUriToken=e894cf0211d04312aac3065d88af9ffa3df40603abeb4b00baf3f403b96ffabd</v>
       </c>
     </row>
     <row r="10">
@@ -7818,7 +7818,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889173827584/lud/c98c6293c3af463194b98e42627e7184.m3u8?MtsHlsUriToken=16d57b61cf1742da8be5bba7c32891ca92e52ee6a58e4768841474ed6a7c6943</v>
+        <v>https://v.baoshiyun.com/resource/media-842889173827584/lud/c98c6293c3af463194b98e42627e7184.m3u8?MtsHlsUriToken=92811c7f4a3a4add858a3ba0aa800e9e3d7fe5cc499949269f9515e056c53d76</v>
       </c>
     </row>
     <row r="11">
@@ -7835,7 +7835,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889174614019/lud/a6c3cc98ef404ccbbba340bc6725f8ff.m3u8?MtsHlsUriToken=62ac971e8dc0400a801364059c6f234cb180fb6f262b41858d0b1ea78c34afda</v>
+        <v>https://v.baoshiyun.com/resource/media-842889174614019/lud/a6c3cc98ef404ccbbba340bc6725f8ff.m3u8?MtsHlsUriToken=170fea621a784c0583a21e0ae49c9ba0ce074d0171ba4ae8904bbb9502e4fb73</v>
       </c>
     </row>
     <row r="12">
@@ -7852,7 +7852,7 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889174351875/lud/5b7ffe3aad3144e1b6ebd3f7547a419f.m3u8?MtsHlsUriToken=5ce891bbb4154d09a04d7e61086d5b2e483c42f3d7f74c9abc953adf82d0ba32</v>
+        <v>https://v.baoshiyun.com/resource/media-842889174351875/lud/5b7ffe3aad3144e1b6ebd3f7547a419f.m3u8?MtsHlsUriToken=b757804621664d91b1ff4fdc46d2e240941e841ee5b14ff794d2447faa5fa226</v>
       </c>
     </row>
     <row r="13">
@@ -7869,7 +7869,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889175367680/lud/0c5aad648abc4265a114bef79fe6bb23.m3u8?MtsHlsUriToken=e96f298b1b8f45aa9d220bba5e7c62c506f8743d1716440ba38c6af7dacfc05a</v>
+        <v>https://v.baoshiyun.com/resource/media-842889175367680/lud/0c5aad648abc4265a114bef79fe6bb23.m3u8?MtsHlsUriToken=901f4c538379490d9c57d7fe33d4406692279603f8994f11810893503321b743</v>
       </c>
     </row>
     <row r="14">
@@ -7886,7 +7886,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889176252419/lud/b6c98e4adc054594ac755599996fd108.m3u8?MtsHlsUriToken=cb167e08800b4d98a6cf7f0b6c8ea26346955338964943889fde7eb86c88e933</v>
+        <v>https://v.baoshiyun.com/resource/media-842889176252419/lud/b6c98e4adc054594ac755599996fd108.m3u8?MtsHlsUriToken=eb128e2f22a742868b25831c8aa6661eb61bf490f4b845f39dd3fe5c3e29c00f</v>
       </c>
     </row>
     <row r="15">
@@ -7903,7 +7903,7 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889176449024/lud/698b68a24797423ab0b35aed168f7f27.m3u8?MtsHlsUriToken=b02a6a940b2a4b0e864f960aec1e4451665356da4bf9409db73706ceb3b84095</v>
+        <v>https://v.baoshiyun.com/resource/media-842889176449024/lud/698b68a24797423ab0b35aed168f7f27.m3u8?MtsHlsUriToken=0fa5b2258be641138afdb1024a5f0af2daa2d99f400e4be898f5ce6e4927b9bc</v>
       </c>
     </row>
     <row r="16">
@@ -7920,7 +7920,7 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889176449026/lud/713609a1004942139b67f29085f48196.m3u8?MtsHlsUriToken=698fa0ad1eaf4106ae5692ecf96cad3915e1b6d6543c4ce1bc5c09c944e20dc7</v>
+        <v>https://v.baoshiyun.com/resource/media-842889176449026/lud/713609a1004942139b67f29085f48196.m3u8?MtsHlsUriToken=f012f30f5b814c0eb2f738a0dea571414a7ee88ba4224bfeb5fca9fd4c988372</v>
       </c>
     </row>
     <row r="17">
@@ -7937,7 +7937,7 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889176416258/lud/e540b2f247654acba8d3f69762f5f47e.m3u8?MtsHlsUriToken=7cf6b3647a644948846729de0fc37ad4a2650da5a877446699d0b1cfa446b8d0</v>
+        <v>https://v.baoshiyun.com/resource/media-842889176416258/lud/e540b2f247654acba8d3f69762f5f47e.m3u8?MtsHlsUriToken=47d19fbb28574feeab8527e9b869662acbb7ff3b66f34e12bc99f8040a0c63a8</v>
       </c>
     </row>
     <row r="18">
@@ -7954,7 +7954,7 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889177235456/lud/bca8d572cde64598a8df184a9038b0fb.m3u8?MtsHlsUriToken=8504772b3f364d7bac8f914627bb9714a4c025a7c07a4b00886de38f4406d744</v>
+        <v>https://v.baoshiyun.com/resource/media-842889177235456/lud/bca8d572cde64598a8df184a9038b0fb.m3u8?MtsHlsUriToken=956972b3f2034cdebf86b450bf581de00c58d852342744eabfcd4b5d8d2439c0</v>
       </c>
     </row>
     <row r="19">
@@ -7971,7 +7971,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842889176940544/lud/dfe1ab8db7004c05a7a8c1dea719f46a.m3u8?MtsHlsUriToken=b2d35bde3d0f478593fc0a386873d052b454ad6acf9a4abfab60a7d3a4d5ab45</v>
+        <v>https://v.baoshiyun.com/resource/media-842889176940544/lud/dfe1ab8db7004c05a7a8c1dea719f46a.m3u8?MtsHlsUriToken=239bbce4533d4c3194668635bedad5a3cbb9dc246b3e4a45bf79ca7a11c3b7c1</v>
       </c>
     </row>
   </sheetData>
@@ -8009,7 +8009,7 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887416938497/lud/c989615026f14aa9ac48759c04d1e61e.m3u8?MtsHlsUriToken=272909063075424a9594b35c28c8ab1766c8c5b676904133a1ebea7ded86e2c6</v>
+        <v>https://v.baoshiyun.com/resource/media-842887416938497/lud/c989615026f14aa9ac48759c04d1e61e.m3u8?MtsHlsUriToken=f916e8c24e5e4a2ab462731bae19cc097821b796933948358034a977330d8eb0</v>
       </c>
     </row>
     <row r="2">
@@ -8026,7 +8026,7 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887417724933/lud/199bb24ee0e848fc890550aafac0a92f.m3u8?MtsHlsUriToken=7c732d5069dd4476843e75f44b4def5857da87d908ed46558cc0b38ce0a84d39</v>
+        <v>https://v.baoshiyun.com/resource/media-842887417724933/lud/199bb24ee0e848fc890550aafac0a92f.m3u8?MtsHlsUriToken=f5c2b878effe402ba979c451189886ec7224bb7c242b4ceabd6fc672cb482e3d</v>
       </c>
     </row>
     <row r="3">
@@ -8043,7 +8043,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887441055744/lud/fe7e1eb3c0a34a4488dec9068e088978.m3u8?MtsHlsUriToken=3b3ee2223c7f4f7a872d52cbb8f0b903f934bf5d973e45309c09d021b0861062</v>
+        <v>https://v.baoshiyun.com/resource/media-842887441055744/lud/fe7e1eb3c0a34a4488dec9068e088978.m3u8?MtsHlsUriToken=ef82707259ca4579b4d1964a59a320f783d2193e0a0644cf8c0034fb0acfb4e2</v>
       </c>
     </row>
     <row r="4">
@@ -8060,7 +8060,7 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887441317890/lud/1010c41570a04d2f957939fcb2a19f94.m3u8?MtsHlsUriToken=897ba3a7ba2943bcb5def5df3fabd07f3ea4ca9e3995481c82f31e18ea3e3e06</v>
+        <v>https://v.baoshiyun.com/resource/media-842887441317890/lud/1010c41570a04d2f957939fcb2a19f94.m3u8?MtsHlsUriToken=0fa407e78e9b4b5e92125c77cad85d9024c55ae1fb244d10b28ca5d93b35ceb9</v>
       </c>
     </row>
     <row r="5">
@@ -8077,7 +8077,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887467008003/lud/06d0452741874d64bd026de35a501179.m3u8?MtsHlsUriToken=5354295708184f1b9fffc66d3b285db580236b5a47af43879c4d5bfd49a0e025</v>
+        <v>https://v.baoshiyun.com/resource/media-842887467008003/lud/06d0452741874d64bd026de35a501179.m3u8?MtsHlsUriToken=e2486c9d04dc4340a9ea65556799e1cdd61d71b22c6240edbf69a775b485ff4b</v>
       </c>
     </row>
     <row r="6">
@@ -8094,7 +8094,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887468056578/lud/6cb34c564ae04443b4d876f0f31416e2.m3u8?MtsHlsUriToken=6a9f3d85d6644529abd7e9ef5fa2023dadc6d3365c9b41e487e6b6f4b61314b5</v>
+        <v>https://v.baoshiyun.com/resource/media-842887468056578/lud/6cb34c564ae04443b4d876f0f31416e2.m3u8?MtsHlsUriToken=dbf21ef4411c4dd5b70b71e0afba42c0ee5183cf9638428bbda33b1ed37e79eb</v>
       </c>
     </row>
     <row r="7">
@@ -8111,7 +8111,7 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887473004544/lud/c793bd4f11614dbf99a7ea2ef0daba98.m3u8?MtsHlsUriToken=5b13e573bc9b48b7b0738e9dfe27574e08fa12164f014f348ec0aa862f5d3613</v>
+        <v>https://v.baoshiyun.com/resource/media-842887473004544/lud/c793bd4f11614dbf99a7ea2ef0daba98.m3u8?MtsHlsUriToken=c60ed93ea98f47c49d18143b8b32c1877aaed35fa8da4288ac40914bd80ab4fb</v>
       </c>
     </row>
     <row r="8">
@@ -8128,7 +8128,7 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887473004546/lud/8f750b8e4e1141a5a257a30384d8b5ce.m3u8?MtsHlsUriToken=46b0cba261084c6ca24cf098cfe4eea1232bcb04638749a6ba120abbbec08d7b</v>
+        <v>https://v.baoshiyun.com/resource/media-842887473004546/lud/8f750b8e4e1141a5a257a30384d8b5ce.m3u8?MtsHlsUriToken=b13467d2d9244b918e38fe20347e3db1faa3cc6b89ca45fba17ce29fb0b6b4cd</v>
       </c>
     </row>
     <row r="9">
@@ -8145,7 +8145,7 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887473561602/lud/286567d08b294ecfa9e723861d97ef1d.m3u8?MtsHlsUriToken=4252013c015f4c39bf440cd96cbef2af5c6d891d6dd7457ea9d29f675d94122d</v>
+        <v>https://v.baoshiyun.com/resource/media-842887473561602/lud/286567d08b294ecfa9e723861d97ef1d.m3u8?MtsHlsUriToken=9caae765ae304ea58fc0b65ca1224cc17323718ac2d847eb8446d7f6e895da2e</v>
       </c>
     </row>
     <row r="10">
@@ -8162,7 +8162,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887473561601/lud/9d086ad6d2164d32b7aec40cd2f09ecf.m3u8?MtsHlsUriToken=6db952b64ea24a7490bd52109968f976c890835d9362491c9c5b37b347aa6f79</v>
+        <v>https://v.baoshiyun.com/resource/media-842887473561601/lud/9d086ad6d2164d32b7aec40cd2f09ecf.m3u8?MtsHlsUriToken=927a150ef5ff47d684c9a5d168670b9285ddae38b147419fa845bed228a789ac</v>
       </c>
     </row>
     <row r="11">
@@ -8179,7 +8179,7 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887473823745/lud/7e059598ff074f9e88bf219d1b654000.m3u8?MtsHlsUriToken=0ffe634910c4482a856495497db4ec1fd17bd28cb27e4834a1bcf27ffa3fe1d0</v>
+        <v>https://v.baoshiyun.com/resource/media-842887473823745/lud/7e059598ff074f9e88bf219d1b654000.m3u8?MtsHlsUriToken=cd677d502c9649eab7149c0cb6f77ee803f07082c37f4f32b5874c2cda4e3ec3</v>
       </c>
     </row>
     <row r="12">
@@ -8196,7 +8196,7 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887531200515/lud/1e8c83f7a8eb4cdabc01cacef92ab35c.m3u8?MtsHlsUriToken=a0d8f1152bbb4f648d19b9bf111d73fd5d036b72085b44e89cc4831670a0a0e3</v>
+        <v>https://v.baoshiyun.com/resource/media-842887531200515/lud/1e8c83f7a8eb4cdabc01cacef92ab35c.m3u8?MtsHlsUriToken=bef721fd5eb14bfd8ab6a0480a2ef0d65cc4545535c64afd95442425ecfc8f08</v>
       </c>
     </row>
     <row r="13">
@@ -8213,7 +8213,7 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887531757568/lud/5f9b77f39dd2455b9c1bc8a15532c4e2.m3u8?MtsHlsUriToken=33e2b382d1b944a187cdf028a37950852e76e4ce979944a293625ab630169f2c</v>
+        <v>https://v.baoshiyun.com/resource/media-842887531757568/lud/5f9b77f39dd2455b9c1bc8a15532c4e2.m3u8?MtsHlsUriToken=f7348562c46249ac9a96555d11a23b59cf06b53622dc4f9fbb5edf4603d3c20a</v>
       </c>
     </row>
     <row r="14">
@@ -8230,7 +8230,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887581532162/lud/77869b45aa6e41e58df531d798480eba.m3u8?MtsHlsUriToken=7fb2b0d125d745eba64757565720b08ff4ac53506302476d908537a77a4ebfb7</v>
+        <v>https://v.baoshiyun.com/resource/media-842887581532162/lud/77869b45aa6e41e58df531d798480eba.m3u8?MtsHlsUriToken=4ac7af9294ca463bb9986e22f6b166d054fba5147de94c50baf401227c926fe8</v>
       </c>
     </row>
     <row r="15">
@@ -8247,7 +8247,7 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842887582089217/lud/9ebc29330a9a4b808347676056a1bcb7.m3u8?MtsHlsUriToken=b0cb97612f25476c98f2c4d7890455a09b8fc8f92f674173bc9ce10a56dfa3d1</v>
+        <v>https://v.baoshiyun.com/resource/media-842887582089217/lud/9ebc29330a9a4b808347676056a1bcb7.m3u8?MtsHlsUriToken=e203a060c6b3473fa08a4b5909a3edcd11fb37945e0d416eb51f408ad6ea1d1a</v>
       </c>
     </row>
     <row r="16">
@@ -8642,7 +8642,7 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892287901696/lud/4d03dbf960294c1ba3520bc2a1232a43.m3u8?MtsHlsUriToken=42313bcc8066401e8260bc67916d4f044fdb6ca2bd864943b7902da2f3183aaa</v>
+        <v>https://v.baoshiyun.com/resource/media-842892287901696/lud/4d03dbf960294c1ba3520bc2a1232a43.m3u8?MtsHlsUriToken=0025debc65494a1cb3d47aeb128a57b4f9aad43378284ed68f8471fde35c7e9b</v>
       </c>
     </row>
     <row r="22">
@@ -8659,7 +8659,7 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892169936897/lud/70d203192a1845fd90cad4aa6c270060.m3u8?MtsHlsUriToken=ecf99ca0ee9d4ba3a33b7cb8f5d70a1612dbf43de53f47da934caa3da66a5475</v>
+        <v>https://v.baoshiyun.com/resource/media-842892169936897/lud/70d203192a1845fd90cad4aa6c270060.m3u8?MtsHlsUriToken=6275ed6c368e41b0ac04ffa13aafc2de9d8b0725fdb54eac9d4f820f3cf9496d</v>
       </c>
     </row>
     <row r="23">
@@ -8710,7 +8710,7 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892421070852/lud/ee34805ebbbb4feca680738272e6c564.m3u8?MtsHlsUriToken=72331963a9f94347b8190a77ac55cd3b35fb029a3bfb46e0957abe3cb736f148</v>
+        <v>https://v.baoshiyun.com/resource/media-842892421070852/lud/ee34805ebbbb4feca680738272e6c564.m3u8?MtsHlsUriToken=59561f63706b4b079dfae4d82887c3415d8b6b247bda426ebc41282438b4465b</v>
       </c>
     </row>
     <row r="26">
@@ -8727,7 +8727,7 @@
         <v/>
       </c>
       <c r="E26" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892387188736/lud/fa29629d849544efaab06046ba3640d0.m3u8?MtsHlsUriToken=991d50acaf554ed18e3350af703097a01502b68d6df14d3895ca03a5b75d3156</v>
+        <v>https://v.baoshiyun.com/resource/media-842892387188736/lud/fa29629d849544efaab06046ba3640d0.m3u8?MtsHlsUriToken=d7e2bab0ebca4e888f73c4c8c8be4f205a7f4aa82fa24e8d9297551ad7ba9add</v>
       </c>
     </row>
     <row r="27">
@@ -8744,7 +8744,7 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892388040704/lud/5cbe715da2564d47940a7351886c3a31.m3u8?MtsHlsUriToken=03776be4a11745ee86c528acddd1eef694e6ea4ed8b4418baff672095cd28b8d</v>
+        <v>https://v.baoshiyun.com/resource/media-842892388040704/lud/5cbe715da2564d47940a7351886c3a31.m3u8?MtsHlsUriToken=c50aba51cae6415aa8a66772388a677871b65bae8a8e41b8a56a185b28de215b</v>
       </c>
     </row>
     <row r="28">
@@ -8795,7 +8795,7 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892556271617/lud/2a443852ebd94cb6ad6998d6f312d684.m3u8?MtsHlsUriToken=03aa3fb40cd24722a7262bc606914f2d304af519c91746f68e071fe2d50fc4f2</v>
+        <v>https://v.baoshiyun.com/resource/media-842892556271617/lud/2a443852ebd94cb6ad6998d6f312d684.m3u8?MtsHlsUriToken=278976f2a66e45baa803cc6e1112692062e0b75d0e79460db8d9d438e81a228d</v>
       </c>
     </row>
     <row r="31">
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892518752261/lud/1352652be797460fb641e6aca306cdaf.m3u8?MtsHlsUriToken=c0918837a8aa47169fe497727ea6dd35f666f09f7d7d4f359621e81de9b45239</v>
+        <v>https://v.baoshiyun.com/resource/media-842892518752261/lud/1352652be797460fb641e6aca306cdaf.m3u8?MtsHlsUriToken=e6148612455b49239e6fc0ead8d03778d13d8b7900d44ef593f04797a7867067</v>
       </c>
     </row>
     <row r="32">
@@ -8829,7 +8829,7 @@
         <v/>
       </c>
       <c r="E32" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892519571456/lud/836cb92f01ed4e6bb7fb7212c67db0e7.m3u8?MtsHlsUriToken=801132e02285489b922b3f0188bd56235feeeda6bb494a6ab0651df7d90b5fa5</v>
+        <v>https://v.baoshiyun.com/resource/media-842892519571456/lud/836cb92f01ed4e6bb7fb7212c67db0e7.m3u8?MtsHlsUriToken=f4584f5fd13c49458c09af94d6f2d0446ae60b4ae4594307970a37bc3401cbd7</v>
       </c>
     </row>
     <row r="33">
@@ -8880,7 +8880,7 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892672663552/lud/4c4744979f8a4fd0b66a62d0c29d3f84.m3u8?MtsHlsUriToken=e7586121197e42cfbd55e1ff01b9c739e62bffbd5d604e9b95b2dcdc3cf7d307</v>
+        <v>https://v.baoshiyun.com/resource/media-842892672663552/lud/4c4744979f8a4fd0b66a62d0c29d3f84.m3u8?MtsHlsUriToken=11c3d8044a6c46588137fc45c56b274d436f56ded43448788182819e344d27c0</v>
       </c>
     </row>
     <row r="36">
@@ -8897,7 +8897,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892644417537/lud/99fe26f69f46469d8fd799ce3856b742.m3u8?MtsHlsUriToken=253bb4b4f71746fcbd68dcdd9af562d34ffaedfe675649f495387ac20a7f8d49</v>
+        <v>https://v.baoshiyun.com/resource/media-842892644417537/lud/99fe26f69f46469d8fd799ce3856b742.m3u8?MtsHlsUriToken=a7b9e077f2dd4c7a980306b7560287ef153e45a35a0b43e59f3fd43f818056fb</v>
       </c>
     </row>
     <row r="37">
@@ -8914,7 +8914,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892644941824/lud/87ea2aa7ec524e2cb7393248ba9f5d5c.m3u8?MtsHlsUriToken=2862cc73309340e0b6161a318fb31106fcfe2839a3b8439dbe5624fbfd5712cb</v>
+        <v>https://v.baoshiyun.com/resource/media-842892644941824/lud/87ea2aa7ec524e2cb7393248ba9f5d5c.m3u8?MtsHlsUriToken=b5b82773e32b4f778e7aac7ff4bafedde2a76e16f5a941d0a0d76c747f1f23b0</v>
       </c>
     </row>
     <row r="38">
@@ -8965,7 +8965,7 @@
         <v/>
       </c>
       <c r="E40" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892830539776/lud/cf954c92415344e68a7ffcc89832bbaf.m3u8?MtsHlsUriToken=8d48e28c4c98401d8100ec756a0674f5d2b24afe40a64b3b8c5978d0834b0a6d</v>
+        <v>https://v.baoshiyun.com/resource/media-842892830539776/lud/cf954c92415344e68a7ffcc89832bbaf.m3u8?MtsHlsUriToken=ad56c95c3bec4d35abdd794cb28370cc089d3ac7ff6a40b19f85ac4ff4a1faa0</v>
       </c>
     </row>
     <row r="41">
@@ -8999,7 +8999,7 @@
         <v/>
       </c>
       <c r="E42" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892903579649/lud/365054390d34460c97a8dcba1b5ab015.m3u8?MtsHlsUriToken=9a0719313ac5452c8fe088c52648f4da4d084b6d0e4740ecbd1b735a2af83c6b</v>
+        <v>https://v.baoshiyun.com/resource/media-842892903579649/lud/365054390d34460c97a8dcba1b5ab015.m3u8?MtsHlsUriToken=181dbbe60a6f4f219d11688be09898c921c47a829c3742819698f35afa58aa8c</v>
       </c>
     </row>
     <row r="43">
@@ -9016,7 +9016,7 @@
         <v/>
       </c>
       <c r="E43" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892870582274/lud/29aacb90b5d64c9cb0a27fb4c229519e.m3u8?MtsHlsUriToken=3d0e8067b75f4d0c8199ad5b290bbf6dbfeb60db3eb54747a4032d099b000555</v>
+        <v>https://v.baoshiyun.com/resource/media-842892870582274/lud/29aacb90b5d64c9cb0a27fb4c229519e.m3u8?MtsHlsUriToken=51c036c65e8e401dacdca66db8baeceba98f83c35c4846b5ad6197869d254b5c</v>
       </c>
     </row>
     <row r="44">
@@ -9067,7 +9067,7 @@
         <v/>
       </c>
       <c r="E46" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842892976226304/lud/497d0d5ca6da47bfa0ab7ce7fe3c49b4.m3u8?MtsHlsUriToken=0e513d4fa8d44a91b5871cabc86a38274ea9f3eb501545b8abb1b436f782f3ba</v>
+        <v>https://v.baoshiyun.com/resource/media-842892976226304/lud/497d0d5ca6da47bfa0ab7ce7fe3c49b4.m3u8?MtsHlsUriToken=409d3e86c78a4fb68ca6641534cd640da78162b6e4734807b4b7508cba787828</v>
       </c>
     </row>
     <row r="47">
@@ -9101,7 +9101,7 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893089210368/lud/1a473123210141e6854f0f3fc9f87757.m3u8?MtsHlsUriToken=55074f13438f468a8c9d881c67516212fa1e79b7b73b45e9b77bae7e9ee58b32</v>
+        <v>https://v.baoshiyun.com/resource/media-842893089210368/lud/1a473123210141e6854f0f3fc9f87757.m3u8?MtsHlsUriToken=f60c470afe354161a881ed3836369a950d652b7dba9f4377966c9177027be40a</v>
       </c>
     </row>
     <row r="49">
@@ -9152,7 +9152,7 @@
         <v/>
       </c>
       <c r="E51" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893269041153/lud/92910f647b524270bf2334f0146df0ea.m3u8?MtsHlsUriToken=566970f829ce400ebf54ae2cdf019afad0d63b43fd0147b5967378ffb075c339</v>
+        <v>https://v.baoshiyun.com/resource/media-842893269041153/lud/92910f647b524270bf2334f0146df0ea.m3u8?MtsHlsUriToken=9f9fbf9537194859aa10b61478eab979777577662d4c4bb6b704e23956dddb3b</v>
       </c>
     </row>
     <row r="52">
@@ -9203,7 +9203,7 @@
         <v/>
       </c>
       <c r="E54" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893462994944/lud/307513f2a3dd491790333b2ff59214ad.m3u8?MtsHlsUriToken=6227437d2d0644bd842abc12332ca52d5c44268558e241dcb8a8478d159f037d</v>
+        <v>https://v.baoshiyun.com/resource/media-842893462994944/lud/307513f2a3dd491790333b2ff59214ad.m3u8?MtsHlsUriToken=32f08b46e3704af6b37fe67a0445bcdff562f354af994caf96930de3707ff12d</v>
       </c>
     </row>
     <row r="55">
@@ -9254,7 +9254,7 @@
         <v/>
       </c>
       <c r="E57" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011706572800/lud/549c8781715d417387c2b7477c0f7df6.m3u8?MtsHlsUriToken=baaae624f1f3405f99666931e0f5d77d2e0eae3325e34fa5a8f55f6a181b1e9a</v>
+        <v>https://v.baoshiyun.com/resource/media-846011706572800/lud/549c8781715d417387c2b7477c0f7df6.m3u8?MtsHlsUriToken=238b9c6999ee46928a6765317e25e8479632e1fbdd4e4e34bdf54fdf6c1ef33e</v>
       </c>
     </row>
     <row r="58">
@@ -9271,7 +9271,7 @@
         <v/>
       </c>
       <c r="E58" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893509165056/lud/4aa3b733743f41759252f898fcbfbd12.m3u8?MtsHlsUriToken=691036007f9e43c18ae1d3d3f139c10a607a98921588425c92661afa1393607a</v>
+        <v>https://v.baoshiyun.com/resource/media-842893509165056/lud/4aa3b733743f41759252f898fcbfbd12.m3u8?MtsHlsUriToken=8728d0f5de5b4c4b93ca50c09bb20255175b9c7e2f324ce4b59218292bf72923</v>
       </c>
     </row>
     <row r="59">
@@ -9288,7 +9288,7 @@
         <v/>
       </c>
       <c r="E59" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893524631553/lud/dd2260fab2e54c23ad638686d35f3375.m3u8?MtsHlsUriToken=b41e13ee88594a8cacf20d3e488cae97ef36bc7c0c44493f845f73f76d758c1f</v>
+        <v>https://v.baoshiyun.com/resource/media-842893524631553/lud/dd2260fab2e54c23ad638686d35f3375.m3u8?MtsHlsUriToken=b8316a7e01644b1980519291c9da77f6812a5ffe9d7e4f63a223ffffb52df5b6</v>
       </c>
     </row>
     <row r="60">
@@ -9305,7 +9305,7 @@
         <v/>
       </c>
       <c r="E60" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893524893697/lud/b701726bccdc426eb367c106c43bedac.m3u8?MtsHlsUriToken=378c29bd3fc44133811b57c8255542b04c20dd740ac5465aa2a07cabfe05b44d</v>
+        <v>https://v.baoshiyun.com/resource/media-842893524893697/lud/b701726bccdc426eb367c106c43bedac.m3u8?MtsHlsUriToken=e8e3d6eb90a34585aeac3c6358f0316d834c74e9e0cc400e8f003ad93f85db7b</v>
       </c>
     </row>
     <row r="61">
@@ -9356,7 +9356,7 @@
         <v/>
       </c>
       <c r="E63" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893587808256/lud/eccdff11f10940be85c6414a60187664.m3u8?MtsHlsUriToken=7eeb99d4b4af470f998d61728908834c153f90dd5bae443b9b9a8d0efd003dee</v>
+        <v>https://v.baoshiyun.com/resource/media-842893587808256/lud/eccdff11f10940be85c6414a60187664.m3u8?MtsHlsUriToken=2219aafe78a441dca6b0f68261c1db06304ca3d8fa81404aaba01489dcce2fc4</v>
       </c>
     </row>
     <row r="64">
@@ -9373,7 +9373,7 @@
         <v/>
       </c>
       <c r="E64" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893605109760/lud/fa7f74aac195446db467da534326aeac.m3u8?MtsHlsUriToken=399c519b53454b65a17a00f45e2fbc008b85300843cc406baa478b7910d49dd1</v>
+        <v>https://v.baoshiyun.com/resource/media-842893605109760/lud/fa7f74aac195446db467da534326aeac.m3u8?MtsHlsUriToken=bf03ffb7ac644d0e943c36c030ec11fc05434ee1979c43eb9f569944281853b9</v>
       </c>
     </row>
     <row r="65">
@@ -9390,7 +9390,7 @@
         <v/>
       </c>
       <c r="E65" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893605371905/lud/cb4edcb8687e4cfa8810f9ec74bea730.m3u8?MtsHlsUriToken=a3fa4d254d6941598e656d7372aa8375c192104ca2584a2cad5ffa054212c92a</v>
+        <v>https://v.baoshiyun.com/resource/media-842893605371905/lud/cb4edcb8687e4cfa8810f9ec74bea730.m3u8?MtsHlsUriToken=be5f4438c55d49b789dfd01b3f4fd2dc25d27592f1d24e7696300b398e60f6cb</v>
       </c>
     </row>
     <row r="66">
@@ -9407,7 +9407,7 @@
         <v/>
       </c>
       <c r="E66" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893509427200/lud/d0897b5ba8be4440b2a87dbbd11c76bd.m3u8?MtsHlsUriToken=dae06f788dca472cae23afb0473a9895997f2c5e421340e9a083b5bcda29b6ba</v>
+        <v>https://v.baoshiyun.com/resource/media-842893509427200/lud/d0897b5ba8be4440b2a87dbbd11c76bd.m3u8?MtsHlsUriToken=88688bdb7ab24cbab4ee1b652b4a5cb06ea2563aa0fa46bfb831deb3bdb26555</v>
       </c>
     </row>
     <row r="67">
@@ -9424,7 +9424,7 @@
         <v/>
       </c>
       <c r="E67" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893589184514/lud/1206be8519d9425dbdf877c6d7d9568a.m3u8?MtsHlsUriToken=6306ef867ee74fa39b439fea4ec00256c1438eee54274164ac79f4a53e3e359d</v>
+        <v>https://v.baoshiyun.com/resource/media-842893589184514/lud/1206be8519d9425dbdf877c6d7d9568a.m3u8?MtsHlsUriToken=39be252abb164af9add0ae156b554cac6a6d5a7fb59e4d40b25936bcd8d2ba61</v>
       </c>
     </row>
     <row r="68">
@@ -9475,7 +9475,7 @@
         <v/>
       </c>
       <c r="E70" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893605076992/lud/166e2a59eb9a429c878653bdae53e0cf.m3u8?MtsHlsUriToken=c26b116872be47589831d4a492a1addeaf1c579f01924fe288d87d3345f90e50</v>
+        <v>https://v.baoshiyun.com/resource/media-842893605076992/lud/166e2a59eb9a429c878653bdae53e0cf.m3u8?MtsHlsUriToken=d6148b04f9ff409e86e4e219185716aab46b3ca8edf242fc80f8d193eaba20cf</v>
       </c>
     </row>
     <row r="71">
@@ -9492,7 +9492,7 @@
         <v/>
       </c>
       <c r="E71" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893617692673/lud/d54de98d89eb48d4908f933b7ab375af.m3u8?MtsHlsUriToken=1f1d028903004e9486b6773ebc91ade455e0423b94d949e99b212c43eccedd7c</v>
+        <v>https://v.baoshiyun.com/resource/media-842893617692673/lud/d54de98d89eb48d4908f933b7ab375af.m3u8?MtsHlsUriToken=004367d464aa43978fd4c968fef3f4ba99ce15f1e72048a48b1e92d707945fd8</v>
       </c>
     </row>
     <row r="72">
@@ -9509,7 +9509,7 @@
         <v/>
       </c>
       <c r="E72" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893509689344/lud/9fe6e011245249d8a51a91e14e532cea.m3u8?MtsHlsUriToken=1ce4ad503f30416888389104281d7112676a221cf76b44a4b50ffd66e7302a9e</v>
+        <v>https://v.baoshiyun.com/resource/media-842893509689344/lud/9fe6e011245249d8a51a91e14e532cea.m3u8?MtsHlsUriToken=55b57875c1bb49deb6135e04bebaccd4d3b92e73b4b040a88bffcd84e51be3ee</v>
       </c>
     </row>
     <row r="73">
@@ -9526,7 +9526,7 @@
         <v/>
       </c>
       <c r="E73" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893617954821/lud/1e568cf2842a49e796b4ee7d236cce1d.m3u8?MtsHlsUriToken=5aa897c05cd14ea09d828788829b3c9fa02dc6370a4b4320bd113b889e18fb4d</v>
+        <v>https://v.baoshiyun.com/resource/media-842893617954821/lud/1e568cf2842a49e796b4ee7d236cce1d.m3u8?MtsHlsUriToken=2f6d51a1ddcf4defa8918082bbb8cc73acbb1f041a39451a962199e00f3e7adf</v>
       </c>
     </row>
     <row r="74">
@@ -9577,7 +9577,7 @@
         <v/>
       </c>
       <c r="E76" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893761314818/lud/dcd284bbb0cb414cad2531eb0fa34b7b.m3u8?MtsHlsUriToken=256d39e44c4749f08744a70dec185c0554497da5e2b240e4920f671be767c548</v>
+        <v>https://v.baoshiyun.com/resource/media-842893761314818/lud/dcd284bbb0cb414cad2531eb0fa34b7b.m3u8?MtsHlsUriToken=fd8cf09498ae4bc1a04e84dd8ef1630eb8e190059f75475caca3982032536be4</v>
       </c>
     </row>
     <row r="77">
@@ -9594,7 +9594,7 @@
         <v/>
       </c>
       <c r="E77" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893509656578/lud/c067a979585f4f30af1a765dbd323e97.m3u8?MtsHlsUriToken=2055cb94ed514c78bc849521d62f31a4b49e1f8d53ab4b5fb7a457c3562443c6</v>
+        <v>https://v.baoshiyun.com/resource/media-842893509656578/lud/c067a979585f4f30af1a765dbd323e97.m3u8?MtsHlsUriToken=dfc1d85b3e7c4735acf5a67b8194c1236cdadaa919544987b1da68f1c0202bac</v>
       </c>
     </row>
     <row r="78">
@@ -9611,7 +9611,7 @@
         <v/>
       </c>
       <c r="E78" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893725958145/lud/3d4d41cd238d4b10b21eb07677e45205.m3u8?MtsHlsUriToken=d52bf02f309a43efa7c656737f1640275be0c1578ff542548b03a2fdb2ec409f</v>
+        <v>https://v.baoshiyun.com/resource/media-842893725958145/lud/3d4d41cd238d4b10b21eb07677e45205.m3u8?MtsHlsUriToken=3223516a7a594e349fc419c281054dad68a9a1cba8cd45ccac5f08fb34d45d34</v>
       </c>
     </row>
     <row r="79">
@@ -9662,7 +9662,7 @@
         <v/>
       </c>
       <c r="E81" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894105772032/lud/3cee1ac20ebd43b8a866b75f7986f984.m3u8?MtsHlsUriToken=16f0ed9905204ed5888655446d2ce7bac8f483aa8d4941329550db493149f982</v>
+        <v>https://v.baoshiyun.com/resource/media-842894105772032/lud/3cee1ac20ebd43b8a866b75f7986f984.m3u8?MtsHlsUriToken=17ea81333318479aa4297d471846bcfc1dbbd34dcb91427685e6f3db53fea82a</v>
       </c>
     </row>
     <row r="82">
@@ -9679,7 +9679,7 @@
         <v/>
       </c>
       <c r="E82" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842893807976448/lud/3ab5041f5c124133a231fbb1a6e7a16e.m3u8?MtsHlsUriToken=23b57776345049bbb4759615e90067eda4d8cc2683874b9a9686590a0171b9e2</v>
+        <v>https://v.baoshiyun.com/resource/media-842893807976448/lud/3ab5041f5c124133a231fbb1a6e7a16e.m3u8?MtsHlsUriToken=c89fe687ce244a2f8e8e68ff2d20361770ccd0e9a0134909b407764076ebd653</v>
       </c>
     </row>
     <row r="83">
@@ -9696,7 +9696,7 @@
         <v/>
       </c>
       <c r="E83" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894095056898/lud/0003d42b75bd438db4534ee403931ea3.m3u8?MtsHlsUriToken=6c5b47157b884b3da82191dcb78fde4bf14ab621a4ab46159b62eaa00851350f</v>
+        <v>https://v.baoshiyun.com/resource/media-842894095056898/lud/0003d42b75bd438db4534ee403931ea3.m3u8?MtsHlsUriToken=be3a45b71543418c97742415a77b2f6a7667970a3d5745bb8f0d32c916cca40d</v>
       </c>
     </row>
     <row r="84">
@@ -9764,7 +9764,7 @@
         <v/>
       </c>
       <c r="E87" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894168686592/lud/23fbdd48ba30429ba69df54acaaadc24.m3u8?MtsHlsUriToken=cf16c81f6938409d959db38ed327419a6ab8df03a00a4a9cbe1baf8533c128f0</v>
+        <v>https://v.baoshiyun.com/resource/media-842894168686592/lud/23fbdd48ba30429ba69df54acaaadc24.m3u8?MtsHlsUriToken=a102eff5f97a4b78998abe18a0efc63cf4c2b2547b644f459ed9fea91cfac427</v>
       </c>
     </row>
     <row r="88">
@@ -9781,7 +9781,7 @@
         <v/>
       </c>
       <c r="E88" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894314438656/lud/ff6c304f5a7f4801bbf4e2afbe6a229d.m3u8?MtsHlsUriToken=1034a441b5144d93936afd2a1e2825be268974df59d54198af4bf90b527f46ac</v>
+        <v>https://v.baoshiyun.com/resource/media-842894314438656/lud/ff6c304f5a7f4801bbf4e2afbe6a229d.m3u8?MtsHlsUriToken=355f0606863b4b52b37effed00cf7771f7f87acacda446e19e6ff3bec20b7cfb</v>
       </c>
     </row>
     <row r="89">
@@ -9849,7 +9849,7 @@
         <v/>
       </c>
       <c r="E92" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894484078593/lud/daa9108f353740ecbf7f5cc018d4c19c.m3u8?MtsHlsUriToken=e6df7b681de845cdbd17f4865c8e0e5a4da9b5a44ccc4b4db9d2afb0a15f1019</v>
+        <v>https://v.baoshiyun.com/resource/media-842894484078593/lud/daa9108f353740ecbf7f5cc018d4c19c.m3u8?MtsHlsUriToken=19bcebd813c04506b8059d9be2175a1b9a3b351e71d8464eafc34e87d1046388</v>
       </c>
     </row>
     <row r="93">
@@ -9866,7 +9866,7 @@
         <v/>
       </c>
       <c r="E93" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894457929728/lud/b5fb1362476847f68a7fdbded9e022b5.m3u8?MtsHlsUriToken=8b46095479df40e6b1e965efd8a8373ba0d65c5ec9294e4789c2f53409fff6d9</v>
+        <v>https://v.baoshiyun.com/resource/media-842894457929728/lud/b5fb1362476847f68a7fdbded9e022b5.m3u8?MtsHlsUriToken=19086c566de84bf2b8154b737b0d9864808d268427d7475db937d6769655af07</v>
       </c>
     </row>
     <row r="94">
@@ -9883,7 +9883,7 @@
         <v/>
       </c>
       <c r="E94" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894481719297/lud/e5a67339886c4dcfb183ffa95a8602fe.m3u8?MtsHlsUriToken=98829a2a30554d00b8ef4c3ba68b537d5bb7a92a662146759a504cc632dcabc4</v>
+        <v>https://v.baoshiyun.com/resource/media-842894481719297/lud/e5a67339886c4dcfb183ffa95a8602fe.m3u8?MtsHlsUriToken=a013d895579449979d798cb001a69f13a1e4322baeb641d9a75fa87dd28a74d7</v>
       </c>
     </row>
     <row r="95">
@@ -9934,7 +9934,7 @@
         <v/>
       </c>
       <c r="E97" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894512619520/lud/d9121958172d467297331ffc04a64459.m3u8?MtsHlsUriToken=ce77f1d02783419682ea7ebb30b24303b12e6ee857e84d3994d9e95d9539e68b</v>
+        <v>https://v.baoshiyun.com/resource/media-842894512619520/lud/d9121958172d467297331ffc04a64459.m3u8?MtsHlsUriToken=18eb91e735ef47f3bc95109cb3ccd4bdd5176f2d817a41aeb732bbdc520a1a02</v>
       </c>
     </row>
     <row r="98">
@@ -9951,7 +9951,7 @@
         <v/>
       </c>
       <c r="E98" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894539653122/lud/4572e5e76aa2424885b1e71c01573a13.m3u8?MtsHlsUriToken=1898a1b67d77436f80f786bc0406610d6e311f03d5464363abe0ad7aae7514a0</v>
+        <v>https://v.baoshiyun.com/resource/media-842894539653122/lud/4572e5e76aa2424885b1e71c01573a13.m3u8?MtsHlsUriToken=9d605ac47440479cba15e52337c6750ae9b692cbd25841b7b75ca5e9b11d5f6e</v>
       </c>
     </row>
     <row r="99">
@@ -9968,7 +9968,7 @@
         <v/>
       </c>
       <c r="E99" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894502690818/lud/700f530f170749aaba16d1184cb5d644.m3u8?MtsHlsUriToken=b1fea5a91d42418ba678c4d6f1af50bb19c12c753ca44829b8403d3b092b321f</v>
+        <v>https://v.baoshiyun.com/resource/media-842894502690818/lud/700f530f170749aaba16d1184cb5d644.m3u8?MtsHlsUriToken=50ef9d79f4634dbd81b62e005de369661cc78b1bc1aa48c58dcbc3f3547aa9de</v>
       </c>
     </row>
     <row r="100">
@@ -9985,7 +9985,7 @@
         <v/>
       </c>
       <c r="E100" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894503477250/lud/84dc39375a4e4dc1a12fd637293c89d7.m3u8?MtsHlsUriToken=8bf785f1386b49d9b19212521af41b68f53fe60cce114c16b60225a38ef6163c</v>
+        <v>https://v.baoshiyun.com/resource/media-842894503477250/lud/84dc39375a4e4dc1a12fd637293c89d7.m3u8?MtsHlsUriToken=b0d0092caedb440a8997ca295c393a78b23bf6787f0646eb8f4f0d857383bc6e</v>
       </c>
     </row>
     <row r="101">
@@ -10036,7 +10036,7 @@
         <v/>
       </c>
       <c r="E103" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894797668352/lud/d8c8208a7b084c949ec9e113b4cc2932.m3u8?MtsHlsUriToken=75a8daf4ff164ac38259a1a5d1d0fd78c55a2818980d452794c62edb2232949f</v>
+        <v>https://v.baoshiyun.com/resource/media-842894797668352/lud/d8c8208a7b084c949ec9e113b4cc2932.m3u8?MtsHlsUriToken=189b00e5acf1409aac0bf88a641323f284c41f943a34417abf292e3639e8745f</v>
       </c>
     </row>
     <row r="104">
@@ -10053,7 +10053,7 @@
         <v/>
       </c>
       <c r="E104" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894631993344/lud/4e8d3bc95d61475ba434747d5a68507e.m3u8?MtsHlsUriToken=5d8d38fcb1624fb8b701616dffaa157172635583e9804eb2be4be8f2e4b31af5</v>
+        <v>https://v.baoshiyun.com/resource/media-842894631993344/lud/4e8d3bc95d61475ba434747d5a68507e.m3u8?MtsHlsUriToken=1c63bba8f0b946319c80491a1976a06ade33e4f6759f4be984a9f9faae4b9d94</v>
       </c>
     </row>
     <row r="105">
@@ -10070,7 +10070,7 @@
         <v/>
       </c>
       <c r="E105" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894733115392/lud/28ad2b6081e448a6a68087f3c65296af.m3u8?MtsHlsUriToken=add111785f3f48af81cb3c3d41a32d724475412547b545d394540493a1d32c46</v>
+        <v>https://v.baoshiyun.com/resource/media-842894733115392/lud/28ad2b6081e448a6a68087f3c65296af.m3u8?MtsHlsUriToken=9097fdd9d4da49fabed2a33e81ce441403160bfe96f9468e91e36147c89690d8</v>
       </c>
     </row>
     <row r="106">
@@ -10121,7 +10121,7 @@
         <v/>
       </c>
       <c r="E108" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894945714177/lud/8a8209a93cbe4a128441b4378184560e.m3u8?MtsHlsUriToken=cd64279fb86c4bef808cf98c08be07ca9d0025406a6d400686d8bae8dc762362</v>
+        <v>https://v.baoshiyun.com/resource/media-842894945714177/lud/8a8209a93cbe4a128441b4378184560e.m3u8?MtsHlsUriToken=34410e5cda3d415f8fa7ff8dc6ef1f5c3cdebdaf38904f8ba95fe00164988504</v>
       </c>
     </row>
     <row r="109">
@@ -10138,7 +10138,7 @@
         <v/>
       </c>
       <c r="E109" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894906130433/lud/7bf42697fbb543c08aaa394224bf35ec.m3u8?MtsHlsUriToken=92b5958e219945d8a3d6dfb05ab666e3e3b320f8469444a78a86b4ab0948f2b8</v>
+        <v>https://v.baoshiyun.com/resource/media-842894906130433/lud/7bf42697fbb543c08aaa394224bf35ec.m3u8?MtsHlsUriToken=d579dee93b9c4f0ba1936c55126009e1ff1fffb4fd9a4265996bab888d2b0f9c</v>
       </c>
     </row>
     <row r="110">
@@ -10155,7 +10155,7 @@
         <v/>
       </c>
       <c r="E110" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894926807040/lud/c4843c000b0a4d0aaa09eea22c17ba9d.m3u8?MtsHlsUriToken=d34fc334d26d47a1adf32192c5274f32f0f10de5f3534930b4cdd903188f0806</v>
+        <v>https://v.baoshiyun.com/resource/media-842894926807040/lud/c4843c000b0a4d0aaa09eea22c17ba9d.m3u8?MtsHlsUriToken=8647c8108538497f889b4f453d4aaf23395f405243d846c38f8b96aaafa01462</v>
       </c>
     </row>
     <row r="111">
@@ -10189,7 +10189,7 @@
         <v/>
       </c>
       <c r="E112" t="str">
-        <v>https://v.baoshiyun.com/resource/media-842894965440512/lud/f35724fd91424aec8f16804b8d2566ba.m3u8?MtsHlsUriToken=e96eaba49cc44fac8aabaa755e9e1e546f0410b58a2644b88aaee5f7c9402d27</v>
+        <v>https://v.baoshiyun.com/resource/media-842894965440512/lud/f35724fd91424aec8f16804b8d2566ba.m3u8?MtsHlsUriToken=f81ba407abfa4c328cec993668d896371a196479bf70474e89c169694a6e8e7d</v>
       </c>
     </row>
     <row r="113">
@@ -10240,7 +10240,7 @@
         <v/>
       </c>
       <c r="E115" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846198187884545/lud/3a4bf2717fae4173ab6703f50192dd0a.m3u8?MtsHlsUriToken=e83af5d5eb7d459a830ec6225893492472f486d579d8466a843e0df8614a9fb5</v>
+        <v>https://v.baoshiyun.com/resource/media-846198187884545/lud/3a4bf2717fae4173ab6703f50192dd0a.m3u8?MtsHlsUriToken=96cfdcf18eb84fe08d3cb1696779a47e5d2f7f581f96404795b850c558aae182</v>
       </c>
     </row>
     <row r="116">
@@ -10291,7 +10291,7 @@
         <v/>
       </c>
       <c r="E118" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846198249226240/lud/d76d6a574b06401ebd2ffd1e8d15e27c.m3u8?MtsHlsUriToken=49b624d3067b4186ac5cd2f42b76b95cfd039b2dabd9464095cc5f86137cc459</v>
+        <v>https://v.baoshiyun.com/resource/media-846198249226240/lud/d76d6a574b06401ebd2ffd1e8d15e27c.m3u8?MtsHlsUriToken=4083d2b8f78a4bdfbc7d6a72d1c9ea6b4d612ee7ea3b4a7ba132f9b3fcf1e7fb</v>
       </c>
     </row>
     <row r="119">
@@ -10342,7 +10342,7 @@
         <v/>
       </c>
       <c r="E121" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846198472146945/lud/59ba67d68ae54708a6ff39afaeb91a3f.m3u8?MtsHlsUriToken=0a4bd5d3d0704728a3e98071c7fbf357c1104e2c929941a6aa5bf37e8f2dce8b</v>
+        <v>https://v.baoshiyun.com/resource/media-846198472146945/lud/59ba67d68ae54708a6ff39afaeb91a3f.m3u8?MtsHlsUriToken=312bdd1ec50445bca9c0d0c10547b18aa11a8cccf8ce428890dc28bb1b97ff9e</v>
       </c>
     </row>
     <row r="122">
@@ -10444,7 +10444,7 @@
         <v/>
       </c>
       <c r="E127" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011202142218/lud/cc9453e416424a8d83bbf6f1f7bd2c23.m3u8?MtsHlsUriToken=b7344b14cafb4a5ba05d3249dc36ff7207d508580e14478bac3ba673e50504ec</v>
+        <v>https://v.baoshiyun.com/resource/media-846011202142218/lud/cc9453e416424a8d83bbf6f1f7bd2c23.m3u8?MtsHlsUriToken=2832c98a19f24d849661c82e13e64761362dd27d7aef483283cf2e8f1a82ad73</v>
       </c>
     </row>
     <row r="128">
@@ -10461,7 +10461,7 @@
         <v/>
       </c>
       <c r="E128" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011125694474/lud/0004cb1228d64d2dac79c7034348542e.m3u8?MtsHlsUriToken=b87587e7a8574dc4a2eaa9130bf94e93177e7648245442d2be5e8eddcee6a769</v>
+        <v>https://v.baoshiyun.com/resource/media-846011125694474/lud/0004cb1228d64d2dac79c7034348542e.m3u8?MtsHlsUriToken=3fa9c64c6d6d44c696237ca1f1a17de921ba3830096546f49aac8462bca23667</v>
       </c>
     </row>
     <row r="129">
@@ -10546,7 +10546,7 @@
         <v/>
       </c>
       <c r="E133" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011202732033/lud/d4f8c31f6b744272900f7050b5f8abb3.m3u8?MtsHlsUriToken=79505bc9659149b189e91c4849459d0e9f8984593bb64d67b213ff90f99ab20e</v>
+        <v>https://v.baoshiyun.com/resource/media-846011202732033/lud/d4f8c31f6b744272900f7050b5f8abb3.m3u8?MtsHlsUriToken=7ac709a5912f4a4091f1e0be5c6a49c43f59364631f14b95bb63654451cd6a3f</v>
       </c>
     </row>
     <row r="134">
@@ -10597,7 +10597,7 @@
         <v/>
       </c>
       <c r="E136" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011265646592/lud/bf327925a54e416c91868c81c87d01e2.m3u8?MtsHlsUriToken=ad812cdb4023476b922ae2629d71ca6c2cae00b7387a4a81bc33771241df715c</v>
+        <v>https://v.baoshiyun.com/resource/media-846011265646592/lud/bf327925a54e416c91868c81c87d01e2.m3u8?MtsHlsUriToken=abcbbd83aebd4c45b5d4f61ce311a7ca07d1d5b4b9664a9b9ef8305d9ef37823</v>
       </c>
     </row>
     <row r="137">
@@ -10648,7 +10648,7 @@
         <v/>
       </c>
       <c r="E139" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011381972994/lud/2bc1d973cd9b4d798d7a691500c30e38.m3u8?MtsHlsUriToken=3d5014c4a1b3407f8ad9bbb150a44ea856035141b0e64293b5a9541ae29a0bb6</v>
+        <v>https://v.baoshiyun.com/resource/media-846011381972994/lud/2bc1d973cd9b4d798d7a691500c30e38.m3u8?MtsHlsUriToken=5f0bd09580044beea3f21847b358d81fde007604ea45434ab395d8f01e007f90</v>
       </c>
     </row>
     <row r="140">
@@ -10699,7 +10699,7 @@
         <v/>
       </c>
       <c r="E142" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011465433089/lud/34c1a2cbad7748e98124c52263bb7500.m3u8?MtsHlsUriToken=3cd6defc588f47ae803c7eb4c3f57426855cc8bb03d846c6a2740b1b8b24e714</v>
+        <v>https://v.baoshiyun.com/resource/media-846011465433089/lud/34c1a2cbad7748e98124c52263bb7500.m3u8?MtsHlsUriToken=0a7e5096d56141d3a585ad8f218d4ad1620ec916d06b433f8f70d8dea9db7d0c</v>
       </c>
     </row>
     <row r="143">
@@ -10750,7 +10750,7 @@
         <v/>
       </c>
       <c r="E145" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011543552002/lud/194fde43f70644d6af2e5b363bef0474.m3u8?MtsHlsUriToken=82e79eaca4834c319159301f6780fe55d97dbfde0fc64ae087f7e466f04012c0</v>
+        <v>https://v.baoshiyun.com/resource/media-846011543552002/lud/194fde43f70644d6af2e5b363bef0474.m3u8?MtsHlsUriToken=022ee09553c24e65993c98f7987cc3008f230eb1316644dbba6df27329d79a01</v>
       </c>
     </row>
     <row r="146">
@@ -10869,7 +10869,7 @@
         <v/>
       </c>
       <c r="E152" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011677212673/lud/6c60420e853f4e5ab0e56347c5b03679.m3u8?MtsHlsUriToken=83df0c1b78e140ea86c12a416674f2496a1a8ea4ab23481db7b46b7dfe7b3ee7</v>
+        <v>https://v.baoshiyun.com/resource/media-846011677212673/lud/6c60420e853f4e5ab0e56347c5b03679.m3u8?MtsHlsUriToken=ee3e201f22eb4574b516b57ef344bb3c2d7f066bbc1a479ea8f96a9454a738a5</v>
       </c>
     </row>
     <row r="153">
@@ -10920,7 +10920,7 @@
         <v/>
       </c>
       <c r="E155" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011737505802/lud/cf941c4cc31c475696f36665886cd82c.m3u8?MtsHlsUriToken=dad56191cca54e49a08dbdb3d60b4ca18d83d4462fb247088b7b03caeb67a18b</v>
+        <v>https://v.baoshiyun.com/resource/media-846011737505802/lud/cf941c4cc31c475696f36665886cd82c.m3u8?MtsHlsUriToken=cb9ea8e545b94074abdabe1a10a35bb51554651b1132463582d550c820604c2c</v>
       </c>
     </row>
     <row r="156">
@@ -10971,7 +10971,7 @@
         <v/>
       </c>
       <c r="E158" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011785183232/lud/2daa04b9986847c7a91eb1154caa6575.m3u8?MtsHlsUriToken=b1c34da3edef4deb9450fd5512f4e036d1e85c35577e48e899e3e566ad06c3cf</v>
+        <v>https://v.baoshiyun.com/resource/media-846011785183232/lud/2daa04b9986847c7a91eb1154caa6575.m3u8?MtsHlsUriToken=1a48191b550e4cdfaf3830f59dca28f1ff420bfc3fc94f1d91a50a05dc33cb34</v>
       </c>
     </row>
     <row r="159">
@@ -11022,7 +11022,7 @@
         <v/>
       </c>
       <c r="E161" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846011861729280/lud/ce9b6202684b49a59dfa2578c48e7305.m3u8?MtsHlsUriToken=086d3ce8ad8944dfa79896eefd73c7f802946f70921f420889046e3311e2a135</v>
+        <v>https://v.baoshiyun.com/resource/media-846011861729280/lud/ce9b6202684b49a59dfa2578c48e7305.m3u8?MtsHlsUriToken=54ca977dbb0743b2855f402e8d28876ae32771bf527c456eae71d03a04a18b64</v>
       </c>
     </row>
     <row r="162">
@@ -11090,7 +11090,7 @@
         <v/>
       </c>
       <c r="E165" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846044968386560/lud/00a71b9010f242f681a24a0e06ed7455.m3u8?MtsHlsUriToken=5b00607942364372ba11154a05bb76f04b9bce7d612e4b99b47548bcd8c08f43</v>
+        <v>https://v.baoshiyun.com/resource/media-846044968386560/lud/00a71b9010f242f681a24a0e06ed7455.m3u8?MtsHlsUriToken=381ed8e32907462e9eeff63cfd5ba1b5f17e7c0a80bc4bcf8c63b3d140af5511</v>
       </c>
     </row>
     <row r="166">
@@ -11141,7 +11141,7 @@
         <v/>
       </c>
       <c r="E168" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045013999618/lud/76ceef1c2b4545289224b967c208c622.m3u8?MtsHlsUriToken=d655fd1bf7bb4081920348f8855e548f20d461292ec74785991a93a2bf86095a</v>
+        <v>https://v.baoshiyun.com/resource/media-846045013999618/lud/76ceef1c2b4545289224b967c208c622.m3u8?MtsHlsUriToken=85d0138d6b424b5d8088e0ccd36efa173c7a6537f55f4f77a598d9ee01cf5bfc</v>
       </c>
     </row>
     <row r="169">
@@ -11209,7 +11209,7 @@
         <v/>
       </c>
       <c r="E172" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045151952896/lud/7f0d48cafc9b491caa92eaecb940d8ca.m3u8?MtsHlsUriToken=ac2a57be1caf4722aec61f355eb780fd072f1ae4e42843e591db826b5dd87d3d</v>
+        <v>https://v.baoshiyun.com/resource/media-846045151952896/lud/7f0d48cafc9b491caa92eaecb940d8ca.m3u8?MtsHlsUriToken=3b8f19f0c6dc4b9bb0f4f520c0943fe2cc69c1798b194237bc2c23197a45a651</v>
       </c>
     </row>
     <row r="173">
@@ -11260,7 +11260,7 @@
         <v/>
       </c>
       <c r="E175" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045375299590/lud/5f23975bab0b4ccc86b65848704a702f.m3u8?MtsHlsUriToken=d1277129621b406da115e32580826eef135ed78f3cfa46769cef08ce3754725a</v>
+        <v>https://v.baoshiyun.com/resource/media-846045375299590/lud/5f23975bab0b4ccc86b65848704a702f.m3u8?MtsHlsUriToken=df5b3f896fcc43afac6e74922adc2f4faefdda7bb7e44245a94104e5b97a1c76</v>
       </c>
     </row>
     <row r="176">
@@ -11294,7 +11294,7 @@
         <v/>
       </c>
       <c r="E177" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045438246914/lud/c69aef8b128545728f925a3c744027f0.m3u8?MtsHlsUriToken=54d9de11c6c3433e8993eb79f785f229f9a3d9e568ff42deb30559033a9c70df</v>
+        <v>https://v.baoshiyun.com/resource/media-846045438246914/lud/c69aef8b128545728f925a3c744027f0.m3u8?MtsHlsUriToken=3371ffbbac834489b84b143a8ee865b79a2c9ff48cf145cba535db1b019c1625</v>
       </c>
     </row>
     <row r="178">
@@ -11379,7 +11379,7 @@
         <v/>
       </c>
       <c r="E182" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045653696513/lud/437752ac1e724ca6b65e6808c03405fe.m3u8?MtsHlsUriToken=78a13ddfa1774dac86788281391275a1bb024370504d428a9fa2e3313f6ef298</v>
+        <v>https://v.baoshiyun.com/resource/media-846045653696513/lud/437752ac1e724ca6b65e6808c03405fe.m3u8?MtsHlsUriToken=eeb22b1a5cdd496c93c18e57306421685ac8539dd9144ac78958fd75c5e7d2ac</v>
       </c>
     </row>
     <row r="183">
@@ -11413,7 +11413,7 @@
         <v/>
       </c>
       <c r="E184" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045689905152/lud/0e2970dbc42e47999175f0fb1209e126.m3u8?MtsHlsUriToken=15e67101dfa549cb95c72ae30edb2eaa6dce36834a9349f6a701e571469a51ac</v>
+        <v>https://v.baoshiyun.com/resource/media-846045689905152/lud/0e2970dbc42e47999175f0fb1209e126.m3u8?MtsHlsUriToken=b06d5c17bdd44b399207313c0f6b07c5747c5c0c99474035a5168610afa09121</v>
       </c>
     </row>
     <row r="185">
@@ -11447,7 +11447,7 @@
         <v/>
       </c>
       <c r="E186" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045729128448/lud/811d30af110f46088e99c71445b41679.m3u8?MtsHlsUriToken=3154639d6b7344cdbd731ecf3c7f600d384214f76f88401797b1eb73ccc8a499</v>
+        <v>https://v.baoshiyun.com/resource/media-846045729128448/lud/811d30af110f46088e99c71445b41679.m3u8?MtsHlsUriToken=db3bf59844584a4bbb99640de660234f318ed660ff9b48f29c70a99cb09e20b5</v>
       </c>
     </row>
     <row r="187">
@@ -11481,7 +11481,7 @@
         <v/>
       </c>
       <c r="E188" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045816750082/lud/39f750a5297342319e3fc142f635617e.m3u8?MtsHlsUriToken=c0d57b1e7ec54d78843aa647ac7e12c5a03f0bf54a194872827bdba09554a429</v>
+        <v>https://v.baoshiyun.com/resource/media-846045816750082/lud/39f750a5297342319e3fc142f635617e.m3u8?MtsHlsUriToken=dcdf227fcf78424baf087a42657b2fb496786261a74c4898b5309aef52cae9b6</v>
       </c>
     </row>
     <row r="189">
@@ -11549,7 +11549,7 @@
         <v/>
       </c>
       <c r="E192" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045866590212/lud/a36e2505203c457b8a7691b0a5a2b9cf.m3u8?MtsHlsUriToken=7607d9f9949549098a7d2c490d1207fdfbe38a18eb63464ca65e504cca70aa7a</v>
+        <v>https://v.baoshiyun.com/resource/media-846045866590212/lud/a36e2505203c457b8a7691b0a5a2b9cf.m3u8?MtsHlsUriToken=8ee3f811dcd74894ba4674d02a00c1d1deb68279b3d1466ca5b6ae58cf1297bd</v>
       </c>
     </row>
     <row r="193">
@@ -11600,7 +11600,7 @@
         <v/>
       </c>
       <c r="E195" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846045902176256/lud/a4f5920bd3244d108ed87393fa0b07a4.m3u8?MtsHlsUriToken=b4c8cfdddf324354805195b0beda5aa8b45a3acdde1e430aa757c0e8d0737502</v>
+        <v>https://v.baoshiyun.com/resource/media-846045902176256/lud/a4f5920bd3244d108ed87393fa0b07a4.m3u8?MtsHlsUriToken=4b91dcf0ec3d4612ae0ea1149826bae5c30d51f88afd4710bc9183ea670d89ff</v>
       </c>
     </row>
     <row r="196">
@@ -11651,7 +11651,7 @@
         <v/>
       </c>
       <c r="E198" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846089274916865/lud/afff16f433a744f48dec6682ad6683f0.m3u8?MtsHlsUriToken=15e3e284be1b4279b1d3398c180cd7957840dde1071f40ef8cb49475f205dbac</v>
+        <v>https://v.baoshiyun.com/resource/media-846089274916865/lud/afff16f433a744f48dec6682ad6683f0.m3u8?MtsHlsUriToken=337d6c56920a428ea31a78e9eb5b0b6cd33366b2102f470996123fb749fae176</v>
       </c>
     </row>
     <row r="199">
@@ -11702,7 +11702,7 @@
         <v/>
       </c>
       <c r="E201" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846089474244609/lud/fa06abc324414fa79f99824210b05819.m3u8?MtsHlsUriToken=8a84b3ff23f34ed386733f0fc5a44e01fab4f93157554939a552bab23d2435f4</v>
+        <v>https://v.baoshiyun.com/resource/media-846089474244609/lud/fa06abc324414fa79f99824210b05819.m3u8?MtsHlsUriToken=ceed3835e6b94d80b889b5dd06781fd197cd1d2f32df44d3babc56233b1be4c5</v>
       </c>
     </row>
     <row r="202">
@@ -11736,7 +11736,7 @@
         <v/>
       </c>
       <c r="E203" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846089568026625/lud/c7fa3125b41043919422d0ba482780af.m3u8?MtsHlsUriToken=f803d4e7915d47b78e1c0b6f7402dc640bc026cc9b3741d1b99f3d242df52420</v>
+        <v>https://v.baoshiyun.com/resource/media-846089568026625/lud/c7fa3125b41043919422d0ba482780af.m3u8?MtsHlsUriToken=95e343df0ebb416fb6dc0abaa70cc24780a5d67fd37446e88f54955413139580</v>
       </c>
     </row>
     <row r="204">
@@ -11770,7 +11770,7 @@
         <v/>
       </c>
       <c r="E205" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846096844685313/lud/ae37df85615c411ca43d3a69acc53692.m3u8?MtsHlsUriToken=676bcade470242899fe0ef7e52774a76ee8859ccfcd741aea80324a8057341d0</v>
+        <v>https://v.baoshiyun.com/resource/media-846096844685313/lud/ae37df85615c411ca43d3a69acc53692.m3u8?MtsHlsUriToken=5d5631f02c874156830b6ab47fd1060e03b82a23ef134e57a3fb867ffe1df0c5</v>
       </c>
     </row>
     <row r="206">
@@ -11821,7 +11821,7 @@
         <v/>
       </c>
       <c r="E208" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846096987717636/lud/a4f531ad050a4b66920678f9b5340c1d.m3u8?MtsHlsUriToken=378c952349474f51944c73fffefd05c949013d048d3b4b59a0c27369329fb155</v>
+        <v>https://v.baoshiyun.com/resource/media-846096987717636/lud/a4f531ad050a4b66920678f9b5340c1d.m3u8?MtsHlsUriToken=b1154b7dc37a42e7b1625c14cb37a99a0a0d3572d3c04d65a178962ba0f0360a</v>
       </c>
     </row>
     <row r="209">
@@ -11906,7 +11906,7 @@
         <v/>
       </c>
       <c r="E213" t="str">
-        <v>https://v.baoshiyun.com/resource/media-845331746455552/lud/a23f4f35963345578733f2261e7eb276.m3u8?MtsHlsUriToken=ae57c5938ade4ed788b4b33241cc57685dc74d06663a4f03b60e9e2035947e7a</v>
+        <v>https://v.baoshiyun.com/resource/media-845331746455552/lud/a23f4f35963345578733f2261e7eb276.m3u8?MtsHlsUriToken=d204730015204fe7b3aac601a3dd55d2003e0025e53841b1b9515de9de468e52</v>
       </c>
     </row>
     <row r="214">
@@ -11923,7 +11923,7 @@
         <v/>
       </c>
       <c r="E214" t="str">
-        <v>https://v.baoshiyun.com/resource/media-845418584309760/lud/f8f900c182a64ab383ce02b474ba28d2.m3u8?MtsHlsUriToken=09f8b16986d449dca0f9d559388642676f7346cfb7fa4a09a1f20947d004c2ac</v>
+        <v>https://v.baoshiyun.com/resource/media-845418584309760/lud/f8f900c182a64ab383ce02b474ba28d2.m3u8?MtsHlsUriToken=abdb109767d643a0b2a154b68e74c17a45d91a08bde64ea9a8193fc7d31d3d3c</v>
       </c>
     </row>
     <row r="215">
@@ -11957,7 +11957,7 @@
         <v/>
       </c>
       <c r="E216" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846187971117056/lud/e4dfe34b10ed4216a5e281cff29c65fe.m3u8?MtsHlsUriToken=2afff5555550434aad8b58258c350ec5bf399ef456dd44ceb3fc847d0168fab4</v>
+        <v>https://v.baoshiyun.com/resource/media-846187971117056/lud/e4dfe34b10ed4216a5e281cff29c65fe.m3u8?MtsHlsUriToken=37c45128351c4f378e7ddda33dc595756ffe2bf96f4d4e379c23e9bf1de21b78</v>
       </c>
     </row>
     <row r="217">
@@ -11974,7 +11974,7 @@
         <v/>
       </c>
       <c r="E217" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846413988528128/lud/b61b2726dec541edbddd316e153ddf0d.m3u8?MtsHlsUriToken=2ff15220da5b41fb8eff6d16545620d8f6419d6261a34684bd402f9c133f7180</v>
+        <v>https://v.baoshiyun.com/resource/media-846413988528128/lud/b61b2726dec541edbddd316e153ddf0d.m3u8?MtsHlsUriToken=e4d8064262f04dc58899fc377a782d1dcbcd568e9ae4455da2c357e73bafe6e7</v>
       </c>
     </row>
     <row r="218">
@@ -12025,7 +12025,7 @@
         <v/>
       </c>
       <c r="E220" t="str">
-        <v>https://v.baoshiyun.com/resource/media-846595690528768/lud/733d472c7b6c4b51b1c6a41b9f4b14da.m3u8?MtsHlsUriToken=103e5da15cc442769426a08f2af966e0aef376e3be5a440193914430a0fd41b9</v>
+        <v>https://v.baoshiyun.com/resource/media-846595690528768/lud/733d472c7b6c4b51b1c6a41b9f4b14da.m3u8?MtsHlsUriToken=7ec8ca165cce4cf997a8df7bc416d125835dcd51f165426c847d87500e93800c</v>
       </c>
     </row>
   </sheetData>
